--- a/assets/i18n_data/foods_lang.xlsx
+++ b/assets/i18n_data/foods_lang.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22665" windowHeight="12795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="de" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="es" sheetId="4" r:id="rId4"/>
     <sheet name="pl" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1072">
   <si>
     <t>id</t>
   </si>
@@ -2093,7 +2093,580 @@
     <t>Courgette, Zucchini</t>
   </si>
   <si>
-    <t>NONE</t>
+    <t>https://es.wikipedia.org/wiki/Phyllanthus_emblica</t>
+  </si>
+  <si>
+    <t>Grosellero de la India</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Malus_domestica</t>
+  </si>
+  <si>
+    <t>Manzana</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Prunus_armeniaca</t>
+  </si>
+  <si>
+    <t>Albaricoque</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cynara_scolymus</t>
+  </si>
+  <si>
+    <t>Alcachofa</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Asparagus_officinalis</t>
+  </si>
+  <si>
+    <t>Espárragos, Gorrión</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Persea_americana</t>
+  </si>
+  <si>
+    <t>Aguacate, Pera de aguacate, Pera de cocodrilo, Palta</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Musa_(planta)</t>
+  </si>
+  <si>
+    <t>Banana, Plátano</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Lactuca_sativa</t>
+  </si>
+  <si>
+    <t>Batavia, Ensalada, Lechuga</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Beta_vulgaris</t>
+  </si>
+  <si>
+    <t>Remolacha, remolacha, remolacha de mesa, remolacha roja</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Mora_(fruta)</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Vaccinium_myrtillus</t>
+  </si>
+  <si>
+    <t>Arándano</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._italica</t>
+  </si>
+  <si>
+    <t>Brócoli</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._gemmifera</t>
+  </si>
+  <si>
+    <t>Coles de bruselas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ceratonia_siliqua</t>
+  </si>
+  <si>
+    <t>Carambola, carambola</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Daucus_carota</t>
+  </si>
+  <si>
+    <t>Zanahoria</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._botrytis</t>
+  </si>
+  <si>
+    <t>Coliflor</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Apium_graveolens</t>
+  </si>
+  <si>
+    <t>Apio, apio pomo, raíz de apio</t>
+  </si>
+  <si>
+    <t>Apio</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Agaricus</t>
+  </si>
+  <si>
+    <t>Champiñón, Champiñón</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Beta_vulgaris_var._cicla</t>
+  </si>
+  <si>
+    <t>Acelgas, acelgas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Prunus_avium</t>
+  </si>
+  <si>
+    <t>Cereza, Cereza Dulce, Cereza Silvestre, Gean</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Castanea_sativa</t>
+  </si>
+  <si>
+    <t>Castaña, Castaña sativa</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cichorium_intybus</t>
+  </si>
+  <si>
+    <t>Achicoria</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_rapa_pekinensis</t>
+  </si>
+  <si>
+    <t>Repollo chino, repollo de Napa, Napa</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Citrus_reticulata</t>
+  </si>
+  <si>
+    <t>Clementina, Mandarina, Tangor, Mandarina</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Rubus_chamaemorus</t>
+  </si>
+  <si>
+    <t>Baya nórdica, Baya nórdica, Bakeapple, Knotberry, Knoutberry, Aqpik, Averin, Evron</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cocos_nucifera</t>
+  </si>
+  <si>
+    <t>Coco, Coco</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Vaccinium_macrocarpon</t>
+  </si>
+  <si>
+    <t>Judía común, judía verde, judía francesa</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cucumis_sativus</t>
+  </si>
+  <si>
+    <t>Pepino</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ribes</t>
+  </si>
+  <si>
+    <t>Grosella, Ribes</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/D%C3%A1til</t>
+  </si>
+  <si>
+    <t>Dátil, Dátilo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Pitahaya</t>
+  </si>
+  <si>
+    <t>Fruta del dragón, Pitaya, Pitahaya</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Solanum_melongena</t>
+  </si>
+  <si>
+    <t>Berenjena, berenjena, berenjena</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Sambucus_nigra</t>
+  </si>
+  <si>
+    <t>Saúco, sambucus, saúco</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cichorium_endivia</t>
+  </si>
+  <si>
+    <t>Escarola, Ensalada</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Foeniculum_vulgare</t>
+  </si>
+  <si>
+    <t>Hinojo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Valerianella_locusta</t>
+  </si>
+  <si>
+    <t>Ensalada de campo, Ensalada de maíz, Lechuga de cordero, Fetticus, Lechuga de nueces, Ensalada, Lechuga</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ribes_uva-crispa</t>
+  </si>
+  <si>
+    <t>Higo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Citrus_%C3%97_paradisi</t>
+  </si>
+  <si>
+    <t>Grosella</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Citrus_maxima</t>
+  </si>
+  <si>
+    <t>Pomelo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Uva</t>
+  </si>
+  <si>
+    <t>Uvas, Uva de vino</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Phaseolus_vulgaris</t>
+  </si>
+  <si>
+    <t>Frijoles verdes</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._sabellica</t>
+  </si>
+  <si>
+    <t>Col verde, Col, Col de hoja, Col rizada</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Allium_fistulosum</t>
+  </si>
+  <si>
+    <t>Cebollas verdes, Cebolla, Cebolla galesa, Cebolla de manojo, Cebolleta</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Psidium_guajava</t>
+  </si>
+  <si>
+    <t>Guayaba, Psidium Guayaba</t>
+  </si>
+  <si>
+    <t>Lechuga, Lechuga, Ensalada, Mantequilla, Boston, Lechuga Bibb</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cucumis_melo</t>
+  </si>
+  <si>
+    <t>Melón verde</t>
+  </si>
+  <si>
+    <t>Ensalada Iceberg, Crisphead, Ensalada, Lechuga</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Kiwi_(fruto)</t>
+  </si>
+  <si>
+    <t>Kiwi, kiwi</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._gongylodes</t>
+  </si>
+  <si>
+    <t>Colinabo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Allium_ampeloprasum_var._porrum</t>
+  </si>
+  <si>
+    <t>Puerro</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Citrus_%C3%97_limon</t>
+  </si>
+  <si>
+    <t>Limón</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Lima_(fruta)</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Vaccinium_vitis-idaea</t>
+  </si>
+  <si>
+    <t>Arándano rojo, Arándano rojo, Arándano rojo, Arándano de montaña</t>
+  </si>
+  <si>
+    <t>lechuga</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Litchi_chinensis</t>
+  </si>
+  <si>
+    <t>Lichi, Longan, Litchi</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Mangifera_indica</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Pyrus_pyrifolia</t>
+  </si>
+  <si>
+    <t>Pera Nashi, pera asiática, pera japonesa, pera china, pera coreana, pera manzana, pera taiwanesa, papple</t>
+  </si>
+  <si>
+    <t>https://es.wiktionary.org/wiki/nectarina</t>
+  </si>
+  <si>
+    <t>Nectarina</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Allium_cepa</t>
+  </si>
+  <si>
+    <t>Cebolla, Cebolla Común, Cepa, Chalota</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Naranja</t>
+  </si>
+  <si>
+    <t>Naranja, naranja dulce</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_rapa_subsp._chinensis</t>
+  </si>
+  <si>
+    <t>Bok choy , col china</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Carica_papaya</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Capsicum</t>
+  </si>
+  <si>
+    <t>Pimentón, Pimiento, Pimiento dulce, Pimiento morrón, Capsicum</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Pastinaca_sativa</t>
+  </si>
+  <si>
+    <t>Chirivía</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Passiflora_edulis</t>
+  </si>
+  <si>
+    <t>Maracuyá, Maracuyá, Passiflora edulis</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Prunus_persica</t>
+  </si>
+  <si>
+    <t>Melocotón, durazno</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Pyrus</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Pisum_sativum</t>
+  </si>
+  <si>
+    <t>Guisantes, guisante</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Diospyros_kaki</t>
+  </si>
+  <si>
+    <t>Caqui, Diospyros Kaki, Kaki</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Physalis_peruviana</t>
+  </si>
+  <si>
+    <t>Physalis, Groundcherry, Inca Berry, Cape gooseberry</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ananas_comosus</t>
+  </si>
+  <si>
+    <t>Piña, Ananas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Prunus_domestica</t>
+  </si>
+  <si>
+    <t>Ciruela, Ciruela Europea</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._capitata</t>
+  </si>
+  <si>
+    <t>Repollo puntiagudo, repollo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Punica_granatum</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Solanum_tuberosum</t>
+  </si>
+  <si>
+    <t>Patata</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Opuntia_ficus-indica</t>
+  </si>
+  <si>
+    <t>Higo chumbo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ciruela</t>
+  </si>
+  <si>
+    <t>Ciruela</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Calabaza_gigante</t>
+  </si>
+  <si>
+    <t>Calabaza</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._capitata_f._rubra</t>
+  </si>
+  <si>
+    <t>Repollo morado</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cydonia_oblonga</t>
+  </si>
+  <si>
+    <t>Membrillo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cichorium_intybus_var._foliosum</t>
+  </si>
+  <si>
+    <t>Radicchio, achicoria italiana</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Raphanus</t>
+  </si>
+  <si>
+    <t>Rábano, rábano pequeño</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Rubus_idaeus</t>
+  </si>
+  <si>
+    <t>Frambuesa</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Rheum_rhabarbarum</t>
+  </si>
+  <si>
+    <t>Ruibarbo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Escaramujo</t>
+  </si>
+  <si>
+    <t>Rosa mosqueta, rosa mosqueta, rosa haw, rosa hep</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._sabauda</t>
+  </si>
+  <si>
+    <t>Saboya, Col de Saboya, Col</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Raphanus_sativus</t>
+  </si>
+  <si>
+    <t>Rábano rojo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Sorbus_aucuparia</t>
+  </si>
+  <si>
+    <t>Serbal de los cazadores, azarollo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Spinacia_oleracea</t>
+  </si>
+  <si>
+    <t>Espinacas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Carambola</t>
+  </si>
+  <si>
+    <t>Fresa</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Fragaria_%C3%97_ananassa</t>
+  </si>
+  <si>
+    <t>Camote, Camote</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Zea_mays</t>
+  </si>
+  <si>
+    <t>Maíz dulce</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ipomoea_batatas</t>
+  </si>
+  <si>
+    <t>Batatas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Solanum_lycopersicum</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Citrullus_lanatus</t>
+  </si>
+  <si>
+    <t>Sandía, Sandía</t>
+  </si>
+  <si>
+    <t>Repollo blanco, repollo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Fragaria_vesca</t>
+  </si>
+  <si>
+    <t>Fresa silvestre, Fraisier des bois, Woodland Strawberry</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Prunus_domestica_var._syriaca</t>
+  </si>
+  <si>
+    <t>Ciruela amarilla, Ciruela Mirabelle, Ciruela Mirabelle, Ciruela Cherry</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Calabaza</t>
+  </si>
+  <si>
+    <t>Calabacín, Calabacín, Tuétano de bebé</t>
   </si>
   <si>
     <t>https://pl.wikipedia.org/wiki/Li%C5%9Bciokwiat_garbnikowy</t>
@@ -2667,12 +3240,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2680,18 +3259,354 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2699,24 +3614,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2999,17 +4205,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
@@ -4124,118 +5332,125 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8" location="Geschichte"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17" location="Knollensellerie"/>
-    <hyperlink ref="C19" r:id="rId18" location="Staudensellerie"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27" location="Kokosnuss"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62"/>
-    <hyperlink ref="C64" r:id="rId63"/>
-    <hyperlink ref="C65" r:id="rId64"/>
-    <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="C67" r:id="rId66"/>
-    <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71"/>
-    <hyperlink ref="C73" r:id="rId72"/>
-    <hyperlink ref="C74" r:id="rId73"/>
-    <hyperlink ref="C75" r:id="rId74"/>
-    <hyperlink ref="C76" r:id="rId75"/>
-    <hyperlink ref="C77" r:id="rId76"/>
-    <hyperlink ref="C78" r:id="rId77"/>
-    <hyperlink ref="C79" r:id="rId78"/>
-    <hyperlink ref="C80" r:id="rId79"/>
-    <hyperlink ref="C81" r:id="rId80"/>
-    <hyperlink ref="C82" r:id="rId81"/>
-    <hyperlink ref="C83" r:id="rId82"/>
-    <hyperlink ref="C84" r:id="rId83"/>
-    <hyperlink ref="C85" r:id="rId84"/>
-    <hyperlink ref="C86" r:id="rId85"/>
-    <hyperlink ref="C87" r:id="rId86"/>
-    <hyperlink ref="C88" r:id="rId87"/>
-    <hyperlink ref="C89" r:id="rId88"/>
-    <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://de.wikipedia.org/wiki/Amlabaum"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://de.wikipedia.org/wiki/Kulturapfel"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://de.wikipedia.org/wiki/Aprikose"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://de.wikipedia.org/wiki/Artischocke"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://de.wikipedia.org/wiki/Gem%C3%BCsespargel"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://de.wikipedia.org/wiki/Avocado"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://de.wikipedia.org/wiki/Bananen"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://de.wikipedia.org/wiki/Eisbergsalat#Geschichte"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://de.wikipedia.org/wiki/Rote_Bete"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://de.wikipedia.org/wiki/Brombeeren"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://de.wikipedia.org/wiki/Heidelbeere"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://de.wikipedia.org/wiki/Brokkoli"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://de.wikipedia.org/wiki/Rosenkohl"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://de.wikipedia.org/wiki/Johannisbrotbaum"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://de.wikipedia.org/wiki/Karotte"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://de.wikipedia.org/wiki/Blumenkohl"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://de.wikipedia.org/wiki/Echter_Sellerie#Knollensellerie"/>
+    <hyperlink ref="C19" r:id="rId17" display="https://de.wikipedia.org/wiki/Echter_Sellerie#Staudensellerie"/>
+    <hyperlink ref="C20" r:id="rId18" display="https://de.wikipedia.org/wiki/Champignons"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://de.wikipedia.org/wiki/Mangold"/>
+    <hyperlink ref="C22" r:id="rId20" display="https://de.wikipedia.org/wiki/Vogel-Kirsche"/>
+    <hyperlink ref="C23" r:id="rId21" display="https://de.wikipedia.org/wiki/Edelkastanie"/>
+    <hyperlink ref="C24" r:id="rId22" display="https://de.wikipedia.org/wiki/Chicor%C3%A9e"/>
+    <hyperlink ref="C25" r:id="rId23" display="https://de.wikipedia.org/wiki/Chinakohl"/>
+    <hyperlink ref="C26" r:id="rId24" display="https://de.wikipedia.org/wiki/Mandarine"/>
+    <hyperlink ref="C27" r:id="rId25" display="https://de.wikipedia.org/wiki/Moltebeere"/>
+    <hyperlink ref="C28" r:id="rId26" display="https://de.wikipedia.org/wiki/Kokospalme#Kokosnuss"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://de.wikipedia.org/wiki/Gro%C3%9Ffr%C3%BCchtige_Moosbeere"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://de.wikipedia.org/wiki/Gurke"/>
+    <hyperlink ref="C31" r:id="rId29" display="https://de.wikipedia.org/wiki/Johannisbeeren"/>
+    <hyperlink ref="C32" r:id="rId30" display="https://de.wikipedia.org/wiki/Echte_Dattelpalme"/>
+    <hyperlink ref="C33" r:id="rId31" display="https://de.wikipedia.org/wiki/Drachenfrucht"/>
+    <hyperlink ref="C34" r:id="rId32" display="https://de.wikipedia.org/wiki/Aubergine"/>
+    <hyperlink ref="C35" r:id="rId33" display="https://de.wikipedia.org/wiki/Schwarzer_Holunder"/>
+    <hyperlink ref="C36" r:id="rId34" display="https://de.wikipedia.org/wiki/Endivie"/>
+    <hyperlink ref="C37" r:id="rId35" display="https://de.wikipedia.org/wiki/Fenchel"/>
+    <hyperlink ref="C38" r:id="rId36" display="https://de.wikipedia.org/wiki/Gew%C3%B6hnlicher_Feldsalat"/>
+    <hyperlink ref="C39" r:id="rId37" display="https://de.wikipedia.org/wiki/Echte_Feige"/>
+    <hyperlink ref="C40" r:id="rId38" display="https://de.wikipedia.org/wiki/Stachelbeere"/>
+    <hyperlink ref="C41" r:id="rId39" display="https://de.wikipedia.org/wiki/Grapefruit"/>
+    <hyperlink ref="C42" r:id="rId40" display="https://de.wikipedia.org/wiki/Weintraube"/>
+    <hyperlink ref="C43" r:id="rId41" display="https://de.wikipedia.org/wiki/Gartenbohne"/>
+    <hyperlink ref="C44" r:id="rId42" display="https://de.wikipedia.org/wiki/Gr%C3%BCnkohl"/>
+    <hyperlink ref="C45" r:id="rId43" display="https://de.wikipedia.org/wiki/Winterzwiebel"/>
+    <hyperlink ref="C46" r:id="rId44" display="https://de.wikipedia.org/wiki/Echte_Guave"/>
+    <hyperlink ref="C47" r:id="rId45" display="https://de.wikipedia.org/wiki/Kopfsalat"/>
+    <hyperlink ref="C48" r:id="rId46" display="https://de.wikipedia.org/wiki/Zuckermelone"/>
+    <hyperlink ref="C49" r:id="rId8" display="https://de.wikipedia.org/wiki/Eisbergsalat"/>
+    <hyperlink ref="C50" r:id="rId47" display="https://de.wikipedia.org/wiki/Kiwifrucht"/>
+    <hyperlink ref="C51" r:id="rId48" display="https://de.wikipedia.org/wiki/Kohlrabi"/>
+    <hyperlink ref="C52" r:id="rId49" display="https://de.wikipedia.org/wiki/Lauch"/>
+    <hyperlink ref="C53" r:id="rId50" display="https://de.wikipedia.org/wiki/Zitrone"/>
+    <hyperlink ref="C54" r:id="rId51" display="https://de.wikipedia.org/wiki/Limette"/>
+    <hyperlink ref="C55" r:id="rId52" display="https://de.wikipedia.org/wiki/Preiselbeere"/>
+    <hyperlink ref="C56" r:id="rId53" display="https://de.wikipedia.org/wiki/Schnittsalat"/>
+    <hyperlink ref="C57" r:id="rId54" display="https://de.wikipedia.org/wiki/Litschibaum"/>
+    <hyperlink ref="C58" r:id="rId55" display="https://de.wikipedia.org/wiki/Mango"/>
+    <hyperlink ref="C59" r:id="rId56" display="https://de.wikipedia.org/wiki/Nashi-Birne"/>
+    <hyperlink ref="C60" r:id="rId57" display="https://de.wikipedia.org/wiki/Nektarine"/>
+    <hyperlink ref="C61" r:id="rId58" display="https://de.wikipedia.org/wiki/Zwiebel"/>
+    <hyperlink ref="C62" r:id="rId59" display="https://de.wikipedia.org/wiki/Orange_(Frucht)"/>
+    <hyperlink ref="C63" r:id="rId60" display="https://de.wikipedia.org/wiki/Pak_Choi"/>
+    <hyperlink ref="C64" r:id="rId61" display="https://de.wikipedia.org/wiki/Papaya"/>
+    <hyperlink ref="C65" r:id="rId62" display="https://de.wikipedia.org/wiki/Paprika"/>
+    <hyperlink ref="C66" r:id="rId63" display="https://de.wikipedia.org/wiki/Pastinak"/>
+    <hyperlink ref="C67" r:id="rId64" display="https://de.wikipedia.org/wiki/Passiflora_edulis"/>
+    <hyperlink ref="C68" r:id="rId65" display="https://de.wikipedia.org/wiki/Pfirsich"/>
+    <hyperlink ref="C69" r:id="rId66" display="https://de.wikipedia.org/wiki/Birnen"/>
+    <hyperlink ref="C70" r:id="rId67" display="https://de.wikipedia.org/wiki/Erbse"/>
+    <hyperlink ref="C71" r:id="rId68" display="https://de.wikipedia.org/wiki/Kaki"/>
+    <hyperlink ref="C72" r:id="rId69" display="https://de.wikipedia.org/wiki/Kapstachelbeere"/>
+    <hyperlink ref="C73" r:id="rId70" display="https://de.wikipedia.org/wiki/Ananas"/>
+    <hyperlink ref="C74" r:id="rId71" display="https://de.wikipedia.org/wiki/Pflaume"/>
+    <hyperlink ref="C75" r:id="rId72" display="https://de.wikipedia.org/wiki/Spitzkohl"/>
+    <hyperlink ref="C76" r:id="rId73" display="https://de.wikipedia.org/wiki/Granatapfel"/>
+    <hyperlink ref="C77" r:id="rId74" display="https://de.wikipedia.org/wiki/Kartoffel"/>
+    <hyperlink ref="C78" r:id="rId75" display="https://de.wikipedia.org/wiki/Opuntia_ficus-indica"/>
+    <hyperlink ref="C79" r:id="rId76" display="https://de.wikipedia.org/wiki/Zwetschge"/>
+    <hyperlink ref="C80" r:id="rId77" display="https://de.wikipedia.org/wiki/K%C3%BCrbisse"/>
+    <hyperlink ref="C81" r:id="rId78" display="https://de.wikipedia.org/wiki/Rotkohl"/>
+    <hyperlink ref="C82" r:id="rId79" display="https://de.wikipedia.org/wiki/Quitte"/>
+    <hyperlink ref="C83" r:id="rId80" display="https://de.wikipedia.org/wiki/Radicchio"/>
+    <hyperlink ref="C84" r:id="rId81" display="https://de.wikipedia.org/wiki/Rettiche"/>
+    <hyperlink ref="C85" r:id="rId82" display="https://de.wikipedia.org/wiki/Himbeere"/>
+    <hyperlink ref="C86" r:id="rId83" display="https://de.wikipedia.org/wiki/Gemeiner_Rhabarber"/>
+    <hyperlink ref="C87" r:id="rId84" display="https://de.wikipedia.org/wiki/Hagebutte"/>
+    <hyperlink ref="C88" r:id="rId85" display="https://de.wikipedia.org/wiki/Wirsing"/>
+    <hyperlink ref="C89" r:id="rId86" display="https://de.wikipedia.org/wiki/Radieschen"/>
+    <hyperlink ref="C90" r:id="rId87" display="https://de.wikipedia.org/wiki/Vogelbeere"/>
+    <hyperlink ref="C91" r:id="rId88" display="https://de.wikipedia.org/wiki/Spinat"/>
+    <hyperlink ref="C92" r:id="rId89" display="https://de.wikipedia.org/wiki/Sternfrucht"/>
+    <hyperlink ref="C93" r:id="rId90" display="https://de.wikipedia.org/wiki/Erdbeeren"/>
+    <hyperlink ref="C94" r:id="rId91" display="https://de.wikipedia.org/wiki/Mais"/>
+    <hyperlink ref="C95" r:id="rId92" display="https://de.wikipedia.org/wiki/S%C3%BC%C3%9Fkartoffel"/>
+    <hyperlink ref="C96" r:id="rId93" display="https://de.wikipedia.org/wiki/Tomate"/>
+    <hyperlink ref="C97" r:id="rId94" display="https://de.wikipedia.org/wiki/Wassermelone"/>
+    <hyperlink ref="C98" r:id="rId95" display="https://de.wikipedia.org/wiki/Wei%C3%9Fkohl"/>
+    <hyperlink ref="C99" r:id="rId96" display="https://de.wikipedia.org/wiki/Wald-Erdbeere"/>
+    <hyperlink ref="C100" r:id="rId97" display="https://de.wikipedia.org/wiki/Mirabelle"/>
+    <hyperlink ref="C101" r:id="rId98" display="https://de.wikipedia.org/wiki/Zucchini"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
@@ -5350,118 +6565,122 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23" location="Cultivated"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59" location="Nectarines"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62"/>
-    <hyperlink ref="C64" r:id="rId63"/>
-    <hyperlink ref="C65" r:id="rId64"/>
-    <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="C67" r:id="rId66"/>
-    <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71"/>
-    <hyperlink ref="C73" r:id="rId72"/>
-    <hyperlink ref="C74" r:id="rId73"/>
-    <hyperlink ref="C75" r:id="rId74"/>
-    <hyperlink ref="C76" r:id="rId75"/>
-    <hyperlink ref="C77" r:id="rId76"/>
-    <hyperlink ref="C78" r:id="rId77"/>
-    <hyperlink ref="C79" r:id="rId78"/>
-    <hyperlink ref="C80" r:id="rId79"/>
-    <hyperlink ref="C81" r:id="rId80"/>
-    <hyperlink ref="C82" r:id="rId81"/>
-    <hyperlink ref="C83" r:id="rId82"/>
-    <hyperlink ref="C84" r:id="rId83"/>
-    <hyperlink ref="C85" r:id="rId84"/>
-    <hyperlink ref="C86" r:id="rId85"/>
-    <hyperlink ref="C87" r:id="rId86"/>
-    <hyperlink ref="C88" r:id="rId87"/>
-    <hyperlink ref="C89" r:id="rId88"/>
-    <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://en.wikipedia.org/wiki/Phyllanthus_emblica"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://en.wikipedia.org/wiki/Apple"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://en.wikipedia.org/wiki/Prunus_armeniaca"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://en.wikipedia.org/wiki/Artichoke"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://en.wikipedia.org/wiki/Asparagus"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://en.wikipedia.org/wiki/Avocado"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://en.wikipedia.org/wiki/Banana"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://en.wikipedia.org/wiki/Lettuce"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://en.wikipedia.org/wiki/Beetroot"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://en.wikipedia.org/wiki/Blackberry"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://en.wikipedia.org/wiki/Bilberry"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://en.wikipedia.org/wiki/Broccoli"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://en.wikipedia.org/wiki/Brussels_sprout"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://en.wikipedia.org/wiki/Carob"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://en.wikipedia.org/wiki/Carrot"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://en.wikipedia.org/wiki/Cauliflower"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://en.wikipedia.org/wiki/Celeriac"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://en.wikipedia.org/wiki/Celery"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://en.wikipedia.org/wiki/Agaricus_bisporus"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://en.wikipedia.org/wiki/Chard"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://en.wikipedia.org/wiki/Prunus_avium"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://en.wikipedia.org/wiki/Castanea_sativa"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://en.wikipedia.org/wiki/Chicory#Cultivated"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://en.wikipedia.org/wiki/Napa_cabbage"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://en.wikipedia.org/wiki/Clementine"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://en.wikipedia.org/wiki/Rubus_chamaemorus"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://en.wikipedia.org/wiki/Coconut"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://en.wikipedia.org/wiki/Cranberry"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://en.wikipedia.org/wiki/Cucumber"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://en.wikipedia.org/wiki/Ribes"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://en.wikipedia.org/wiki/Date_palm"/>
+    <hyperlink ref="C33" r:id="rId32" display="https://en.wikipedia.org/wiki/Pitaya"/>
+    <hyperlink ref="C34" r:id="rId33" display="https://en.wikipedia.org/wiki/Eggplant"/>
+    <hyperlink ref="C35" r:id="rId34" display="https://en.wikipedia.org/wiki/Sambucus_nigra"/>
+    <hyperlink ref="C36" r:id="rId35" display="https://en.wikipedia.org/wiki/Endive"/>
+    <hyperlink ref="C37" r:id="rId36" display="https://en.wikipedia.org/wiki/Fennel"/>
+    <hyperlink ref="C38" r:id="rId37" display="https://en.wikipedia.org/wiki/Valerianella_locusta"/>
+    <hyperlink ref="C39" r:id="rId38" display="https://en.wikipedia.org/wiki/Common_fig"/>
+    <hyperlink ref="C40" r:id="rId39" display="https://en.wikipedia.org/wiki/Gooseberry"/>
+    <hyperlink ref="C41" r:id="rId40" display="https://en.wikipedia.org/wiki/Grapefruit"/>
+    <hyperlink ref="C42" r:id="rId41" display="https://en.wikipedia.org/wiki/Grape"/>
+    <hyperlink ref="C43" r:id="rId42" display="https://en.wikipedia.org/wiki/Phaseolus_vulgaris"/>
+    <hyperlink ref="C44" r:id="rId43" display="https://en.wikipedia.org/wiki/Kale"/>
+    <hyperlink ref="C45" r:id="rId44" display="https://en.wikipedia.org/wiki/Allium_fistulosum"/>
+    <hyperlink ref="C46" r:id="rId45" display="https://en.wikipedia.org/wiki/Psidium_guajava"/>
+    <hyperlink ref="C47" r:id="rId8" display="https://en.wikipedia.org/wiki/Lettuce"/>
+    <hyperlink ref="C48" r:id="rId46" display="https://en.wikipedia.org/wiki/Muskmelon"/>
+    <hyperlink ref="C49" r:id="rId8" display="https://en.wikipedia.org/wiki/Lettuce"/>
+    <hyperlink ref="C50" r:id="rId47" display="https://en.wikipedia.org/wiki/Kiwifruit"/>
+    <hyperlink ref="C51" r:id="rId48" display="https://en.wikipedia.org/wiki/Kohlrabi"/>
+    <hyperlink ref="C52" r:id="rId49" display="https://en.wikipedia.org/wiki/Leek"/>
+    <hyperlink ref="C53" r:id="rId50" display="https://en.wikipedia.org/wiki/Lemon"/>
+    <hyperlink ref="C54" r:id="rId51" display="https://en.wikipedia.org/wiki/Lime_(fruit)"/>
+    <hyperlink ref="C55" r:id="rId52" display="https://en.wikipedia.org/wiki/Vaccinium_vitis-idaea"/>
+    <hyperlink ref="C56" r:id="rId8" display="https://en.wikipedia.org/wiki/Lettuce"/>
+    <hyperlink ref="C57" r:id="rId53" display="https://en.wikipedia.org/wiki/Lychee"/>
+    <hyperlink ref="C58" r:id="rId54" display="https://en.wikipedia.org/wiki/Mango"/>
+    <hyperlink ref="C59" r:id="rId55" display="https://en.wikipedia.org/wiki/Pyrus_pyrifolia"/>
+    <hyperlink ref="C60" r:id="rId56" display="https://en.wikipedia.org/wiki/Peach#Nectarines"/>
+    <hyperlink ref="C61" r:id="rId57" display="https://en.wikipedia.org/wiki/Onion"/>
+    <hyperlink ref="C62" r:id="rId58" display="https://en.wikipedia.org/wiki/Orange_(fruit)"/>
+    <hyperlink ref="C63" r:id="rId59" display="https://en.wikipedia.org/wiki/Bok_choy"/>
+    <hyperlink ref="C64" r:id="rId60" display="https://en.wikipedia.org/wiki/Papaya"/>
+    <hyperlink ref="C65" r:id="rId61" display="https://en.wikipedia.org/wiki/Bell_pepper"/>
+    <hyperlink ref="C66" r:id="rId62" display="https://en.wikipedia.org/wiki/Parsnip"/>
+    <hyperlink ref="C67" r:id="rId63" display="https://en.wikipedia.org/wiki/Passiflora_edulis"/>
+    <hyperlink ref="C68" r:id="rId56" display="https://en.wikipedia.org/wiki/Peach"/>
+    <hyperlink ref="C69" r:id="rId64" display="https://en.wikipedia.org/wiki/Pear"/>
+    <hyperlink ref="C70" r:id="rId65" display="https://en.wikipedia.org/wiki/Pea"/>
+    <hyperlink ref="C71" r:id="rId66" display="https://en.wikipedia.org/wiki/Diospyros_kaki"/>
+    <hyperlink ref="C72" r:id="rId67" display="https://en.wikipedia.org/wiki/Physalis"/>
+    <hyperlink ref="C73" r:id="rId68" display="https://en.wikipedia.org/wiki/Pineapple"/>
+    <hyperlink ref="C74" r:id="rId69" display="https://en.wikipedia.org/wiki/Prunus_domestica"/>
+    <hyperlink ref="C75" r:id="rId70" display="https://en.wikipedia.org/wiki/Cabbage"/>
+    <hyperlink ref="C76" r:id="rId71" display="https://en.wikipedia.org/wiki/Pomegranate"/>
+    <hyperlink ref="C77" r:id="rId72" display="https://en.wikipedia.org/wiki/Potato"/>
+    <hyperlink ref="C78" r:id="rId73" display="https://en.wikipedia.org/wiki/Opuntia_ficus-indica"/>
+    <hyperlink ref="C79" r:id="rId74" display="https://en.wikipedia.org/wiki/Zwetschge"/>
+    <hyperlink ref="C80" r:id="rId75" display="https://en.wikipedia.org/wiki/Pumpkin"/>
+    <hyperlink ref="C81" r:id="rId76" display="https://en.wikipedia.org/wiki/Red_cabbage"/>
+    <hyperlink ref="C82" r:id="rId77" display="https://en.wikipedia.org/wiki/Quince"/>
+    <hyperlink ref="C83" r:id="rId78" display="https://en.wikipedia.org/wiki/Radicchio"/>
+    <hyperlink ref="C84" r:id="rId79" display="https://en.wikipedia.org/wiki/Raphanus"/>
+    <hyperlink ref="C85" r:id="rId80" display="https://en.wikipedia.org/wiki/Raspberry"/>
+    <hyperlink ref="C86" r:id="rId81" display="https://en.wikipedia.org/wiki/Rhubarb"/>
+    <hyperlink ref="C87" r:id="rId82" display="https://en.wikipedia.org/wiki/Rose_hip"/>
+    <hyperlink ref="C88" r:id="rId83" display="https://en.wikipedia.org/wiki/Savoy_cabbage"/>
+    <hyperlink ref="C89" r:id="rId84" display="https://en.wikipedia.org/wiki/Radish"/>
+    <hyperlink ref="C90" r:id="rId85" display="https://en.wikipedia.org/wiki/Sorbus_aucuparia"/>
+    <hyperlink ref="C91" r:id="rId86" display="https://en.wikipedia.org/wiki/Spinach"/>
+    <hyperlink ref="C92" r:id="rId87" display="https://en.wikipedia.org/wiki/Carambola"/>
+    <hyperlink ref="C93" r:id="rId88" display="https://en.wikipedia.org/wiki/Strawberry"/>
+    <hyperlink ref="C94" r:id="rId89" display="https://en.wikipedia.org/wiki/Maize"/>
+    <hyperlink ref="C95" r:id="rId90" display="https://en.wikipedia.org/wiki/Sweet_potato"/>
+    <hyperlink ref="C96" r:id="rId91" display="https://en.wikipedia.org/wiki/Tomato"/>
+    <hyperlink ref="C97" r:id="rId92" display="https://en.wikipedia.org/wiki/Watermelon"/>
+    <hyperlink ref="C98" r:id="rId70" display="https://en.wikipedia.org/wiki/Cabbage"/>
+    <hyperlink ref="C99" r:id="rId93" display="https://en.wikipedia.org/wiki/Fragaria_vesca"/>
+    <hyperlink ref="C100" r:id="rId94" display="https://en.wikipedia.org/wiki/Mirabelle_plum"/>
+    <hyperlink ref="C101" r:id="rId95" display="https://en.wikipedia.org/wiki/Zucchini"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
@@ -6576,118 +7795,125 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39" location="Les_groseilliers_%C3%A0_maquereau"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46" location="Description_des_vari%C3%A9t%C3%A9s"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48" location="Description_des_vari%C3%A9t%C3%A9s"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55" location="Description_des_vari%C3%A9t%C3%A9s"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62"/>
-    <hyperlink ref="C64" r:id="rId63"/>
-    <hyperlink ref="C65" r:id="rId64"/>
-    <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="C67" r:id="rId66"/>
-    <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71"/>
-    <hyperlink ref="C73" r:id="rId72"/>
-    <hyperlink ref="C74" r:id="rId73"/>
-    <hyperlink ref="C75" r:id="rId74" location="Les_diff%C3%A9rents_types"/>
-    <hyperlink ref="C76" r:id="rId75"/>
-    <hyperlink ref="C77" r:id="rId76"/>
-    <hyperlink ref="C78" r:id="rId77"/>
-    <hyperlink ref="C79" r:id="rId78"/>
-    <hyperlink ref="C80" r:id="rId79"/>
-    <hyperlink ref="C81" r:id="rId80"/>
-    <hyperlink ref="C82" r:id="rId81"/>
-    <hyperlink ref="C83" r:id="rId82"/>
-    <hyperlink ref="C84" r:id="rId83"/>
-    <hyperlink ref="C85" r:id="rId84"/>
-    <hyperlink ref="C86" r:id="rId85"/>
-    <hyperlink ref="C87" r:id="rId86"/>
-    <hyperlink ref="C88" r:id="rId87"/>
-    <hyperlink ref="C89" r:id="rId88"/>
-    <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://fr.wikipedia.org/wiki/Amla"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://fr.wikipedia.org/wiki/Pomme"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://fr.wikipedia.org/wiki/Abricot"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://fr.wikipedia.org/wiki/Artichaut"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://fr.wikipedia.org/wiki/Asperge"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://fr.wikipedia.org/wiki/Avocat_(fruit)"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://fr.wikipedia.org/wiki/Banane"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://fr.wikipedia.org/wiki/Laitue_batavia"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://fr.wikipedia.org/wiki/Betterave_potag%C3%A8re"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://fr.wikipedia.org/wiki/M%C3%BBre_(fruit_de_la_ronce)"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://fr.wikipedia.org/wiki/Myrtille"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://fr.wikipedia.org/wiki/Brocoli"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://fr.wikipedia.org/wiki/Chou_de_Bruxelles"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://fr.wikipedia.org/wiki/Caroubier"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://fr.wikipedia.org/wiki/Carotte"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://fr.wikipedia.org/wiki/Chou-fleur"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://fr.wikipedia.org/wiki/C%C3%A9leri-rave"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://fr.wikipedia.org/wiki/C%C3%A9leri"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://fr.wikipedia.org/wiki/Champignon"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://fr.wikipedia.org/wiki/Bette_(plante)"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://fr.wikipedia.org/wiki/Cerise"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://fr.wikipedia.org/wiki/Ch%C3%A2taigne"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://fr.wikipedia.org/wiki/Endive"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://fr.wikipedia.org/wiki/Pe-tsa%C3%AF"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://fr.wikipedia.org/wiki/Cl%C3%A9mentine"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://fr.wikipedia.org/wiki/Plaquebi%C3%A8re"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://fr.wikipedia.org/wiki/Noix_de_coco"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://fr.wikipedia.org/wiki/Canneberge"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://fr.wikipedia.org/wiki/Concombre"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://fr.wikipedia.org/wiki/Ribes_rubrum"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://fr.wikipedia.org/wiki/Datte"/>
+    <hyperlink ref="C33" r:id="rId32" display="https://fr.wikipedia.org/wiki/Pitaya"/>
+    <hyperlink ref="C34" r:id="rId33" display="https://fr.wikipedia.org/wiki/Aubergine"/>
+    <hyperlink ref="C35" r:id="rId34" display="https://fr.wikipedia.org/wiki/Sambucus_nigra"/>
+    <hyperlink ref="C36" r:id="rId23" display="https://fr.wikipedia.org/wiki/Endive"/>
+    <hyperlink ref="C37" r:id="rId35" display="https://fr.wikipedia.org/wiki/Fenouil_commun"/>
+    <hyperlink ref="C38" r:id="rId36" display="https://fr.wikipedia.org/wiki/Valerianella_locusta"/>
+    <hyperlink ref="C39" r:id="rId37" display="https://fr.wikipedia.org/wiki/Figue"/>
+    <hyperlink ref="C40" r:id="rId38" display="https://fr.wikipedia.org/wiki/Groseillier#Les_groseilliers_%C3%A0_maquereau"/>
+    <hyperlink ref="C41" r:id="rId39" display="https://fr.wikipedia.org/wiki/Citrus_%C3%97paradisi"/>
+    <hyperlink ref="C42" r:id="rId40" display="https://fr.wikipedia.org/wiki/Raisin"/>
+    <hyperlink ref="C43" r:id="rId41" display="https://fr.wikipedia.org/wiki/Haricot"/>
+    <hyperlink ref="C44" r:id="rId42" display="https://fr.wikipedia.org/wiki/Chou_kale"/>
+    <hyperlink ref="C45" r:id="rId43" display="https://fr.wikipedia.org/wiki/Ciboule"/>
+    <hyperlink ref="C46" r:id="rId44" display="https://fr.wikipedia.org/wiki/Goyave"/>
+    <hyperlink ref="C47" r:id="rId45" display="https://fr.wikipedia.org/wiki/Laitue_cultiv%C3%A9e#Description_des_vari%C3%A9t%C3%A9s"/>
+    <hyperlink ref="C48" r:id="rId46" display="https://fr.wikipedia.org/wiki/Melon_(plante)"/>
+    <hyperlink ref="C49" r:id="rId45" display="https://fr.wikipedia.org/wiki/Laitue_cultiv%C3%A9e#Description_des_vari%C3%A9t%C3%A9s"/>
+    <hyperlink ref="C50" r:id="rId47" display="https://fr.wikipedia.org/wiki/Kiwi"/>
+    <hyperlink ref="C51" r:id="rId48" display="https://fr.wikipedia.org/wiki/Chou-rave"/>
+    <hyperlink ref="C52" r:id="rId49" display="https://fr.wikipedia.org/wiki/Poireau"/>
+    <hyperlink ref="C53" r:id="rId50" display="https://fr.wikipedia.org/wiki/Citron"/>
+    <hyperlink ref="C54" r:id="rId51" display="https://fr.wikipedia.org/wiki/Lime_(fruit)"/>
+    <hyperlink ref="C55" r:id="rId52" display="https://fr.wikipedia.org/wiki/Airelle_rouge"/>
+    <hyperlink ref="C56" r:id="rId45" display="https://fr.wikipedia.org/wiki/Laitue_cultiv%C3%A9e#Description_des_vari%C3%A9t%C3%A9s"/>
+    <hyperlink ref="C57" r:id="rId53" display="https://fr.wikipedia.org/wiki/Litchi"/>
+    <hyperlink ref="C58" r:id="rId54" display="https://fr.wikipedia.org/wiki/Mangue"/>
+    <hyperlink ref="C59" r:id="rId55" display="https://fr.wikipedia.org/wiki/Nashi"/>
+    <hyperlink ref="C60" r:id="rId56" display="https://fr.wikipedia.org/wiki/Nectarine"/>
+    <hyperlink ref="C61" r:id="rId57" display="https://fr.wikipedia.org/wiki/Oignon"/>
+    <hyperlink ref="C62" r:id="rId58" display="https://fr.wikipedia.org/wiki/Orange_(fruit)"/>
+    <hyperlink ref="C63" r:id="rId59" display="https://fr.wikipedia.org/wiki/Bok_choy"/>
+    <hyperlink ref="C64" r:id="rId60" display="https://fr.wikipedia.org/wiki/Papaye"/>
+    <hyperlink ref="C65" r:id="rId61" display="https://fr.wikipedia.org/wiki/Poivron"/>
+    <hyperlink ref="C66" r:id="rId62" display="https://fr.wikipedia.org/wiki/Panais"/>
+    <hyperlink ref="C67" r:id="rId63" display="https://fr.wikipedia.org/wiki/Grenadille"/>
+    <hyperlink ref="C68" r:id="rId64" display="https://fr.wikipedia.org/wiki/P%C3%AAche_(fruit)"/>
+    <hyperlink ref="C69" r:id="rId65" display="https://fr.wikipedia.org/wiki/Poire"/>
+    <hyperlink ref="C70" r:id="rId66" display="https://fr.wikipedia.org/wiki/Petit_pois"/>
+    <hyperlink ref="C71" r:id="rId67" display="https://fr.wikipedia.org/wiki/Kaki"/>
+    <hyperlink ref="C72" r:id="rId68" display="https://fr.wikipedia.org/wiki/Physalis_heterophylla"/>
+    <hyperlink ref="C73" r:id="rId69" display="https://fr.wikipedia.org/wiki/Ananas"/>
+    <hyperlink ref="C74" r:id="rId70" display="https://fr.wikipedia.org/wiki/Prune"/>
+    <hyperlink ref="C75" r:id="rId71" display="https://fr.wikipedia.org/wiki/Chou_cabus#Les_diff%C3%A9rents_types"/>
+    <hyperlink ref="C76" r:id="rId72" display="https://fr.wikipedia.org/wiki/Grenade_(fruit)"/>
+    <hyperlink ref="C77" r:id="rId73" display="https://fr.wikipedia.org/wiki/Pomme_de_terre"/>
+    <hyperlink ref="C78" r:id="rId74" display="https://fr.wikipedia.org/wiki/Figue_de_Barbarie"/>
+    <hyperlink ref="C79" r:id="rId75" display="https://fr.wikipedia.org/wiki/Prunier_de_Damas"/>
+    <hyperlink ref="C80" r:id="rId76" display="https://fr.wikipedia.org/wiki/Cucurbitaceae"/>
+    <hyperlink ref="C81" r:id="rId77" display="https://fr.wikipedia.org/wiki/Chou_rouge"/>
+    <hyperlink ref="C82" r:id="rId78" display="https://fr.wikipedia.org/wiki/Cognassier"/>
+    <hyperlink ref="C83" r:id="rId79" display="https://fr.wikipedia.org/wiki/Radicchio"/>
+    <hyperlink ref="C84" r:id="rId80" display="https://fr.wikipedia.org/wiki/Radis_blanc"/>
+    <hyperlink ref="C85" r:id="rId81" display="https://fr.wikipedia.org/wiki/Framboise"/>
+    <hyperlink ref="C86" r:id="rId82" display="https://fr.wikipedia.org/wiki/Rheum_rhabarbarum"/>
+    <hyperlink ref="C87" r:id="rId83" display="https://fr.wikipedia.org/wiki/Cynorhodon"/>
+    <hyperlink ref="C88" r:id="rId84" display="https://fr.wikipedia.org/wiki/Chou_de_Milan"/>
+    <hyperlink ref="C89" r:id="rId85" display="https://fr.wikipedia.org/wiki/Radis"/>
+    <hyperlink ref="C90" r:id="rId86" display="https://fr.wikipedia.org/wiki/Sorbus_aucuparia"/>
+    <hyperlink ref="C91" r:id="rId87" display="https://fr.wikipedia.org/wiki/%C3%89pinard"/>
+    <hyperlink ref="C92" r:id="rId88" display="https://fr.wikipedia.org/wiki/Carambolier"/>
+    <hyperlink ref="C93" r:id="rId89" display="https://fr.wikipedia.org/wiki/Fraise"/>
+    <hyperlink ref="C94" r:id="rId90" display="https://fr.wikipedia.org/wiki/Ma%C3%AFs"/>
+    <hyperlink ref="C95" r:id="rId91" display="https://fr.wikipedia.org/wiki/Patate_douce"/>
+    <hyperlink ref="C96" r:id="rId92" display="https://fr.wikipedia.org/wiki/Tomate"/>
+    <hyperlink ref="C97" r:id="rId93" display="https://fr.wikipedia.org/wiki/Past%C3%A8que"/>
+    <hyperlink ref="C98" r:id="rId71" display="https://fr.wikipedia.org/wiki/Chou_cabus"/>
+    <hyperlink ref="C99" r:id="rId94" display="https://fr.wikipedia.org/wiki/Fraisier_des_bois"/>
+    <hyperlink ref="C100" r:id="rId95" display="https://fr.wikipedia.org/wiki/Mirabelle"/>
+    <hyperlink ref="C101" r:id="rId96" display="https://fr.wikipedia.org/wiki/Courgette"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="65.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
@@ -6704,1114 +7930,1121 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>691</v>
       </c>
       <c r="D2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>691</v>
+      <c r="C3" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="D3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>691</v>
+      <c r="C4" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="D4" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>691</v>
+      <c r="C5" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="D5" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>691</v>
+      <c r="C6" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="D6" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>691</v>
+      <c r="C7" s="1" t="s">
+        <v>701</v>
       </c>
       <c r="D7" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>691</v>
+      <c r="C8" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="D8" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>691</v>
+      <c r="C9" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="D9" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>691</v>
+      <c r="C10" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="D10" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>691</v>
+      <c r="C11" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="D11" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>691</v>
+      <c r="C12" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="D12" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
-        <v>691</v>
+      <c r="C13" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="D13" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>691</v>
+      <c r="C14" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="D14" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>691</v>
+      <c r="C15" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D15" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
-        <v>691</v>
+      <c r="C16" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="D16" t="s">
-        <v>691</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
-        <v>691</v>
+      <c r="C17" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="D17" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
-        <v>691</v>
+      <c r="C18" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="D18" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>691</v>
+      <c r="C19" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="D19" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
-        <v>691</v>
+      <c r="C20" s="1" t="s">
+        <v>726</v>
       </c>
       <c r="D20" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
-        <v>691</v>
+      <c r="C21" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="D21" t="s">
-        <v>691</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
-        <v>691</v>
+      <c r="C22" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="D22" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
-        <v>691</v>
+      <c r="C23" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="D23" t="s">
-        <v>691</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
-        <v>691</v>
+      <c r="C24" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="D24" t="s">
-        <v>691</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
-        <v>691</v>
+      <c r="C25" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="D25" t="s">
-        <v>691</v>
+        <v>737</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
-        <v>691</v>
+      <c r="C26" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="D26" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
-        <v>691</v>
+      <c r="C27" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="D27" t="s">
-        <v>691</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
-        <v>691</v>
+      <c r="C28" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="D28" t="s">
-        <v>691</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
-        <v>691</v>
+      <c r="C29" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="D29" t="s">
-        <v>691</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" t="s">
-        <v>691</v>
+      <c r="C30" s="1" t="s">
+        <v>746</v>
       </c>
       <c r="D30" t="s">
-        <v>691</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" t="s">
-        <v>691</v>
+      <c r="C31" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="D31" t="s">
-        <v>691</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
-        <v>691</v>
+      <c r="C32" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="D32" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" t="s">
-        <v>691</v>
+      <c r="C33" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="D33" t="s">
-        <v>691</v>
+        <v>753</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
-        <v>691</v>
+      <c r="C34" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="D34" t="s">
-        <v>691</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" t="s">
-        <v>691</v>
+      <c r="C35" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="D35" t="s">
-        <v>691</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
-        <v>691</v>
+      <c r="C36" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="D36" t="s">
-        <v>691</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
-        <v>691</v>
+      <c r="C37" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="D37" t="s">
-        <v>691</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" t="s">
-        <v>691</v>
+      <c r="C38" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="D38" t="s">
-        <v>691</v>
+        <v>763</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" t="s">
-        <v>691</v>
+      <c r="C39" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="D39" t="s">
-        <v>691</v>
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" t="s">
-        <v>691</v>
+      <c r="C40" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="D40" t="s">
-        <v>691</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
-        <v>691</v>
+      <c r="C41" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="D41" t="s">
-        <v>691</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" t="s">
-        <v>691</v>
+      <c r="C42" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="D42" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" t="s">
-        <v>691</v>
+      <c r="C43" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="D43" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" t="s">
-        <v>691</v>
+      <c r="C44" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="D44" t="s">
-        <v>691</v>
+        <v>775</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" t="s">
-        <v>691</v>
+      <c r="C45" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="D45" t="s">
-        <v>691</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
-        <v>691</v>
+      <c r="C46" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="D46" t="s">
-        <v>691</v>
+        <v>779</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="C47" t="s">
-        <v>691</v>
+      <c r="C47" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="D47" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
-        <v>691</v>
+      <c r="C48" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="D48" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" t="s">
-        <v>691</v>
+      <c r="C49" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="D49" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" t="s">
-        <v>691</v>
+      <c r="C50" s="1" t="s">
+        <v>784</v>
       </c>
       <c r="D50" t="s">
-        <v>691</v>
+        <v>785</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" t="s">
-        <v>691</v>
+      <c r="C51" s="1" t="s">
+        <v>786</v>
       </c>
       <c r="D51" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" t="s">
-        <v>691</v>
+      <c r="C52" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="D52" t="s">
-        <v>691</v>
+        <v>789</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" t="s">
-        <v>691</v>
+      <c r="C53" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="D53" t="s">
-        <v>691</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" t="s">
-        <v>691</v>
+      <c r="C54" s="1" t="s">
+        <v>792</v>
       </c>
       <c r="D54" t="s">
-        <v>691</v>
+        <v>793</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" t="s">
-        <v>691</v>
+      <c r="C55" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="D55" t="s">
-        <v>691</v>
+        <v>795</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" t="s">
-        <v>691</v>
+      <c r="C56" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="D56" t="s">
-        <v>691</v>
+        <v>796</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" t="s">
-        <v>691</v>
+      <c r="C57" s="1" t="s">
+        <v>797</v>
       </c>
       <c r="D57" t="s">
-        <v>691</v>
+        <v>798</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" t="s">
-        <v>691</v>
+      <c r="C58" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="D58" t="s">
-        <v>691</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="C59" t="s">
-        <v>691</v>
+      <c r="C59" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="D59" t="s">
-        <v>691</v>
+        <v>801</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" t="s">
-        <v>691</v>
+      <c r="C60" s="1" t="s">
+        <v>802</v>
       </c>
       <c r="D60" t="s">
-        <v>691</v>
+        <v>803</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" t="s">
-        <v>691</v>
+      <c r="C61" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="D61" t="s">
-        <v>691</v>
+        <v>805</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" t="s">
-        <v>691</v>
+      <c r="C62" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="D62" t="s">
-        <v>691</v>
+        <v>807</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" t="s">
-        <v>691</v>
+      <c r="C63" s="1" t="s">
+        <v>808</v>
       </c>
       <c r="D63" t="s">
-        <v>691</v>
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" t="s">
-        <v>691</v>
+      <c r="C64" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="D64" t="s">
-        <v>691</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" t="s">
-        <v>691</v>
+      <c r="C65" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="D65" t="s">
-        <v>691</v>
+        <v>812</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" t="s">
-        <v>691</v>
+      <c r="C66" s="1" t="s">
+        <v>813</v>
       </c>
       <c r="D66" t="s">
-        <v>691</v>
+        <v>814</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="C67" t="s">
-        <v>691</v>
+      <c r="C67" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="D67" t="s">
-        <v>691</v>
+        <v>816</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" t="s">
-        <v>691</v>
+      <c r="C68" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="D68" t="s">
-        <v>691</v>
+        <v>818</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="C69" t="s">
-        <v>691</v>
+      <c r="C69" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="D69" t="s">
-        <v>691</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" t="s">
-        <v>691</v>
+      <c r="C70" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="D70" t="s">
-        <v>691</v>
+        <v>822</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="C71" t="s">
-        <v>691</v>
+      <c r="C71" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="D71" t="s">
-        <v>691</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="C72" t="s">
-        <v>691</v>
+      <c r="C72" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="D72" t="s">
-        <v>691</v>
+        <v>826</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" t="s">
-        <v>691</v>
+      <c r="C73" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="D73" t="s">
-        <v>691</v>
+        <v>828</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" t="s">
-        <v>691</v>
+      <c r="C74" s="2" t="s">
+        <v>829</v>
       </c>
       <c r="D74" t="s">
-        <v>691</v>
+        <v>830</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
         <v>222</v>
       </c>
-      <c r="C75" t="s">
-        <v>691</v>
+      <c r="C75" s="2" t="s">
+        <v>831</v>
       </c>
       <c r="D75" t="s">
-        <v>691</v>
+        <v>832</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="C76" t="s">
-        <v>691</v>
+      <c r="C76" s="2" t="s">
+        <v>833</v>
       </c>
       <c r="D76" t="s">
-        <v>691</v>
+        <v>834</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="C77" t="s">
-        <v>691</v>
+      <c r="C77" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="D77" t="s">
-        <v>691</v>
+        <v>836</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="C78" t="s">
-        <v>691</v>
+      <c r="C78" s="2" t="s">
+        <v>837</v>
       </c>
       <c r="D78" t="s">
-        <v>691</v>
+        <v>838</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>234</v>
       </c>
-      <c r="C79" t="s">
-        <v>691</v>
+      <c r="C79" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="D79" t="s">
-        <v>691</v>
+        <v>840</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
         <v>237</v>
       </c>
-      <c r="C80" t="s">
-        <v>691</v>
+      <c r="C80" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="D80" t="s">
-        <v>691</v>
+        <v>842</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>240</v>
       </c>
-      <c r="C81" t="s">
-        <v>691</v>
+      <c r="C81" s="2" t="s">
+        <v>843</v>
       </c>
       <c r="D81" t="s">
-        <v>691</v>
+        <v>844</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="C82" t="s">
-        <v>691</v>
+      <c r="C82" s="2" t="s">
+        <v>845</v>
       </c>
       <c r="D82" t="s">
-        <v>691</v>
+        <v>846</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" t="s">
-        <v>691</v>
+      <c r="C83" s="2" t="s">
+        <v>847</v>
       </c>
       <c r="D83" t="s">
-        <v>691</v>
+        <v>848</v>
       </c>
     </row>
     <row r="84" spans="2:4">
       <c r="B84" t="s">
         <v>249</v>
       </c>
-      <c r="C84" t="s">
-        <v>691</v>
+      <c r="C84" s="2" t="s">
+        <v>849</v>
       </c>
       <c r="D84" t="s">
-        <v>691</v>
+        <v>850</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" t="s">
         <v>252</v>
       </c>
-      <c r="C85" t="s">
-        <v>691</v>
+      <c r="C85" s="2" t="s">
+        <v>851</v>
       </c>
       <c r="D85" t="s">
-        <v>691</v>
+        <v>852</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>255</v>
       </c>
-      <c r="C86" t="s">
-        <v>691</v>
+      <c r="C86" s="2" t="s">
+        <v>853</v>
       </c>
       <c r="D86" t="s">
-        <v>691</v>
+        <v>854</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>258</v>
       </c>
-      <c r="C87" t="s">
-        <v>691</v>
+      <c r="C87" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="D87" t="s">
-        <v>691</v>
+        <v>856</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" t="s">
-        <v>691</v>
+      <c r="C88" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="D88" t="s">
-        <v>691</v>
+        <v>858</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>264</v>
       </c>
-      <c r="C89" t="s">
-        <v>691</v>
+      <c r="C89" s="2" t="s">
+        <v>859</v>
       </c>
       <c r="D89" t="s">
-        <v>691</v>
+        <v>860</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="C90" t="s">
-        <v>691</v>
+      <c r="C90" s="2" t="s">
+        <v>861</v>
       </c>
       <c r="D90" t="s">
-        <v>691</v>
+        <v>862</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="C91" t="s">
-        <v>691</v>
+      <c r="C91" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="D91" t="s">
-        <v>691</v>
+        <v>864</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" t="s">
         <v>273</v>
       </c>
-      <c r="C92" t="s">
-        <v>691</v>
+      <c r="C92" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="D92" t="s">
-        <v>691</v>
+        <v>866</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="C93" t="s">
-        <v>691</v>
+      <c r="C93" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="D93" t="s">
-        <v>691</v>
+        <v>868</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" t="s">
         <v>279</v>
       </c>
-      <c r="C94" t="s">
-        <v>691</v>
+      <c r="C94" s="2" t="s">
+        <v>869</v>
       </c>
       <c r="D94" t="s">
-        <v>691</v>
+        <v>870</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" t="s">
-        <v>691</v>
+      <c r="C95" s="2" t="s">
+        <v>871</v>
       </c>
       <c r="D95" t="s">
-        <v>691</v>
+        <v>872</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" t="s">
-        <v>691</v>
+      <c r="C96" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="D96" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" t="s">
-        <v>691</v>
+      <c r="C97" s="2" t="s">
+        <v>874</v>
       </c>
       <c r="D97" t="s">
-        <v>691</v>
+        <v>875</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" t="s">
-        <v>691</v>
+      <c r="C98" s="2" t="s">
+        <v>831</v>
       </c>
       <c r="D98" t="s">
-        <v>691</v>
+        <v>876</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" t="s">
-        <v>691</v>
+      <c r="C99" s="2" t="s">
+        <v>877</v>
       </c>
       <c r="D99" t="s">
-        <v>691</v>
+        <v>878</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" t="s">
-        <v>691</v>
+      <c r="C100" s="2" t="s">
+        <v>879</v>
       </c>
       <c r="D100" t="s">
-        <v>691</v>
+        <v>880</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" t="s">
-        <v>691</v>
+      <c r="C101" s="2" t="s">
+        <v>881</v>
       </c>
       <c r="D101" t="s">
-        <v>691</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C60" r:id="rId1" display="https://es.wiktionary.org/wiki/nectarina"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
@@ -7829,7 +9062,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>692</v>
+        <v>883</v>
       </c>
       <c r="D2" t="s">
         <v>498</v>
@@ -7840,10 +9073,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>693</v>
+        <v>884</v>
       </c>
       <c r="D3" t="s">
-        <v>694</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -7851,10 +9084,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>695</v>
+        <v>886</v>
       </c>
       <c r="D4" t="s">
-        <v>696</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -7862,10 +9095,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>697</v>
+        <v>888</v>
       </c>
       <c r="D5" t="s">
-        <v>698</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -7873,10 +9106,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>699</v>
+        <v>890</v>
       </c>
       <c r="D6" t="s">
-        <v>700</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -7884,10 +9117,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>701</v>
+        <v>892</v>
       </c>
       <c r="D7" t="s">
-        <v>702</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -7895,10 +9128,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>703</v>
+        <v>894</v>
       </c>
       <c r="D8" t="s">
-        <v>704</v>
+        <v>895</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -7906,10 +9139,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>705</v>
+        <v>896</v>
       </c>
       <c r="D9" t="s">
-        <v>706</v>
+        <v>897</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -7917,10 +9150,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>707</v>
+        <v>898</v>
       </c>
       <c r="D10" t="s">
-        <v>708</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -7928,10 +9161,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>709</v>
+        <v>900</v>
       </c>
       <c r="D11" t="s">
-        <v>710</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -7939,10 +9172,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>711</v>
+        <v>902</v>
       </c>
       <c r="D12" t="s">
-        <v>712</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -7950,10 +9183,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>713</v>
+        <v>904</v>
       </c>
       <c r="D13" t="s">
-        <v>714</v>
+        <v>905</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -7961,10 +9194,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>715</v>
+        <v>906</v>
       </c>
       <c r="D14" t="s">
-        <v>716</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -7972,10 +9205,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>717</v>
+        <v>908</v>
       </c>
       <c r="D15" t="s">
-        <v>718</v>
+        <v>909</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -7983,10 +9216,10 @@
         <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>719</v>
+        <v>910</v>
       </c>
       <c r="D16" t="s">
-        <v>720</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -7994,10 +9227,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>721</v>
+        <v>912</v>
       </c>
       <c r="D17" t="s">
-        <v>722</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -8005,10 +9238,10 @@
         <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>723</v>
+        <v>914</v>
       </c>
       <c r="D18" t="s">
-        <v>724</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -8016,10 +9249,10 @@
         <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>725</v>
+        <v>916</v>
       </c>
       <c r="D19" t="s">
-        <v>726</v>
+        <v>917</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -8027,10 +9260,10 @@
         <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>727</v>
+        <v>918</v>
       </c>
       <c r="D20" t="s">
-        <v>728</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -8038,10 +9271,10 @@
         <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>729</v>
+        <v>920</v>
       </c>
       <c r="D21" t="s">
-        <v>730</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -8049,10 +9282,10 @@
         <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>731</v>
+        <v>922</v>
       </c>
       <c r="D22" t="s">
-        <v>732</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -8060,10 +9293,10 @@
         <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>733</v>
+        <v>924</v>
       </c>
       <c r="D23" t="s">
-        <v>734</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -8071,10 +9304,10 @@
         <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>735</v>
+        <v>926</v>
       </c>
       <c r="D24" t="s">
-        <v>736</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -8082,10 +9315,10 @@
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>737</v>
+        <v>928</v>
       </c>
       <c r="D25" t="s">
-        <v>738</v>
+        <v>929</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -8093,10 +9326,10 @@
         <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>739</v>
+        <v>930</v>
       </c>
       <c r="D26" t="s">
-        <v>740</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -8104,10 +9337,10 @@
         <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>741</v>
+        <v>932</v>
       </c>
       <c r="D27" t="s">
-        <v>742</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -8115,10 +9348,10 @@
         <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>743</v>
+        <v>934</v>
       </c>
       <c r="D28" t="s">
-        <v>744</v>
+        <v>935</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -8126,10 +9359,10 @@
         <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>745</v>
+        <v>936</v>
       </c>
       <c r="D29" t="s">
-        <v>746</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -8137,10 +9370,10 @@
         <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>747</v>
+        <v>938</v>
       </c>
       <c r="D30" t="s">
-        <v>748</v>
+        <v>939</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -8148,10 +9381,10 @@
         <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>749</v>
+        <v>940</v>
       </c>
       <c r="D31" t="s">
-        <v>750</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -8159,10 +9392,10 @@
         <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>751</v>
+        <v>942</v>
       </c>
       <c r="D32" t="s">
-        <v>752</v>
+        <v>943</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -8170,10 +9403,10 @@
         <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>753</v>
+        <v>944</v>
       </c>
       <c r="D33" t="s">
-        <v>754</v>
+        <v>945</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -8181,10 +9414,10 @@
         <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>755</v>
+        <v>946</v>
       </c>
       <c r="D34" t="s">
-        <v>756</v>
+        <v>947</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -8192,10 +9425,10 @@
         <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>757</v>
+        <v>948</v>
       </c>
       <c r="D35" t="s">
-        <v>758</v>
+        <v>949</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -8203,10 +9436,10 @@
         <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>759</v>
+        <v>950</v>
       </c>
       <c r="D36" t="s">
-        <v>760</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -8214,10 +9447,10 @@
         <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>761</v>
+        <v>952</v>
       </c>
       <c r="D37" t="s">
-        <v>762</v>
+        <v>953</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -8225,10 +9458,10 @@
         <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>763</v>
+        <v>954</v>
       </c>
       <c r="D38" t="s">
-        <v>764</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -8236,10 +9469,10 @@
         <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>765</v>
+        <v>956</v>
       </c>
       <c r="D39" t="s">
-        <v>766</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -8247,10 +9480,10 @@
         <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>767</v>
+        <v>958</v>
       </c>
       <c r="D40" t="s">
-        <v>768</v>
+        <v>959</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -8258,10 +9491,10 @@
         <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>769</v>
+        <v>960</v>
       </c>
       <c r="D41" t="s">
-        <v>770</v>
+        <v>961</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -8269,10 +9502,10 @@
         <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>771</v>
+        <v>962</v>
       </c>
       <c r="D42" t="s">
-        <v>772</v>
+        <v>963</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -8280,10 +9513,10 @@
         <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>773</v>
+        <v>964</v>
       </c>
       <c r="D43" t="s">
-        <v>774</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -8291,10 +9524,10 @@
         <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>775</v>
+        <v>966</v>
       </c>
       <c r="D44" t="s">
-        <v>776</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -8302,10 +9535,10 @@
         <v>132</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>777</v>
+        <v>968</v>
       </c>
       <c r="D45" t="s">
-        <v>778</v>
+        <v>969</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -8313,10 +9546,10 @@
         <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>779</v>
+        <v>970</v>
       </c>
       <c r="D46" t="s">
-        <v>780</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -8324,10 +9557,10 @@
         <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>705</v>
+        <v>896</v>
       </c>
       <c r="D47" t="s">
-        <v>781</v>
+        <v>972</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -8335,10 +9568,10 @@
         <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>782</v>
+        <v>973</v>
       </c>
       <c r="D48" t="s">
-        <v>783</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -8346,10 +9579,10 @@
         <v>144</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>705</v>
+        <v>896</v>
       </c>
       <c r="D49" t="s">
-        <v>784</v>
+        <v>975</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -8357,7 +9590,7 @@
         <v>147</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>785</v>
+        <v>976</v>
       </c>
       <c r="D50" t="s">
         <v>149</v>
@@ -8368,10 +9601,10 @@
         <v>150</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>786</v>
+        <v>977</v>
       </c>
       <c r="D51" t="s">
-        <v>787</v>
+        <v>978</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -8379,10 +9612,10 @@
         <v>153</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>788</v>
+        <v>979</v>
       </c>
       <c r="D52" t="s">
-        <v>789</v>
+        <v>980</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -8390,10 +9623,10 @@
         <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>790</v>
+        <v>981</v>
       </c>
       <c r="D53" t="s">
-        <v>791</v>
+        <v>982</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -8401,10 +9634,10 @@
         <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>792</v>
+        <v>983</v>
       </c>
       <c r="D54" t="s">
-        <v>793</v>
+        <v>984</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -8412,10 +9645,10 @@
         <v>162</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>794</v>
+        <v>985</v>
       </c>
       <c r="D55" t="s">
-        <v>795</v>
+        <v>986</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -8423,10 +9656,10 @@
         <v>165</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>705</v>
+        <v>896</v>
       </c>
       <c r="D56" t="s">
-        <v>796</v>
+        <v>987</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -8434,10 +9667,10 @@
         <v>168</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>797</v>
+        <v>988</v>
       </c>
       <c r="D57" t="s">
-        <v>798</v>
+        <v>989</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -8445,7 +9678,7 @@
         <v>171</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>799</v>
+        <v>990</v>
       </c>
       <c r="D58" t="s">
         <v>173</v>
@@ -8456,10 +9689,10 @@
         <v>174</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>800</v>
+        <v>991</v>
       </c>
       <c r="D59" t="s">
-        <v>801</v>
+        <v>992</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -8467,10 +9700,10 @@
         <v>177</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>802</v>
+        <v>993</v>
       </c>
       <c r="D60" t="s">
-        <v>803</v>
+        <v>994</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -8478,10 +9711,10 @@
         <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>804</v>
+        <v>995</v>
       </c>
       <c r="D61" t="s">
-        <v>805</v>
+        <v>996</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -8489,10 +9722,10 @@
         <v>183</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>806</v>
+        <v>997</v>
       </c>
       <c r="D62" t="s">
-        <v>807</v>
+        <v>998</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -8500,10 +9733,10 @@
         <v>186</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>808</v>
+        <v>999</v>
       </c>
       <c r="D63" t="s">
-        <v>809</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -8511,10 +9744,10 @@
         <v>189</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>810</v>
+        <v>1001</v>
       </c>
       <c r="D64" t="s">
-        <v>811</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -8522,10 +9755,10 @@
         <v>192</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>812</v>
+        <v>1003</v>
       </c>
       <c r="D65" t="s">
-        <v>813</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -8533,10 +9766,10 @@
         <v>195</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="D66" t="s">
-        <v>815</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -8544,10 +9777,10 @@
         <v>198</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>816</v>
+        <v>1007</v>
       </c>
       <c r="D67" t="s">
-        <v>817</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -8555,10 +9788,10 @@
         <v>201</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>818</v>
+        <v>1009</v>
       </c>
       <c r="D68" t="s">
-        <v>819</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -8566,10 +9799,10 @@
         <v>204</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>820</v>
+        <v>1011</v>
       </c>
       <c r="D69" t="s">
-        <v>821</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -8577,10 +9810,10 @@
         <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>822</v>
+        <v>1013</v>
       </c>
       <c r="D70" t="s">
-        <v>823</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -8588,7 +9821,7 @@
         <v>210</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>824</v>
+        <v>1015</v>
       </c>
       <c r="D71" t="s">
         <v>212</v>
@@ -8599,10 +9832,10 @@
         <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>825</v>
+        <v>1016</v>
       </c>
       <c r="D72" t="s">
-        <v>826</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -8610,7 +9843,7 @@
         <v>216</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>827</v>
+        <v>1018</v>
       </c>
       <c r="D73" t="s">
         <v>218</v>
@@ -8621,10 +9854,10 @@
         <v>219</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>828</v>
+        <v>1019</v>
       </c>
       <c r="D74" t="s">
-        <v>829</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -8632,10 +9865,10 @@
         <v>222</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>830</v>
+        <v>1021</v>
       </c>
       <c r="D75" t="s">
-        <v>831</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -8643,10 +9876,10 @@
         <v>225</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>832</v>
+        <v>1023</v>
       </c>
       <c r="D76" t="s">
-        <v>833</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -8654,10 +9887,10 @@
         <v>228</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>834</v>
+        <v>1025</v>
       </c>
       <c r="D77" t="s">
-        <v>835</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -8665,10 +9898,10 @@
         <v>231</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>836</v>
+        <v>1027</v>
       </c>
       <c r="D78" t="s">
-        <v>837</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -8676,10 +9909,10 @@
         <v>234</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>828</v>
+        <v>1019</v>
       </c>
       <c r="D79" t="s">
-        <v>838</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -8687,10 +9920,10 @@
         <v>237</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>839</v>
+        <v>1030</v>
       </c>
       <c r="D80" t="s">
-        <v>840</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -8698,10 +9931,10 @@
         <v>240</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>841</v>
+        <v>1032</v>
       </c>
       <c r="D81" t="s">
-        <v>842</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -8709,10 +9942,10 @@
         <v>243</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>843</v>
+        <v>1034</v>
       </c>
       <c r="D82" t="s">
-        <v>844</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -8720,7 +9953,7 @@
         <v>246</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>845</v>
+        <v>1036</v>
       </c>
       <c r="D83" t="s">
         <v>654</v>
@@ -8731,10 +9964,10 @@
         <v>249</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>846</v>
+        <v>1037</v>
       </c>
       <c r="D84" t="s">
-        <v>847</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -8742,10 +9975,10 @@
         <v>252</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>848</v>
+        <v>1039</v>
       </c>
       <c r="D85" t="s">
-        <v>849</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -8753,10 +9986,10 @@
         <v>255</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>850</v>
+        <v>1041</v>
       </c>
       <c r="D86" t="s">
-        <v>851</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="87" spans="2:4">
@@ -8764,10 +9997,10 @@
         <v>258</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>852</v>
+        <v>1043</v>
       </c>
       <c r="D87" t="s">
-        <v>853</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="88" spans="2:4">
@@ -8775,10 +10008,10 @@
         <v>261</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>854</v>
+        <v>1045</v>
       </c>
       <c r="D88" t="s">
-        <v>855</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -8786,10 +10019,10 @@
         <v>264</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>856</v>
+        <v>1047</v>
       </c>
       <c r="D89" t="s">
-        <v>857</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -8797,10 +10030,10 @@
         <v>267</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>858</v>
+        <v>1049</v>
       </c>
       <c r="D90" t="s">
-        <v>859</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -8808,10 +10041,10 @@
         <v>270</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>860</v>
+        <v>1051</v>
       </c>
       <c r="D91" t="s">
-        <v>861</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -8819,10 +10052,10 @@
         <v>273</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>862</v>
+        <v>1053</v>
       </c>
       <c r="D92" t="s">
-        <v>863</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -8830,10 +10063,10 @@
         <v>276</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>864</v>
+        <v>1055</v>
       </c>
       <c r="D93" t="s">
-        <v>865</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -8841,10 +10074,10 @@
         <v>279</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>866</v>
+        <v>1057</v>
       </c>
       <c r="D94" t="s">
-        <v>867</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -8852,10 +10085,10 @@
         <v>282</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>868</v>
+        <v>1059</v>
       </c>
       <c r="D95" t="s">
-        <v>869</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -8863,10 +10096,10 @@
         <v>285</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>870</v>
+        <v>1061</v>
       </c>
       <c r="D96" t="s">
-        <v>871</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -8874,10 +10107,10 @@
         <v>288</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>872</v>
+        <v>1063</v>
       </c>
       <c r="D97" t="s">
-        <v>873</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -8885,10 +10118,10 @@
         <v>291</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>830</v>
+        <v>1021</v>
       </c>
       <c r="D98" t="s">
-        <v>874</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -8896,10 +10129,10 @@
         <v>294</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>875</v>
+        <v>1066</v>
       </c>
       <c r="D99" t="s">
-        <v>876</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -8907,10 +10140,10 @@
         <v>297</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>877</v>
+        <v>1068</v>
       </c>
       <c r="D100" t="s">
-        <v>878</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -8918,115 +10151,116 @@
         <v>300</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>879</v>
+        <v>1070</v>
       </c>
       <c r="D101" t="s">
-        <v>880</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62"/>
-    <hyperlink ref="C64" r:id="rId63"/>
-    <hyperlink ref="C65" r:id="rId64"/>
-    <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="C67" r:id="rId66"/>
-    <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71"/>
-    <hyperlink ref="C73" r:id="rId72"/>
-    <hyperlink ref="C74" r:id="rId73"/>
-    <hyperlink ref="C75" r:id="rId74"/>
-    <hyperlink ref="C76" r:id="rId75"/>
-    <hyperlink ref="C77" r:id="rId76"/>
-    <hyperlink ref="C78" r:id="rId77"/>
-    <hyperlink ref="C79" r:id="rId78"/>
-    <hyperlink ref="C80" r:id="rId79"/>
-    <hyperlink ref="C81" r:id="rId80"/>
-    <hyperlink ref="C82" r:id="rId81"/>
-    <hyperlink ref="C83" r:id="rId82"/>
-    <hyperlink ref="C84" r:id="rId83"/>
-    <hyperlink ref="C85" r:id="rId84"/>
-    <hyperlink ref="C86" r:id="rId85"/>
-    <hyperlink ref="C87" r:id="rId86"/>
-    <hyperlink ref="C88" r:id="rId87"/>
-    <hyperlink ref="C89" r:id="rId88"/>
-    <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://pl.wikipedia.org/wiki/Li%C5%9Bciokwiat_garbnikowy"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://pl.wikipedia.org/wiki/Jab%C5%82ko"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://pl.wikipedia.org/wiki/Morela_zwyczajna"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://pl.wikipedia.org/wiki/Karczoch_zwyczajny"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://pl.wikipedia.org/wiki/Szparag_lekarski"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://pl.wikipedia.org/wiki/Smaczliwka_wdzi%C4%99czna"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://pl.wikipedia.org/wiki/Banan_(owoc)"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://pl.wikipedia.org/wiki/Sa%C5%82ata"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://pl.wikipedia.org/wiki/Burak_%C4%87wik%C5%82owy"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://pl.wikipedia.org/wiki/Je%C5%BCyna_krzewiasta"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://pl.wikipedia.org/wiki/Bor%C3%B3wka_czarna"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://pl.wikipedia.org/wiki/Broku%C5%82"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://pl.wikipedia.org/wiki/Kapusta_warzywna_brukselska"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://pl.wikipedia.org/wiki/Szara%C5%84czyn_str%C4%85kowy"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://pl.wikipedia.org/wiki/Marchew_uprawna"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://pl.wikipedia.org/wiki/Kalafior"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://pl.wikipedia.org/wiki/Selery_zwyczajne"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://pl.wikipedia.org/wiki/Seler_naciowy"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://pl.wikipedia.org/wiki/Pieczarka_dwuzarodnikowa"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://pl.wikipedia.org/wiki/Burak_li%C5%9Bciowy"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://pl.wikipedia.org/wiki/Wi%C5%9Bnia_ptasia"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://pl.wikipedia.org/wiki/Kasztan_jadalny"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://pl.wikipedia.org/wiki/Cykoria_podr%C3%B3%C5%BCnik"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://pl.wikipedia.org/wiki/Kapusta_w%C5%82a%C5%9Bciwa_peki%C5%84ska"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://pl.wikipedia.org/wiki/Mandarynka_(ro%C5%9Blina)"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://pl.wikipedia.org/wiki/Malina_moroszka"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://pl.wikipedia.org/wiki/Kokos_w%C5%82a%C5%9Bciwy"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://pl.wikipedia.org/wiki/%C5%BBurawina"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://pl.wikipedia.org/wiki/Og%C3%B3rek_siewny"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://pl.wikipedia.org/wiki/Porzeczka"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://pl.wikipedia.org/wiki/Daktylowiec_w%C5%82a%C5%9Bciwy"/>
+    <hyperlink ref="C33" r:id="rId32" display="https://pl.wikipedia.org/wiki/Pitaja"/>
+    <hyperlink ref="C34" r:id="rId33" display="https://pl.wikipedia.org/wiki/Psianka_pod%C5%82u%C5%BCna"/>
+    <hyperlink ref="C35" r:id="rId34" display="https://pl.wikipedia.org/wiki/Bez_czarny"/>
+    <hyperlink ref="C36" r:id="rId35" display="https://pl.wikipedia.org/wiki/Cykoria_endywia"/>
+    <hyperlink ref="C37" r:id="rId36" display="https://pl.wikipedia.org/wiki/Fenku%C5%82_w%C5%82oski"/>
+    <hyperlink ref="C38" r:id="rId37" display="https://pl.wikipedia.org/wiki/Roszpunka_warzywna"/>
+    <hyperlink ref="C39" r:id="rId38" display="https://pl.wikipedia.org/wiki/Figowiec_pospolity"/>
+    <hyperlink ref="C40" r:id="rId39" display="https://pl.wikipedia.org/wiki/Porzeczka_agrest"/>
+    <hyperlink ref="C41" r:id="rId40" display="https://pl.wikipedia.org/wiki/Grejpfrut"/>
+    <hyperlink ref="C42" r:id="rId41" display="https://pl.wikipedia.org/wiki/Winogrono"/>
+    <hyperlink ref="C43" r:id="rId42" display="https://pl.wikipedia.org/wiki/Fasola_zwyk%C5%82a"/>
+    <hyperlink ref="C44" r:id="rId43" display="https://pl.wikipedia.org/wiki/Jarmu%C5%BC"/>
+    <hyperlink ref="C45" r:id="rId44" display="https://pl.wikipedia.org/wiki/Czosnek_d%C4%99ty"/>
+    <hyperlink ref="C46" r:id="rId45" display="https://pl.wikipedia.org/wiki/Gujawa_pospolita"/>
+    <hyperlink ref="C47" r:id="rId8" display="https://pl.wikipedia.org/wiki/Sa%C5%82ata"/>
+    <hyperlink ref="C48" r:id="rId46" display="https://pl.wikipedia.org/wiki/Og%C3%B3rek_melon"/>
+    <hyperlink ref="C49" r:id="rId8" display="https://pl.wikipedia.org/wiki/Sa%C5%82ata"/>
+    <hyperlink ref="C50" r:id="rId47" display="https://pl.wikipedia.org/wiki/Kiwi_(owoc)"/>
+    <hyperlink ref="C51" r:id="rId48" display="https://pl.wikipedia.org/wiki/Kalarepa"/>
+    <hyperlink ref="C52" r:id="rId49" display="https://pl.wikipedia.org/wiki/Por_(ro%C5%9Blina)"/>
+    <hyperlink ref="C53" r:id="rId50" display="https://pl.wikipedia.org/wiki/Cytryna_zwyczajna"/>
+    <hyperlink ref="C54" r:id="rId51" display="https://pl.wikipedia.org/wiki/Lima_(ro%C5%9Blina)"/>
+    <hyperlink ref="C55" r:id="rId52" display="https://pl.wikipedia.org/wiki/Bor%C3%B3wka_brusznica"/>
+    <hyperlink ref="C56" r:id="rId8" display="https://pl.wikipedia.org/wiki/Sa%C5%82ata"/>
+    <hyperlink ref="C57" r:id="rId53" display="https://pl.wikipedia.org/wiki/Liczi_chi%C5%84skie"/>
+    <hyperlink ref="C58" r:id="rId54" display="https://pl.wikipedia.org/wiki/Mango_(owoc)"/>
+    <hyperlink ref="C59" r:id="rId55" display="https://pl.wikipedia.org/wiki/Grusza_chi%C5%84ska"/>
+    <hyperlink ref="C60" r:id="rId56" display="https://pl.wikipedia.org/wiki/Nektarynka"/>
+    <hyperlink ref="C61" r:id="rId57" display="https://pl.wikipedia.org/wiki/Cebula_zwyczajna"/>
+    <hyperlink ref="C62" r:id="rId58" display="https://pl.wikipedia.org/wiki/Pomara%C5%84cza"/>
+    <hyperlink ref="C63" r:id="rId59" display="https://pl.wikipedia.org/wiki/Kapusta_w%C5%82a%C5%9Bciwa_chi%C5%84ska"/>
+    <hyperlink ref="C64" r:id="rId60" display="https://pl.wikipedia.org/wiki/Melonowiec_w%C5%82a%C5%9Bciwy"/>
+    <hyperlink ref="C65" r:id="rId61" display="https://pl.wikipedia.org/wiki/Papryka_roczna"/>
+    <hyperlink ref="C66" r:id="rId62" display="https://pl.wikipedia.org/wiki/Pasternak_zwyczajny"/>
+    <hyperlink ref="C67" r:id="rId63" display="https://pl.wikipedia.org/wiki/M%C4%99czennica_jadalna"/>
+    <hyperlink ref="C68" r:id="rId64" display="https://pl.wikipedia.org/wiki/Brzoskwinia_zwyczajna"/>
+    <hyperlink ref="C69" r:id="rId65" display="https://pl.wikipedia.org/wiki/Grusza"/>
+    <hyperlink ref="C70" r:id="rId66" display="https://pl.wikipedia.org/wiki/Groch_zwyczajny"/>
+    <hyperlink ref="C71" r:id="rId67" display="https://pl.wikipedia.org/wiki/Hurma_wschodnia"/>
+    <hyperlink ref="C72" r:id="rId68" display="https://pl.wikipedia.org/wiki/Miechunka"/>
+    <hyperlink ref="C73" r:id="rId69" display="https://pl.wikipedia.org/wiki/Ananas_jadalny"/>
+    <hyperlink ref="C74" r:id="rId70" display="https://pl.wikipedia.org/wiki/%C5%9Aliwa_domowa"/>
+    <hyperlink ref="C75" r:id="rId71" display="https://pl.wikipedia.org/wiki/Kapusta_warzywna_g%C5%82owiasta"/>
+    <hyperlink ref="C76" r:id="rId72" display="https://pl.wikipedia.org/wiki/Granat_w%C5%82a%C5%9Bciwy"/>
+    <hyperlink ref="C77" r:id="rId73" display="https://pl.wikipedia.org/wiki/Ziemniak"/>
+    <hyperlink ref="C78" r:id="rId74" display="https://pl.wikipedia.org/wiki/Opuncja_figowa"/>
+    <hyperlink ref="C79" r:id="rId70" display="https://pl.wikipedia.org/wiki/%C5%9Aliwa_domowa"/>
+    <hyperlink ref="C80" r:id="rId75" display="https://pl.wikipedia.org/wiki/Dynia"/>
+    <hyperlink ref="C81" r:id="rId76" display="https://pl.wikipedia.org/wiki/Modra_kapusta"/>
+    <hyperlink ref="C82" r:id="rId77" display="https://pl.wikipedia.org/wiki/Pigwa_pospolita"/>
+    <hyperlink ref="C83" r:id="rId78" display="https://pl.wikipedia.org/wiki/Cykoria_sa%C5%82atowa"/>
+    <hyperlink ref="C84" r:id="rId79" display="https://pl.wikipedia.org/wiki/Rzodkiew"/>
+    <hyperlink ref="C85" r:id="rId80" display="https://pl.wikipedia.org/wiki/Malina_(ro%C5%9Blina)"/>
+    <hyperlink ref="C86" r:id="rId81" display="https://pl.wikipedia.org/wiki/Rabarbar_k%C4%99dzierzawy"/>
+    <hyperlink ref="C87" r:id="rId82" display="https://pl.wikipedia.org/wiki/R%C3%B3%C5%BCa_dzika"/>
+    <hyperlink ref="C88" r:id="rId83" display="https://pl.wikipedia.org/wiki/Kapusta_warzywna_w%C5%82oska"/>
+    <hyperlink ref="C89" r:id="rId84" display="https://pl.wikipedia.org/wiki/Rzodkiew_zwyczajna"/>
+    <hyperlink ref="C90" r:id="rId85" display="https://pl.wikipedia.org/wiki/Jarz%C4%85b_pospolity"/>
+    <hyperlink ref="C91" r:id="rId86" display="https://pl.wikipedia.org/wiki/Szpinak_warzywny"/>
+    <hyperlink ref="C92" r:id="rId87" display="https://pl.wikipedia.org/wiki/Oskomian_pospolity"/>
+    <hyperlink ref="C93" r:id="rId88" display="https://pl.wikipedia.org/wiki/Truskawka"/>
+    <hyperlink ref="C94" r:id="rId89" display="https://pl.wikipedia.org/wiki/Kukurydza_zwyczajna"/>
+    <hyperlink ref="C95" r:id="rId90" display="https://pl.wikipedia.org/wiki/Wilec_ziemniaczany"/>
+    <hyperlink ref="C96" r:id="rId91" display="https://pl.wikipedia.org/wiki/Pomidor_zwyczajny"/>
+    <hyperlink ref="C97" r:id="rId92" display="https://pl.wikipedia.org/wiki/Arbuz_zwyczajny"/>
+    <hyperlink ref="C98" r:id="rId71" display="https://pl.wikipedia.org/wiki/Kapusta_warzywna_g%C5%82owiasta"/>
+    <hyperlink ref="C99" r:id="rId93" display="https://pl.wikipedia.org/wiki/Poziomka_pospolita"/>
+    <hyperlink ref="C100" r:id="rId94" display="https://pl.wikipedia.org/wiki/%C5%9Aliwa_mirabelka"/>
+    <hyperlink ref="C101" r:id="rId95" display="https://pl.wikipedia.org/wiki/Kabaczek"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/assets/i18n_data/foods_lang.xlsx
+++ b/assets/i18n_data/foods_lang.xlsx
@@ -2408,7 +2408,7 @@
     <t>Arándano rojo, Arándano rojo, Arándano rojo, Arándano de montaña</t>
   </si>
   <si>
-    <t>lechuga</t>
+    <t>Lechuga</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Litchi_chinensis</t>
@@ -3241,12 +3241,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3270,9 +3270,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3283,11 +3283,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3329,6 +3343,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -3345,22 +3383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3374,39 +3397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3421,7 +3414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3433,13 +3444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3451,7 +3462,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3463,7 +3534,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3475,133 +3594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3659,16 +3652,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3698,16 +3691,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3715,145 +3708,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7906,8 +7899,8 @@
   <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/assets/i18n_data/foods_lang.xlsx
+++ b/assets/i18n_data/foods_lang.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1071">
   <si>
     <t>id</t>
   </si>
@@ -1181,7 +1181,7 @@
     <t>https://en.wikipedia.org/wiki/Kale</t>
   </si>
   <si>
-    <t>Green cabbage, Cabbage, Leaf cabbage, Kale</t>
+    <t>Kale, Green cabbage, Cabbage, Leaf cabbage</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Allium_fistulosum</t>
@@ -2174,7 +2174,7 @@
     <t>https://es.wikipedia.org/wiki/Ceratonia_siliqua</t>
   </si>
   <si>
-    <t>Carambola, carambola</t>
+    <t>Algarroba</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Daucus_carota</t>
@@ -2201,7 +2201,7 @@
     <t>https://es.wikipedia.org/wiki/Agaricus</t>
   </si>
   <si>
-    <t>Champiñón, Champiñón</t>
+    <t>Champiñón</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Beta_vulgaris_var._cicla</t>
@@ -2237,19 +2237,19 @@
     <t>https://es.wikipedia.org/wiki/Citrus_reticulata</t>
   </si>
   <si>
-    <t>Clementina, Mandarina, Tangor, Mandarina</t>
+    <t>Clementina, Mandarina, Tangor</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Rubus_chamaemorus</t>
   </si>
   <si>
-    <t>Baya nórdica, Baya nórdica, Bakeapple, Knotberry, Knoutberry, Aqpik, Averin, Evron</t>
+    <t>Baya nórdica, Bakeapple, Knotberry, Knoutberry, Aqpik, Averin, Evron</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Cocos_nucifera</t>
   </si>
   <si>
-    <t>Coco, Coco</t>
+    <t>Coco</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Vaccinium_macrocarpon</t>
@@ -2285,7 +2285,7 @@
     <t>https://es.wikipedia.org/wiki/Solanum_melongena</t>
   </si>
   <si>
-    <t>Berenjena, berenjena, berenjena</t>
+    <t>Berenjena</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Sambucus_nigra</t>
@@ -2321,7 +2321,7 @@
     <t>https://es.wikipedia.org/wiki/Citrus_%C3%97_paradisi</t>
   </si>
   <si>
-    <t>Grosella</t>
+    <t>Grosella espinosa europea, uva espina, grosella</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Citrus_maxima</t>
@@ -2360,13 +2360,13 @@
     <t>Guayaba, Psidium Guayaba</t>
   </si>
   <si>
-    <t>Lechuga, Lechuga, Ensalada, Mantequilla, Boston, Lechuga Bibb</t>
+    <t>Lechuga, Ensalada, Mantequilla, Boston, Lechuga Bibb</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Cucumis_melo</t>
   </si>
   <si>
-    <t>Melón verde</t>
+    <t>Melón</t>
   </si>
   <si>
     <t>Ensalada Iceberg, Crisphead, Ensalada, Lechuga</t>
@@ -2375,9 +2375,6 @@
     <t>https://es.wikipedia.org/wiki/Kiwi_(fruto)</t>
   </si>
   <si>
-    <t>Kiwi, kiwi</t>
-  </si>
-  <si>
     <t>https://es.wikipedia.org/wiki/Brassica_oleracea_var._gongylodes</t>
   </si>
   <si>
@@ -2405,7 +2402,7 @@
     <t>https://es.wikipedia.org/wiki/Vaccinium_vitis-idaea</t>
   </si>
   <si>
-    <t>Arándano rojo, Arándano rojo, Arándano rojo, Arándano de montaña</t>
+    <t>Arándano rojo, Arándano de montaña</t>
   </si>
   <si>
     <t>Lechuga</t>
@@ -2447,7 +2444,7 @@
     <t>https://es.wikipedia.org/wiki/Brassica_rapa_subsp._chinensis</t>
   </si>
   <si>
-    <t>Bok choy , col china</t>
+    <t>Bok choy, col china</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Carica_papaya</t>
@@ -2474,7 +2471,7 @@
     <t>https://es.wikipedia.org/wiki/Prunus_persica</t>
   </si>
   <si>
-    <t>Melocotón, durazno</t>
+    <t>Melocotón, durazno, Melocotonero, durazanero</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Pyrus</t>
@@ -2618,13 +2615,13 @@
     <t>https://es.wikipedia.org/wiki/Carambola</t>
   </si>
   <si>
-    <t>Fresa</t>
+    <t>Carambola, fruta de estrella</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Fragaria_%C3%97_ananassa</t>
   </si>
   <si>
-    <t>Camote, Camote</t>
+    <t>Fresa, frutilla, fragaria</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Zea_mays</t>
@@ -2636,7 +2633,7 @@
     <t>https://es.wikipedia.org/wiki/Ipomoea_batatas</t>
   </si>
   <si>
-    <t>Batatas</t>
+    <t>Batata, patata dulce, camote, papa dulce, moniato, boniato</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Solanum_lycopersicum</t>
@@ -2645,7 +2642,7 @@
     <t>https://es.wikipedia.org/wiki/Citrullus_lanatus</t>
   </si>
   <si>
-    <t>Sandía, Sandía</t>
+    <t>Sandía, acendría, síndria, patilla, aguamelón, melón de agua</t>
   </si>
   <si>
     <t>Repollo blanco, repollo</t>
@@ -2666,7 +2663,7 @@
     <t>https://es.wikipedia.org/wiki/Calabaza</t>
   </si>
   <si>
-    <t>Calabacín, Calabacín, Tuétano de bebé</t>
+    <t>Calabacín, Tuétano de bebé</t>
   </si>
   <si>
     <t>https://pl.wikipedia.org/wiki/Li%C5%9Bciokwiat_garbnikowy</t>
@@ -3241,10 +3238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3269,22 +3266,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3295,51 +3287,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3361,7 +3308,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3369,6 +3323,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3382,6 +3358,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3389,17 +3395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3414,7 +3411,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3432,31 +3459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3474,7 +3477,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3486,31 +3549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3522,31 +3573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3558,43 +3591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3605,24 +3602,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3641,6 +3620,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3652,16 +3655,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3690,160 +3702,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5436,8 +5433,8 @@
   <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7899,8 +7896,8 @@
   <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8455,7 +8452,7 @@
         <v>784</v>
       </c>
       <c r="D50" t="s">
-        <v>785</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -8463,10 +8460,10 @@
         <v>150</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D51" t="s">
         <v>786</v>
-      </c>
-      <c r="D51" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -8474,10 +8471,10 @@
         <v>153</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D52" t="s">
         <v>788</v>
-      </c>
-      <c r="D52" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -8485,10 +8482,10 @@
         <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D53" t="s">
         <v>790</v>
-      </c>
-      <c r="D53" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -8496,10 +8493,10 @@
         <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D54" t="s">
         <v>792</v>
-      </c>
-      <c r="D54" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -8507,10 +8504,10 @@
         <v>162</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D55" t="s">
         <v>794</v>
-      </c>
-      <c r="D55" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -8521,7 +8518,7 @@
         <v>705</v>
       </c>
       <c r="D56" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -8529,10 +8526,10 @@
         <v>168</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D57" t="s">
         <v>797</v>
-      </c>
-      <c r="D57" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -8540,7 +8537,7 @@
         <v>171</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D58" t="s">
         <v>173</v>
@@ -8551,10 +8548,10 @@
         <v>174</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D59" t="s">
         <v>800</v>
-      </c>
-      <c r="D59" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -8562,10 +8559,10 @@
         <v>177</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D60" t="s">
         <v>802</v>
-      </c>
-      <c r="D60" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -8573,10 +8570,10 @@
         <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D61" t="s">
         <v>804</v>
-      </c>
-      <c r="D61" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -8584,10 +8581,10 @@
         <v>183</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D62" t="s">
         <v>806</v>
-      </c>
-      <c r="D62" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -8595,10 +8592,10 @@
         <v>186</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D63" t="s">
         <v>808</v>
-      </c>
-      <c r="D63" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -8606,7 +8603,7 @@
         <v>189</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D64" t="s">
         <v>423</v>
@@ -8617,10 +8614,10 @@
         <v>192</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D65" t="s">
         <v>811</v>
-      </c>
-      <c r="D65" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -8628,10 +8625,10 @@
         <v>195</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D66" t="s">
         <v>813</v>
-      </c>
-      <c r="D66" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -8639,10 +8636,10 @@
         <v>198</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D67" t="s">
         <v>815</v>
-      </c>
-      <c r="D67" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -8650,10 +8647,10 @@
         <v>201</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D68" t="s">
         <v>817</v>
-      </c>
-      <c r="D68" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -8661,10 +8658,10 @@
         <v>204</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D69" t="s">
         <v>819</v>
-      </c>
-      <c r="D69" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -8672,10 +8669,10 @@
         <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D70" t="s">
         <v>821</v>
-      </c>
-      <c r="D70" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -8683,10 +8680,10 @@
         <v>210</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D71" t="s">
         <v>823</v>
-      </c>
-      <c r="D71" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -8694,10 +8691,10 @@
         <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D72" t="s">
         <v>825</v>
-      </c>
-      <c r="D72" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -8705,10 +8702,10 @@
         <v>216</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D73" t="s">
         <v>827</v>
-      </c>
-      <c r="D73" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="74" spans="2:4">
@@ -8716,10 +8713,10 @@
         <v>219</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D74" t="s">
         <v>829</v>
-      </c>
-      <c r="D74" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -8727,10 +8724,10 @@
         <v>222</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D75" t="s">
         <v>831</v>
-      </c>
-      <c r="D75" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -8738,10 +8735,10 @@
         <v>225</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D76" t="s">
         <v>833</v>
-      </c>
-      <c r="D76" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -8749,10 +8746,10 @@
         <v>228</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D77" t="s">
         <v>835</v>
-      </c>
-      <c r="D77" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -8760,10 +8757,10 @@
         <v>231</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D78" t="s">
         <v>837</v>
-      </c>
-      <c r="D78" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -8771,10 +8768,10 @@
         <v>234</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D79" t="s">
         <v>839</v>
-      </c>
-      <c r="D79" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -8782,10 +8779,10 @@
         <v>237</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D80" t="s">
         <v>841</v>
-      </c>
-      <c r="D80" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -8793,10 +8790,10 @@
         <v>240</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D81" t="s">
         <v>843</v>
-      </c>
-      <c r="D81" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -8804,10 +8801,10 @@
         <v>243</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D82" t="s">
         <v>845</v>
-      </c>
-      <c r="D82" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -8815,10 +8812,10 @@
         <v>246</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D83" t="s">
         <v>847</v>
-      </c>
-      <c r="D83" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="84" spans="2:4">
@@ -8826,10 +8823,10 @@
         <v>249</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D84" t="s">
         <v>849</v>
-      </c>
-      <c r="D84" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -8837,10 +8834,10 @@
         <v>252</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D85" t="s">
         <v>851</v>
-      </c>
-      <c r="D85" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -8848,10 +8845,10 @@
         <v>255</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D86" t="s">
         <v>853</v>
-      </c>
-      <c r="D86" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="87" spans="2:4">
@@ -8859,10 +8856,10 @@
         <v>258</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D87" t="s">
         <v>855</v>
-      </c>
-      <c r="D87" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="88" spans="2:4">
@@ -8870,10 +8867,10 @@
         <v>261</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D88" t="s">
         <v>857</v>
-      </c>
-      <c r="D88" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -8881,10 +8878,10 @@
         <v>264</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D89" t="s">
         <v>859</v>
-      </c>
-      <c r="D89" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -8892,10 +8889,10 @@
         <v>267</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D90" t="s">
         <v>861</v>
-      </c>
-      <c r="D90" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -8903,10 +8900,10 @@
         <v>270</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D91" t="s">
         <v>863</v>
-      </c>
-      <c r="D91" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -8914,10 +8911,10 @@
         <v>273</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D92" t="s">
         <v>865</v>
-      </c>
-      <c r="D92" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -8925,10 +8922,10 @@
         <v>276</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D93" t="s">
         <v>867</v>
-      </c>
-      <c r="D93" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -8936,10 +8933,10 @@
         <v>279</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D94" t="s">
         <v>869</v>
-      </c>
-      <c r="D94" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -8947,10 +8944,10 @@
         <v>282</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D95" t="s">
         <v>871</v>
-      </c>
-      <c r="D95" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -8958,7 +8955,7 @@
         <v>285</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D96" t="s">
         <v>680</v>
@@ -8969,10 +8966,10 @@
         <v>288</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D97" t="s">
         <v>874</v>
-      </c>
-      <c r="D97" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -8980,10 +8977,10 @@
         <v>291</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D98" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -8991,10 +8988,10 @@
         <v>294</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D99" t="s">
         <v>877</v>
-      </c>
-      <c r="D99" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -9002,10 +8999,10 @@
         <v>297</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D100" t="s">
         <v>879</v>
-      </c>
-      <c r="D100" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -9013,10 +9010,10 @@
         <v>300</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D101" t="s">
         <v>881</v>
-      </c>
-      <c r="D101" t="s">
-        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -9055,7 +9052,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D2" t="s">
         <v>498</v>
@@ -9066,10 +9063,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D3" t="s">
         <v>884</v>
-      </c>
-      <c r="D3" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -9077,10 +9074,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D4" t="s">
         <v>886</v>
-      </c>
-      <c r="D4" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -9088,10 +9085,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D5" t="s">
         <v>888</v>
-      </c>
-      <c r="D5" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -9099,10 +9096,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D6" t="s">
         <v>890</v>
-      </c>
-      <c r="D6" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -9110,10 +9107,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D7" t="s">
         <v>892</v>
-      </c>
-      <c r="D7" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -9121,10 +9118,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D8" t="s">
         <v>894</v>
-      </c>
-      <c r="D8" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -9132,10 +9129,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D9" t="s">
         <v>896</v>
-      </c>
-      <c r="D9" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -9143,10 +9140,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D10" t="s">
         <v>898</v>
-      </c>
-      <c r="D10" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -9154,10 +9151,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D11" t="s">
         <v>900</v>
-      </c>
-      <c r="D11" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -9165,10 +9162,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D12" t="s">
         <v>902</v>
-      </c>
-      <c r="D12" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -9176,10 +9173,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D13" t="s">
         <v>904</v>
-      </c>
-      <c r="D13" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -9187,10 +9184,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D14" t="s">
         <v>906</v>
-      </c>
-      <c r="D14" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -9198,10 +9195,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D15" t="s">
         <v>908</v>
-      </c>
-      <c r="D15" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -9209,10 +9206,10 @@
         <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D16" t="s">
         <v>910</v>
-      </c>
-      <c r="D16" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -9220,10 +9217,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D17" t="s">
         <v>912</v>
-      </c>
-      <c r="D17" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -9231,10 +9228,10 @@
         <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D18" t="s">
         <v>914</v>
-      </c>
-      <c r="D18" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -9242,10 +9239,10 @@
         <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D19" t="s">
         <v>916</v>
-      </c>
-      <c r="D19" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -9253,10 +9250,10 @@
         <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D20" t="s">
         <v>918</v>
-      </c>
-      <c r="D20" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -9264,10 +9261,10 @@
         <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D21" t="s">
         <v>920</v>
-      </c>
-      <c r="D21" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -9275,10 +9272,10 @@
         <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D22" t="s">
         <v>922</v>
-      </c>
-      <c r="D22" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -9286,10 +9283,10 @@
         <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D23" t="s">
         <v>924</v>
-      </c>
-      <c r="D23" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -9297,10 +9294,10 @@
         <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D24" t="s">
         <v>926</v>
-      </c>
-      <c r="D24" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -9308,10 +9305,10 @@
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D25" t="s">
         <v>928</v>
-      </c>
-      <c r="D25" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -9319,10 +9316,10 @@
         <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D26" t="s">
         <v>930</v>
-      </c>
-      <c r="D26" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -9330,10 +9327,10 @@
         <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D27" t="s">
         <v>932</v>
-      </c>
-      <c r="D27" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -9341,10 +9338,10 @@
         <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D28" t="s">
         <v>934</v>
-      </c>
-      <c r="D28" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -9352,10 +9349,10 @@
         <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D29" t="s">
         <v>936</v>
-      </c>
-      <c r="D29" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -9363,10 +9360,10 @@
         <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D30" t="s">
         <v>938</v>
-      </c>
-      <c r="D30" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -9374,10 +9371,10 @@
         <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D31" t="s">
         <v>940</v>
-      </c>
-      <c r="D31" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -9385,10 +9382,10 @@
         <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D32" t="s">
         <v>942</v>
-      </c>
-      <c r="D32" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -9396,10 +9393,10 @@
         <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D33" t="s">
         <v>944</v>
-      </c>
-      <c r="D33" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -9407,10 +9404,10 @@
         <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D34" t="s">
         <v>946</v>
-      </c>
-      <c r="D34" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -9418,10 +9415,10 @@
         <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D35" t="s">
         <v>948</v>
-      </c>
-      <c r="D35" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -9429,10 +9426,10 @@
         <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D36" t="s">
         <v>950</v>
-      </c>
-      <c r="D36" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -9440,10 +9437,10 @@
         <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D37" t="s">
         <v>952</v>
-      </c>
-      <c r="D37" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -9451,10 +9448,10 @@
         <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D38" t="s">
         <v>954</v>
-      </c>
-      <c r="D38" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -9462,10 +9459,10 @@
         <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D39" t="s">
         <v>956</v>
-      </c>
-      <c r="D39" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -9473,10 +9470,10 @@
         <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D40" t="s">
         <v>958</v>
-      </c>
-      <c r="D40" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -9484,10 +9481,10 @@
         <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D41" t="s">
         <v>960</v>
-      </c>
-      <c r="D41" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -9495,10 +9492,10 @@
         <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D42" t="s">
         <v>962</v>
-      </c>
-      <c r="D42" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -9506,10 +9503,10 @@
         <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D43" t="s">
         <v>964</v>
-      </c>
-      <c r="D43" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -9517,10 +9514,10 @@
         <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D44" t="s">
         <v>966</v>
-      </c>
-      <c r="D44" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -9528,10 +9525,10 @@
         <v>132</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D45" t="s">
         <v>968</v>
-      </c>
-      <c r="D45" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -9539,10 +9536,10 @@
         <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D46" t="s">
         <v>970</v>
-      </c>
-      <c r="D46" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -9550,10 +9547,10 @@
         <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D47" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -9561,10 +9558,10 @@
         <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D48" t="s">
         <v>973</v>
-      </c>
-      <c r="D48" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -9572,10 +9569,10 @@
         <v>144</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D49" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -9583,7 +9580,7 @@
         <v>147</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D50" t="s">
         <v>149</v>
@@ -9594,10 +9591,10 @@
         <v>150</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D51" t="s">
         <v>977</v>
-      </c>
-      <c r="D51" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -9605,10 +9602,10 @@
         <v>153</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D52" t="s">
         <v>979</v>
-      </c>
-      <c r="D52" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -9616,10 +9613,10 @@
         <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D53" t="s">
         <v>981</v>
-      </c>
-      <c r="D53" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -9627,10 +9624,10 @@
         <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D54" t="s">
         <v>983</v>
-      </c>
-      <c r="D54" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -9638,10 +9635,10 @@
         <v>162</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D55" t="s">
         <v>985</v>
-      </c>
-      <c r="D55" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -9649,10 +9646,10 @@
         <v>165</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D56" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -9660,10 +9657,10 @@
         <v>168</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D57" t="s">
         <v>988</v>
-      </c>
-      <c r="D57" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -9671,7 +9668,7 @@
         <v>171</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D58" t="s">
         <v>173</v>
@@ -9682,10 +9679,10 @@
         <v>174</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D59" t="s">
         <v>991</v>
-      </c>
-      <c r="D59" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -9693,10 +9690,10 @@
         <v>177</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D60" t="s">
         <v>993</v>
-      </c>
-      <c r="D60" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -9704,10 +9701,10 @@
         <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D61" t="s">
         <v>995</v>
-      </c>
-      <c r="D61" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -9715,10 +9712,10 @@
         <v>183</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D62" t="s">
         <v>997</v>
-      </c>
-      <c r="D62" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -9726,10 +9723,10 @@
         <v>186</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D63" t="s">
         <v>999</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -9737,10 +9734,10 @@
         <v>189</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D64" t="s">
         <v>1001</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -9748,10 +9745,10 @@
         <v>192</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D65" t="s">
         <v>1003</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -9759,10 +9756,10 @@
         <v>195</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D66" t="s">
         <v>1005</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -9770,10 +9767,10 @@
         <v>198</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D67" t="s">
         <v>1007</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -9781,10 +9778,10 @@
         <v>201</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D68" t="s">
         <v>1009</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -9792,10 +9789,10 @@
         <v>204</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D69" t="s">
         <v>1011</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -9803,10 +9800,10 @@
         <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D70" t="s">
         <v>1013</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -9814,7 +9811,7 @@
         <v>210</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D71" t="s">
         <v>212</v>
@@ -9825,10 +9822,10 @@
         <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D72" t="s">
         <v>1016</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -9836,7 +9833,7 @@
         <v>216</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D73" t="s">
         <v>218</v>
@@ -9847,10 +9844,10 @@
         <v>219</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D74" t="s">
         <v>1019</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -9858,10 +9855,10 @@
         <v>222</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D75" t="s">
         <v>1021</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -9869,10 +9866,10 @@
         <v>225</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D76" t="s">
         <v>1023</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -9880,10 +9877,10 @@
         <v>228</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D77" t="s">
         <v>1025</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -9891,10 +9888,10 @@
         <v>231</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D78" t="s">
         <v>1027</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -9902,10 +9899,10 @@
         <v>234</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D79" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -9913,10 +9910,10 @@
         <v>237</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D80" t="s">
         <v>1030</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -9924,10 +9921,10 @@
         <v>240</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D81" t="s">
         <v>1032</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -9935,10 +9932,10 @@
         <v>243</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D82" t="s">
         <v>1034</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -9946,7 +9943,7 @@
         <v>246</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D83" t="s">
         <v>654</v>
@@ -9957,10 +9954,10 @@
         <v>249</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D84" t="s">
         <v>1037</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -9968,10 +9965,10 @@
         <v>252</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D85" t="s">
         <v>1039</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -9979,10 +9976,10 @@
         <v>255</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D86" t="s">
         <v>1041</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="87" spans="2:4">
@@ -9990,10 +9987,10 @@
         <v>258</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D87" t="s">
         <v>1043</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="88" spans="2:4">
@@ -10001,10 +9998,10 @@
         <v>261</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D88" t="s">
         <v>1045</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -10012,10 +10009,10 @@
         <v>264</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D89" t="s">
         <v>1047</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -10023,10 +10020,10 @@
         <v>267</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D90" t="s">
         <v>1049</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -10034,10 +10031,10 @@
         <v>270</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D91" t="s">
         <v>1051</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -10045,10 +10042,10 @@
         <v>273</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D92" t="s">
         <v>1053</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -10056,10 +10053,10 @@
         <v>276</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D93" t="s">
         <v>1055</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -10067,10 +10064,10 @@
         <v>279</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D94" t="s">
         <v>1057</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -10078,10 +10075,10 @@
         <v>282</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D95" t="s">
         <v>1059</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -10089,10 +10086,10 @@
         <v>285</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D96" t="s">
         <v>1061</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -10100,10 +10097,10 @@
         <v>288</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D97" t="s">
         <v>1063</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -10111,10 +10108,10 @@
         <v>291</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D98" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -10122,10 +10119,10 @@
         <v>294</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D99" t="s">
         <v>1066</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -10133,10 +10130,10 @@
         <v>297</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D100" t="s">
         <v>1068</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -10144,10 +10141,10 @@
         <v>300</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D101" t="s">
         <v>1070</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1071</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n_data/foods_lang.xlsx
+++ b/assets/i18n_data/foods_lang.xlsx
@@ -2192,7 +2192,7 @@
     <t>https://es.wikipedia.org/wiki/Apium_graveolens</t>
   </si>
   <si>
-    <t>Apio, apio pomo, raíz de apio</t>
+    <t xml:space="preserve">Raíz de apio, Apio, apio pomo, </t>
   </si>
   <si>
     <t>Apio</t>
@@ -2537,7 +2537,7 @@
     <t>https://es.wikipedia.org/wiki/Ciruela</t>
   </si>
   <si>
-    <t>Ciruela</t>
+    <t>Ciruela (subsp. domestica)</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Calabaza_gigante</t>
@@ -3238,10 +3238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3266,9 +3266,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3291,6 +3290,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -3299,8 +3306,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3315,13 +3337,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3329,15 +3344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3358,16 +3365,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3380,14 +3387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3395,8 +3394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3411,7 +3411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3423,7 +3429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,7 +3447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3447,7 +3465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3459,7 +3477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3471,7 +3495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,31 +3513,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3519,31 +3549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3555,43 +3579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3602,21 +3602,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3644,26 +3629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3679,11 +3644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3702,145 +3673,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7896,8 +7896,8 @@
   <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8712,7 +8712,7 @@
       <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>828</v>
       </c>
       <c r="D74" t="s">
@@ -9019,6 +9019,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C60" r:id="rId1" display="https://es.wiktionary.org/wiki/nectarina"/>
+    <hyperlink ref="C74" r:id="rId2" display="https://es.wikipedia.org/wiki/Prunus_domestica"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/assets/i18n_data/foods_lang.xlsx
+++ b/assets/i18n_data/foods_lang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="12795" activeTab="3"/>
+    <workbookView windowWidth="22665" windowHeight="12795" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="de" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="fr" sheetId="3" r:id="rId3"/>
     <sheet name="es" sheetId="4" r:id="rId4"/>
     <sheet name="pl" sheetId="5" r:id="rId5"/>
+    <sheet name="bg" sheetId="6" r:id="rId6"/>
+    <sheet name="it" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="1427">
   <si>
     <t>id</t>
   </si>
@@ -3231,6 +3233,1074 @@
   </si>
   <si>
     <t>Cukinia</t>
+  </si>
+  <si>
+    <t>Амла, Индийско цариградско грозде</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%AF%D0%B1%D1%8A%D0%BB%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Ябълка</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D0%B9%D1%81%D0%B8%D1%8F</t>
+  </si>
+  <si>
+    <t>Кайсия</t>
+  </si>
+  <si>
+    <t>Артишок</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%90%D1%81%D0%BF%D0%B5%D1%80%D0%B6%D0%B0</t>
+  </si>
+  <si>
+    <t>Аспержа, Зайча сянка</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%90%D0%B2%D0%BE%D0%BA%D0%B0%D0%B4%D0%BE</t>
+  </si>
+  <si>
+    <t>Авокадо</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%91%D0%B0%D0%BD%D0%B0%D0%BD_(%D0%BF%D0%BB%D0%BE%D0%B4)</t>
+  </si>
+  <si>
+    <t>Банан</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D1%80%D1%83%D0%BB%D1%8F</t>
+  </si>
+  <si>
+    <t>Маруля</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A7%D0%B5%D1%80%D0%B2%D0%B5%D0%BD%D0%BE_%D1%86%D0%B2%D0%B5%D0%BA%D0%BB%D0%BE</t>
+  </si>
+  <si>
+    <t>Червено цвекло</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D1%8A%D0%BF%D0%B8%D0%BD%D0%B0</t>
+  </si>
+  <si>
+    <t>Къпина</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%91%D0%BE%D1%80%D0%BE%D0%B2%D0%B8%D0%BD%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Боровинка</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%91%D1%80%D0%BE%D0%BA%D0%BE%D0%BB%D0%B8</t>
+  </si>
+  <si>
+    <t>Броколи</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%91%D1%80%D1%8E%D0%BA%D1%81%D0%B5%D0%BB%D1%81%D0%BA%D0%BE_%D0%B7%D0%B5%D0%BB%D0%B5</t>
+  </si>
+  <si>
+    <t>Брюкселско зеле</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A0%D0%BE%D0%B6%D0%BA%D0%BE%D0%B2</t>
+  </si>
+  <si>
+    <t>Рожков</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%BE%D1%80%D0%BA%D0%BE%D0%B2</t>
+  </si>
+  <si>
+    <t>Морков</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D1%80%D1%84%D0%B8%D0%BE%D0%BB</t>
+  </si>
+  <si>
+    <t>Карфиол, Цветно зеле</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A6%D0%B5%D0%BB%D0%B8%D0%BD%D0%B0</t>
+  </si>
+  <si>
+    <t>Целина, Керевиз, Кервиз</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D1%83%D0%BB%D1%82%D0%B8%D0%B2%D0%B8%D1%80%D0%B0%D0%BD%D0%B0_%D0%BF%D0%B5%D1%87%D1%83%D1%80%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Култивирана печурка</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BD%D0%B3%D0%BE%D0%BB%D0%B4</t>
+  </si>
+  <si>
+    <t>Манголд</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%94%D0%B8%D0%B2%D0%B0_%D1%87%D0%B5%D1%80%D0%B5%D1%88%D0%B0</t>
+  </si>
+  <si>
+    <t>Дива череша, Гурупла</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A1%D0%BB%D0%B0%D0%B4%D1%8A%D0%BA_%D0%BA%D0%B5%D1%81%D1%82%D0%B5%D0%BD</t>
+  </si>
+  <si>
+    <t>Сладък кестен</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A1%D0%B8%D0%BD%D1%8F_%D0%B6%D0%BB%D1%8A%D1%87%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Синя жлъчка, Цикория</t>
+  </si>
+  <si>
+    <t>Напа зеле</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BD%D0%B4%D0%B0%D1%80%D0%B8%D0%BD%D0%B0</t>
+  </si>
+  <si>
+    <t>Клементинa, Mандарина</t>
+  </si>
+  <si>
+    <t>Дива къпина</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BA%D0%BE%D1%81%D0%BE%D0%B2%D0%B0_%D0%BF%D0%B0%D0%BB%D0%BC%D0%B0</t>
+  </si>
+  <si>
+    <t>Кокос</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A7%D0%B5%D1%80%D0%B2%D0%B5%D0%BD%D0%B0_%D0%B1%D0%BE%D1%80%D0%BE%D0%B2%D0%B8%D0%BD%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Червена боровинка</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D1%80%D0%B0%D1%81%D1%82%D0%B0%D0%B2%D0%B8%D1%86%D0%B0</t>
+  </si>
+  <si>
+    <t>Краставица</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A4%D1%80%D0%B5%D0%BD%D1%81%D0%BA%D0%BE_%D0%B3%D1%80%D0%BE%D0%B7%D0%B4%D0%B5</t>
+  </si>
+  <si>
+    <t>Френско грозде</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A4%D1%83%D1%80%D0%BC%D0%B0</t>
+  </si>
+  <si>
+    <t>Фурма</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%B8%D1%82%D0%B0%D1%8F</t>
+  </si>
+  <si>
+    <t>Питая, Питахая, Драконов плод</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%B0%D1%82%D0%BB%D0%B0%D0%B4%D0%B6%D0%B0%D0%BD</t>
+  </si>
+  <si>
+    <t>Патладжан, Син домат</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A7%D0%B5%D1%80%D0%B5%D0%BD_%D0%B1%D1%8A%D0%B7</t>
+  </si>
+  <si>
+    <t>Черен бъз, Свирчовина</t>
+  </si>
+  <si>
+    <t>Ендивия</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A0%D0%B5%D0%B7%D0%B5%D0%BD%D0%B5</t>
+  </si>
+  <si>
+    <t>Резене, Див копър, Фенел</t>
+  </si>
+  <si>
+    <t>Градинска салата</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A1%D0%BC%D0%BE%D0%BA%D0%B8%D0%BD%D1%8F</t>
+  </si>
+  <si>
+    <t>Смокиня</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A6%D0%B0%D1%80%D0%B8%D0%B3%D1%80%D0%B0%D0%B4%D1%81%D0%BA%D0%BE_%D0%B3%D1%80%D0%BE%D0%B7%D0%B4%D0%B5</t>
+  </si>
+  <si>
+    <t>Цариградско грозде</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%93%D1%80%D0%B5%D0%B9%D0%BF%D1%84%D1%80%D1%83%D1%82</t>
+  </si>
+  <si>
+    <t>Грейпфрут</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%93%D1%80%D0%BE%D0%B7%D0%B4%D0%B5</t>
+  </si>
+  <si>
+    <t>Грозде</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A4%D0%B0%D1%81%D1%83%D0%BB</t>
+  </si>
+  <si>
+    <t>Фасул, Боб</t>
+  </si>
+  <si>
+    <t>Кейл</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D1%80%D0%BE%D0%BC%D0%B8%D0%B4_%D0%BB%D1%83%D0%BA</t>
+  </si>
+  <si>
+    <t>Кромид лук, Лук</t>
+  </si>
+  <si>
+    <t>Гуава</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9F%D1%8A%D0%BF%D0%B5%D1%88</t>
+  </si>
+  <si>
+    <t>Пъпеш</t>
+  </si>
+  <si>
+    <t>Айсберг, Маруля</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D0%B8%D0%B2%D0%B8_(%D0%BF%D0%BB%D0%BE%D0%B4)</t>
+  </si>
+  <si>
+    <t>Киви</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%90%D0%BB%D0%B0%D0%B1%D0%B0%D1%88</t>
+  </si>
+  <si>
+    <t>Алабаш</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9F%D1%80%D0%B0%D0%B7</t>
+  </si>
+  <si>
+    <t>Праз</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9B%D0%B8%D0%BC%D0%BE%D0%BD</t>
+  </si>
+  <si>
+    <t>Лимон</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%97%D0%B5%D0%BB%D0%B5%D0%BD_%D0%BB%D0%B8%D0%BC%D0%BE%D0%BD</t>
+  </si>
+  <si>
+    <t>Зелен лимон, Лайм, Лимета</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D0%B8%D1%82%D0%B0%D0%B9%D1%81%D0%BA%D0%BE_%D0%BB%D0%B8%D1%87%D0%B8</t>
+  </si>
+  <si>
+    <t>Китайско личи</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BD%D0%B3%D0%BE</t>
+  </si>
+  <si>
+    <t>Манго</t>
+  </si>
+  <si>
+    <t>Азиатска круша</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9F%D1%80%D0%B0%D1%81%D0%BA%D0%BE%D0%B2%D0%B0</t>
+  </si>
+  <si>
+    <t>Праскова</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%BE%D1%80%D1%82%D0%BE%D0%BA%D0%B0%D0%BB</t>
+  </si>
+  <si>
+    <t>Портокал</t>
+  </si>
+  <si>
+    <t>Бок чой, Пак чой</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%B0%D0%BF%D0%B0%D1%8F</t>
+  </si>
+  <si>
+    <t>Папая</t>
+  </si>
+  <si>
+    <t>Чушка</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%B0%D1%89%D1%8A%D1%80%D0%BD%D0%B0%D0%BA</t>
+  </si>
+  <si>
+    <t>Пащърнак</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D1%80%D0%B0%D0%BA%D1%83%D1%8F</t>
+  </si>
+  <si>
+    <t>Маракуя</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D1%80%D1%83%D1%88%D0%B0</t>
+  </si>
+  <si>
+    <t>Круша</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%93%D1%80%D0%B0%D1%85</t>
+  </si>
+  <si>
+    <t>Грах</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A0%D0%B0%D0%B9%D1%81%D0%BA%D0%B0_%D1%8F%D0%B1%D1%8A%D0%BB%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Райска ябълка</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A4%D0%B8%D0%B7%D0%B0%D0%BB%D0%B8%D1%81</t>
+  </si>
+  <si>
+    <t>Физалис</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%90%D0%BD%D0%B0%D0%BD%D0%B0%D1%81</t>
+  </si>
+  <si>
+    <t>Ананас</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A1%D0%BB%D0%B8%D0%B2%D0%B0</t>
+  </si>
+  <si>
+    <t>Слива</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%97%D0%B5%D0%BB%D0%B5</t>
+  </si>
+  <si>
+    <t>Зеле</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9D%D0%B0%D1%80</t>
+  </si>
+  <si>
+    <t>Нар</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D1%80%D1%82%D0%BE%D1%84</t>
+  </si>
+  <si>
+    <t>Картоф, Компир</t>
+  </si>
+  <si>
+    <t>Бодлива круша, Кактусова смокиня</t>
+  </si>
+  <si>
+    <t>Захарна слива</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A2%D0%B8%D0%BA%D0%B2%D0%B0</t>
+  </si>
+  <si>
+    <t>Тиква</t>
+  </si>
+  <si>
+    <t>Червено зеле</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%94%D1%8E%D0%BB%D1%8F</t>
+  </si>
+  <si>
+    <t>Дюля</t>
+  </si>
+  <si>
+    <t>Радичио</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A0%D1%8F%D0%BF%D0%B0</t>
+  </si>
+  <si>
+    <t>Ряпа</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BB%D0%B8%D0%BD%D0%B0</t>
+  </si>
+  <si>
+    <t>Малина</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%92%D1%8A%D0%BB%D0%BD%D0%BE%D0%BE%D0%B1%D1%80%D0%B0%D0%B7%D0%B5%D0%BD_%D1%80%D0%B5%D0%B2%D0%B5%D0%BD</t>
+  </si>
+  <si>
+    <t>Вълнообразен ревен</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9E%D0%B1%D0%B8%D0%BA%D0%BD%D0%BE%D0%B2%D0%B5%D0%BD%D0%B0_%D1%88%D0%B8%D0%BF%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Шипка</t>
+  </si>
+  <si>
+    <t>Савойско зеле</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A0%D0%B5%D0%BF%D0%B8%D1%87%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Репичка</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9E%D1%84%D0%B8%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Офика</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9E%D0%B1%D0%B8%D0%BA%D0%BD%D0%BE%D0%B2%D0%B5%D0%BD_%D1%81%D0%BF%D0%B0%D0%BD%D0%B0%D0%BA</t>
+  </si>
+  <si>
+    <t>Спанак</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D1%80%D0%B0%D0%BC%D0%B1%D0%BE%D0%BB%D0%B0</t>
+  </si>
+  <si>
+    <t>Карамбола, Звезден плод</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%AF%D0%B3%D0%BE%D0%B4%D0%B0</t>
+  </si>
+  <si>
+    <t>Ягода</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A6%D0%B0%D1%80%D0%B5%D0%B2%D0%B8%D1%86%D0%B0</t>
+  </si>
+  <si>
+    <t>Царевица</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A1%D0%BB%D0%B0%D0%B4%D1%8A%D0%BA_%D0%BA%D0%B0%D1%80%D1%82%D0%BE%D1%84</t>
+  </si>
+  <si>
+    <t>Сладък картоф, Батат</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%94%D0%BE%D0%BC%D0%B0%D1%82</t>
+  </si>
+  <si>
+    <t>Домат</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9E%D0%B1%D0%B8%D0%BA%D0%BD%D0%BE%D0%B2%D0%B5%D0%BD%D0%B0_%D0%B4%D0%B8%D0%BD%D1%8F</t>
+  </si>
+  <si>
+    <t>Диня</t>
+  </si>
+  <si>
+    <t>Бяло зеле, Зеле</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D1%81%D0%BA%D0%B0_%D1%8F%D0%B3%D0%BE%D0%B4%D0%B0</t>
+  </si>
+  <si>
+    <t>Горска ягода</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%B8%D1%80%D0%B0%D0%B1%D0%B5%D0%BB%D0%B0_(%D1%81%D0%BB%D0%B8%D0%B2%D0%B0)</t>
+  </si>
+  <si>
+    <t>Мирабела</t>
+  </si>
+  <si>
+    <t>https://bg.wikipedia.org/wiki/%D0%A2%D0%B8%D0%BA%D0%B2%D0%B8%D1%87%D0%BA%D0%B0</t>
+  </si>
+  <si>
+    <t>Тиквичка</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Phyllanthus</t>
+  </si>
+  <si>
+    <t>Amla, Uva spina indiana</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Mela</t>
+  </si>
+  <si>
+    <t>Mela</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Prunus_armeniaca</t>
+  </si>
+  <si>
+    <t>Albicocca</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cynara_scolymus</t>
+  </si>
+  <si>
+    <t>Carciofo</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Asparagus_officinalis</t>
+  </si>
+  <si>
+    <t>Asparago, Asparagio</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Persea_americana</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Banana</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Lactuca_sativa</t>
+  </si>
+  <si>
+    <t>Lattuga cappuccia</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Beta_vulgaris</t>
+  </si>
+  <si>
+    <t>Barbabietola</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Mora_(frutto)</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Mirtillo</t>
+  </si>
+  <si>
+    <t>Mirtillo</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_oleracea_var._italica</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_oleracea_var._gemmifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavoletti di Bruxelles </t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Ceratonia_siliqua</t>
+  </si>
+  <si>
+    <t>Carruba</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Daucus_carota</t>
+  </si>
+  <si>
+    <t>Carota</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_oleracea_var._botrytis</t>
+  </si>
+  <si>
+    <t>Cavolfiore</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Apium_graveolens#Sedano_rapa</t>
+  </si>
+  <si>
+    <t>Sedano rapa</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Apium_graveolens</t>
+  </si>
+  <si>
+    <t>Sedano</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Agaricus_bisporus</t>
+  </si>
+  <si>
+    <t>Champignon, Prataiolo</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Bietola</t>
+  </si>
+  <si>
+    <t>Bietola</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Prunus_avium</t>
+  </si>
+  <si>
+    <t>Ciliegia</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Castanea_sativa</t>
+  </si>
+  <si>
+    <t>Castagna</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cichorium_intybus</t>
+  </si>
+  <si>
+    <t>Cicoria</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_rapa_pekinensis</t>
+  </si>
+  <si>
+    <t>Cavolo cinese, Cavolo di Pechino</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Citrus_%C3%97_clementina</t>
+  </si>
+  <si>
+    <t>Clementina, Mandarancio</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Rubus_chamaemorus</t>
+  </si>
+  <si>
+    <t>Camemoro, Rovo artico</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cocos_nucifera</t>
+  </si>
+  <si>
+    <t>Cocco</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Oxycoccus</t>
+  </si>
+  <si>
+    <t>Ossicocco, Mirtillo palustre</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cucumis_sativus</t>
+  </si>
+  <si>
+    <t>Cetriolo, Cocomero</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Ribes</t>
+  </si>
+  <si>
+    <t>Ribes</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Phoenix_dactylifera</t>
+  </si>
+  <si>
+    <t>Dattero</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Hylocereus_undatus</t>
+  </si>
+  <si>
+    <t>Frutto del drago, Pitaya</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Solanum_melongena</t>
+  </si>
+  <si>
+    <t>Melanzana</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Sambucus_nigra</t>
+  </si>
+  <si>
+    <t>Sambuco</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cichorium_endivia</t>
+  </si>
+  <si>
+    <t>Indivia</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Foeniculum_vulgare</t>
+  </si>
+  <si>
+    <t>Finocchio</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Valerianella_locusta</t>
+  </si>
+  <si>
+    <t>Valeriana, Songino</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Ficus_carica</t>
+  </si>
+  <si>
+    <t>Fico</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Ribes_uva-crispa</t>
+  </si>
+  <si>
+    <t>Uva spina</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Citrus_paradisi</t>
+  </si>
+  <si>
+    <t>Pompelmo</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Uva</t>
+  </si>
+  <si>
+    <t>Uva</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Phaseolus_vulgaris</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_oleracea_var._sabellica</t>
+  </si>
+  <si>
+    <t>Cavolo riccio</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Allium_fistulosum</t>
+  </si>
+  <si>
+    <t>Cipolletta. Cipolla d'inverno</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Psidium_guajava</t>
+  </si>
+  <si>
+    <t>Guava, Guaiava</t>
+  </si>
+  <si>
+    <t>Lattuga liscia</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cucumis_melo</t>
+  </si>
+  <si>
+    <t>Melone</t>
+  </si>
+  <si>
+    <t>Lattuga iceberg</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Kiwi_(frutto)</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_oleracea_var._gongylodes</t>
+  </si>
+  <si>
+    <t>Cavolo rapa</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Allium_ampeloprasum</t>
+  </si>
+  <si>
+    <t>Porro</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Citrus_limon</t>
+  </si>
+  <si>
+    <t>Limone</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Limetta</t>
+  </si>
+  <si>
+    <t>Lime, Limetta</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Vaccinium_vitis-idaea</t>
+  </si>
+  <si>
+    <t>Mirtillo rosso</t>
+  </si>
+  <si>
+    <t>Lattuga crespa</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Litchi_chinensis</t>
+  </si>
+  <si>
+    <t>Litchi, Nefelio</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Mango_(frutto)</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Pyrus_pyrifolia</t>
+  </si>
+  <si>
+    <t>Nashi, Pera giapponese, Pera asiatica</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Prunus_persica</t>
+  </si>
+  <si>
+    <t>Nocepesca, Nettarina</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Allium_cepa</t>
+  </si>
+  <si>
+    <t>Cipolla</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Citrus_sinensis</t>
+  </si>
+  <si>
+    <t>Arancia</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_rapa_chinensis</t>
+  </si>
+  <si>
+    <t>Bok Choy, Pak choi</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Carica_papaya</t>
+  </si>
+  <si>
+    <t>Papaya, Papaia</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Peperone</t>
+  </si>
+  <si>
+    <t>Peperone</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Pastinaca_sativa</t>
+  </si>
+  <si>
+    <t>Pastinaca</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Passiflora_edulis</t>
+  </si>
+  <si>
+    <t>Frutto della passione, Maracuja</t>
+  </si>
+  <si>
+    <t>Pesca</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Pyrus</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Pisum_sativum</t>
+  </si>
+  <si>
+    <t>Piselli</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Diospyros_kaki</t>
+  </si>
+  <si>
+    <t>Cachi, Kaki</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Physalis_peruviana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchechengio peruviano, Uciuva </t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Ananas_comosus</t>
+  </si>
+  <si>
+    <t>Ananas, Ananasso</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Prunus_domestica</t>
+  </si>
+  <si>
+    <t>Prugna, Susina</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_oleracea_var._capitata</t>
+  </si>
+  <si>
+    <t>Cavolo cappuccio</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Punica_granatum</t>
+  </si>
+  <si>
+    <t>Melograno, Melagrana</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Solanum_tuberosum</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Opuntia_ficus-indica</t>
+  </si>
+  <si>
+    <t>Ficodindia, Fico d'India</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Ramasin</t>
+  </si>
+  <si>
+    <t>Damaschina, Ramasin</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Zucca</t>
+  </si>
+  <si>
+    <t>Zucca</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_oleracea_var._capitata_f._rubra</t>
+  </si>
+  <si>
+    <t>Cavolo rosso</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cydonia_oblonga</t>
+  </si>
+  <si>
+    <t>Mela cotogna</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Radicchio_di_Chioggia</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Raphanus</t>
+  </si>
+  <si>
+    <t>Rafano</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Lampone</t>
+  </si>
+  <si>
+    <t>Lampone</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Rheum</t>
+  </si>
+  <si>
+    <t>Rabarbaro</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cinorrodo</t>
+  </si>
+  <si>
+    <t>Cinorrodo</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Brassica_oleracea_var._sabauda</t>
+  </si>
+  <si>
+    <t>Verza, Cavolo verza</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Raphanus_sativus</t>
+  </si>
+  <si>
+    <t>Ravanello</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Sorbus_aucuparia</t>
+  </si>
+  <si>
+    <t>Sorbo</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Spinacia_oleracea</t>
+  </si>
+  <si>
+    <t>Spinaci</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Carambola_(frutto)</t>
+  </si>
+  <si>
+    <t>Carambola</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Fragola</t>
+  </si>
+  <si>
+    <t>Fragola</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Zea_mays</t>
+  </si>
+  <si>
+    <t>Pannocchie, Mais</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Ipomoea_batatas</t>
+  </si>
+  <si>
+    <t>Patata dolce, Patata americana</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Solanum_lycopersicum</t>
+  </si>
+  <si>
+    <t>Pomodoro</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Citrullus_lanatus</t>
+  </si>
+  <si>
+    <t>Anguria, Cocomero</t>
+  </si>
+  <si>
+    <t>Cavolo cappuccio allungato</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Fragaria_vesca</t>
+  </si>
+  <si>
+    <t>Fragola di bosco</t>
+  </si>
+  <si>
+    <t>Prugna gialla, Susina gialla</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Cucurbita_pepo</t>
+  </si>
+  <si>
+    <t>Zucchina</t>
   </si>
 </sst>
 </file>
@@ -3243,13 +4313,41 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3266,10 +4364,109 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3289,77 +4486,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3372,34 +4500,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3411,7 +4515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3423,7 +4527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,13 +4539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3453,13 +4551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3471,37 +4587,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3513,55 +4629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3579,19 +4659,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3605,81 +4709,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3702,210 +4735,289 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4224,7 +5336,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -4235,7 +5347,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -4246,7 +5358,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -4257,7 +5369,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
@@ -4268,7 +5380,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
@@ -4279,7 +5391,7 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
@@ -4290,7 +5402,7 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
@@ -4301,7 +5413,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
@@ -4312,7 +5424,7 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
@@ -4323,7 +5435,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
@@ -4334,7 +5446,7 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
@@ -4345,7 +5457,7 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
@@ -4356,7 +5468,7 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
@@ -4367,7 +5479,7 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
@@ -4378,7 +5490,7 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D16" t="s">
@@ -4389,7 +5501,7 @@
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">
@@ -4400,7 +5512,7 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D18" t="s">
@@ -4411,7 +5523,7 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D19" t="s">
@@ -4422,7 +5534,7 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D20" t="s">
@@ -4433,7 +5545,7 @@
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D21" t="s">
@@ -4444,7 +5556,7 @@
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D22" t="s">
@@ -4455,7 +5567,7 @@
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D23" t="s">
@@ -4466,7 +5578,7 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D24" t="s">
@@ -4477,7 +5589,7 @@
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D25" t="s">
@@ -4488,7 +5600,7 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D26" t="s">
@@ -4499,7 +5611,7 @@
       <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D27" t="s">
@@ -4510,7 +5622,7 @@
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D28" t="s">
@@ -4521,7 +5633,7 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D29" t="s">
@@ -4532,7 +5644,7 @@
       <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D30" t="s">
@@ -4543,7 +5655,7 @@
       <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D31" t="s">
@@ -4554,7 +5666,7 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D32" t="s">
@@ -4565,7 +5677,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D33" t="s">
@@ -4576,7 +5688,7 @@
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D34" t="s">
@@ -4587,7 +5699,7 @@
       <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D35" t="s">
@@ -4598,7 +5710,7 @@
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D36" t="s">
@@ -4609,7 +5721,7 @@
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D37" t="s">
@@ -4620,7 +5732,7 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D38" t="s">
@@ -4631,7 +5743,7 @@
       <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D39" t="s">
@@ -4642,7 +5754,7 @@
       <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D40" t="s">
@@ -4653,7 +5765,7 @@
       <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D41" t="s">
@@ -4664,7 +5776,7 @@
       <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D42" t="s">
@@ -4675,7 +5787,7 @@
       <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D43" t="s">
@@ -4686,7 +5798,7 @@
       <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D44" t="s">
@@ -4697,7 +5809,7 @@
       <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D45" t="s">
@@ -4708,7 +5820,7 @@
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D46" t="s">
@@ -4719,7 +5831,7 @@
       <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D47" t="s">
@@ -4730,7 +5842,7 @@
       <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D48" t="s">
@@ -4741,7 +5853,7 @@
       <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
       <c r="D49" t="s">
@@ -4752,7 +5864,7 @@
       <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D50" t="s">
@@ -4763,7 +5875,7 @@
       <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="7" t="s">
         <v>151</v>
       </c>
       <c r="D51" t="s">
@@ -4774,7 +5886,7 @@
       <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D52" t="s">
@@ -4785,7 +5897,7 @@
       <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="7" t="s">
         <v>157</v>
       </c>
       <c r="D53" t="s">
@@ -4796,7 +5908,7 @@
       <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D54" t="s">
@@ -4807,7 +5919,7 @@
       <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D55" t="s">
@@ -4818,7 +5930,7 @@
       <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D56" t="s">
@@ -4829,7 +5941,7 @@
       <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="7" t="s">
         <v>169</v>
       </c>
       <c r="D57" t="s">
@@ -4840,7 +5952,7 @@
       <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D58" t="s">
@@ -4851,7 +5963,7 @@
       <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D59" t="s">
@@ -4862,7 +5974,7 @@
       <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D60" t="s">
@@ -4873,7 +5985,7 @@
       <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D61" t="s">
@@ -4884,7 +5996,7 @@
       <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>184</v>
       </c>
       <c r="D62" t="s">
@@ -4895,7 +6007,7 @@
       <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D63" t="s">
@@ -4906,7 +6018,7 @@
       <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="7" t="s">
         <v>190</v>
       </c>
       <c r="D64" t="s">
@@ -4917,7 +6029,7 @@
       <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D65" t="s">
@@ -4928,7 +6040,7 @@
       <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="7" t="s">
         <v>196</v>
       </c>
       <c r="D66" t="s">
@@ -4939,7 +6051,7 @@
       <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D67" t="s">
@@ -4950,7 +6062,7 @@
       <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D68" t="s">
@@ -4961,7 +6073,7 @@
       <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="7" t="s">
         <v>205</v>
       </c>
       <c r="D69" t="s">
@@ -4972,7 +6084,7 @@
       <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="7" t="s">
         <v>208</v>
       </c>
       <c r="D70" t="s">
@@ -4983,7 +6095,7 @@
       <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="7" t="s">
         <v>211</v>
       </c>
       <c r="D71" t="s">
@@ -4994,7 +6106,7 @@
       <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="7" t="s">
         <v>214</v>
       </c>
       <c r="D72" t="s">
@@ -5005,7 +6117,7 @@
       <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D73" t="s">
@@ -5016,7 +6128,7 @@
       <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="7" t="s">
         <v>220</v>
       </c>
       <c r="D74" t="s">
@@ -5027,7 +6139,7 @@
       <c r="B75" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="7" t="s">
         <v>223</v>
       </c>
       <c r="D75" t="s">
@@ -5038,7 +6150,7 @@
       <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D76" t="s">
@@ -5049,7 +6161,7 @@
       <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="7" t="s">
         <v>229</v>
       </c>
       <c r="D77" t="s">
@@ -5060,7 +6172,7 @@
       <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="7" t="s">
         <v>232</v>
       </c>
       <c r="D78" t="s">
@@ -5071,7 +6183,7 @@
       <c r="B79" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="7" t="s">
         <v>235</v>
       </c>
       <c r="D79" t="s">
@@ -5082,7 +6194,7 @@
       <c r="B80" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="7" t="s">
         <v>238</v>
       </c>
       <c r="D80" t="s">
@@ -5093,7 +6205,7 @@
       <c r="B81" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="7" t="s">
         <v>241</v>
       </c>
       <c r="D81" t="s">
@@ -5104,7 +6216,7 @@
       <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="7" t="s">
         <v>244</v>
       </c>
       <c r="D82" t="s">
@@ -5115,7 +6227,7 @@
       <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="7" t="s">
         <v>247</v>
       </c>
       <c r="D83" t="s">
@@ -5126,7 +6238,7 @@
       <c r="B84" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D84" t="s">
@@ -5137,7 +6249,7 @@
       <c r="B85" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="7" t="s">
         <v>253</v>
       </c>
       <c r="D85" t="s">
@@ -5148,7 +6260,7 @@
       <c r="B86" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D86" t="s">
@@ -5159,7 +6271,7 @@
       <c r="B87" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="7" t="s">
         <v>259</v>
       </c>
       <c r="D87" t="s">
@@ -5170,7 +6282,7 @@
       <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="7" t="s">
         <v>262</v>
       </c>
       <c r="D88" t="s">
@@ -5181,7 +6293,7 @@
       <c r="B89" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="7" t="s">
         <v>265</v>
       </c>
       <c r="D89" t="s">
@@ -5192,7 +6304,7 @@
       <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="7" t="s">
         <v>268</v>
       </c>
       <c r="D90" t="s">
@@ -5203,7 +6315,7 @@
       <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="7" t="s">
         <v>271</v>
       </c>
       <c r="D91" t="s">
@@ -5214,7 +6326,7 @@
       <c r="B92" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="7" t="s">
         <v>274</v>
       </c>
       <c r="D92" t="s">
@@ -5225,7 +6337,7 @@
       <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="7" t="s">
         <v>277</v>
       </c>
       <c r="D93" t="s">
@@ -5236,7 +6348,7 @@
       <c r="B94" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="7" t="s">
         <v>280</v>
       </c>
       <c r="D94" t="s">
@@ -5247,7 +6359,7 @@
       <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D95" t="s">
@@ -5258,7 +6370,7 @@
       <c r="B96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D96" t="s">
@@ -5269,7 +6381,7 @@
       <c r="B97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="7" t="s">
         <v>289</v>
       </c>
       <c r="D97" t="s">
@@ -5280,7 +6392,7 @@
       <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="7" t="s">
         <v>292</v>
       </c>
       <c r="D98" t="s">
@@ -5291,7 +6403,7 @@
       <c r="B99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="7" t="s">
         <v>295</v>
       </c>
       <c r="D99" t="s">
@@ -5302,7 +6414,7 @@
       <c r="B100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="7" t="s">
         <v>298</v>
       </c>
       <c r="D100" t="s">
@@ -5313,7 +6425,7 @@
       <c r="B101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D101" t="s">
@@ -5433,8 +6545,8 @@
   <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="D1" sqref="B1:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5457,7 +6569,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>303</v>
       </c>
       <c r="D2" t="s">
@@ -5468,7 +6580,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D3" t="s">
@@ -5479,7 +6591,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D4" t="s">
@@ -5490,7 +6602,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D5" t="s">
@@ -5501,7 +6613,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>311</v>
       </c>
       <c r="D6" t="s">
@@ -5512,7 +6624,7 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>313</v>
       </c>
       <c r="D7" t="s">
@@ -5523,7 +6635,7 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>315</v>
       </c>
       <c r="D8" t="s">
@@ -5534,7 +6646,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>317</v>
       </c>
       <c r="D9" t="s">
@@ -5545,7 +6657,7 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>319</v>
       </c>
       <c r="D10" t="s">
@@ -5556,7 +6668,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D11" t="s">
@@ -5567,7 +6679,7 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>323</v>
       </c>
       <c r="D12" t="s">
@@ -5578,7 +6690,7 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>325</v>
       </c>
       <c r="D13" t="s">
@@ -5589,7 +6701,7 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>327</v>
       </c>
       <c r="D14" t="s">
@@ -5600,7 +6712,7 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D15" t="s">
@@ -5611,7 +6723,7 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>331</v>
       </c>
       <c r="D16" t="s">
@@ -5622,7 +6734,7 @@
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D17" t="s">
@@ -5633,7 +6745,7 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>335</v>
       </c>
       <c r="D18" t="s">
@@ -5644,7 +6756,7 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D19" t="s">
@@ -5655,7 +6767,7 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>339</v>
       </c>
       <c r="D20" t="s">
@@ -5666,7 +6778,7 @@
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>341</v>
       </c>
       <c r="D21" t="s">
@@ -5677,7 +6789,7 @@
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>343</v>
       </c>
       <c r="D22" t="s">
@@ -5688,7 +6800,7 @@
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>345</v>
       </c>
       <c r="D23" t="s">
@@ -5699,7 +6811,7 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>347</v>
       </c>
       <c r="D24" t="s">
@@ -5710,7 +6822,7 @@
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D25" t="s">
@@ -5721,7 +6833,7 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>351</v>
       </c>
       <c r="D26" t="s">
@@ -5732,7 +6844,7 @@
       <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>353</v>
       </c>
       <c r="D27" t="s">
@@ -5743,7 +6855,7 @@
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>355</v>
       </c>
       <c r="D28" t="s">
@@ -5754,7 +6866,7 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>357</v>
       </c>
       <c r="D29" t="s">
@@ -5765,7 +6877,7 @@
       <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>359</v>
       </c>
       <c r="D30" t="s">
@@ -5776,7 +6888,7 @@
       <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>361</v>
       </c>
       <c r="D31" t="s">
@@ -5787,7 +6899,7 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>363</v>
       </c>
       <c r="D32" t="s">
@@ -5798,7 +6910,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>365</v>
       </c>
       <c r="D33" t="s">
@@ -5809,7 +6921,7 @@
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>367</v>
       </c>
       <c r="D34" t="s">
@@ -5820,7 +6932,7 @@
       <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>369</v>
       </c>
       <c r="D35" t="s">
@@ -5831,7 +6943,7 @@
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>371</v>
       </c>
       <c r="D36" t="s">
@@ -5842,7 +6954,7 @@
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>373</v>
       </c>
       <c r="D37" t="s">
@@ -5853,7 +6965,7 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D38" t="s">
@@ -5864,7 +6976,7 @@
       <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>377</v>
       </c>
       <c r="D39" t="s">
@@ -5875,7 +6987,7 @@
       <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>379</v>
       </c>
       <c r="D40" t="s">
@@ -5886,7 +6998,7 @@
       <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>381</v>
       </c>
       <c r="D41" t="s">
@@ -5897,7 +7009,7 @@
       <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>382</v>
       </c>
       <c r="D42" t="s">
@@ -5908,7 +7020,7 @@
       <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="7" t="s">
         <v>384</v>
       </c>
       <c r="D43" t="s">
@@ -5919,7 +7031,7 @@
       <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="7" t="s">
         <v>386</v>
       </c>
       <c r="D44" t="s">
@@ -5930,7 +7042,7 @@
       <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="7" t="s">
         <v>388</v>
       </c>
       <c r="D45" t="s">
@@ -5941,7 +7053,7 @@
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>390</v>
       </c>
       <c r="D46" t="s">
@@ -5952,7 +7064,7 @@
       <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="7" t="s">
         <v>317</v>
       </c>
       <c r="D47" t="s">
@@ -5963,7 +7075,7 @@
       <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="7" t="s">
         <v>393</v>
       </c>
       <c r="D48" t="s">
@@ -5974,7 +7086,7 @@
       <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>317</v>
       </c>
       <c r="D49" t="s">
@@ -5985,7 +7097,7 @@
       <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>396</v>
       </c>
       <c r="D50" t="s">
@@ -5996,7 +7108,7 @@
       <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="7" t="s">
         <v>398</v>
       </c>
       <c r="D51" t="s">
@@ -6007,7 +7119,7 @@
       <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D52" t="s">
@@ -6018,7 +7130,7 @@
       <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="7" t="s">
         <v>402</v>
       </c>
       <c r="D53" t="s">
@@ -6029,7 +7141,7 @@
       <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>404</v>
       </c>
       <c r="D54" t="s">
@@ -6040,7 +7152,7 @@
       <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>406</v>
       </c>
       <c r="D55" t="s">
@@ -6051,7 +7163,7 @@
       <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>317</v>
       </c>
       <c r="D56" t="s">
@@ -6062,7 +7174,7 @@
       <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="7" t="s">
         <v>409</v>
       </c>
       <c r="D57" t="s">
@@ -6073,7 +7185,7 @@
       <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="7" t="s">
         <v>411</v>
       </c>
       <c r="D58" t="s">
@@ -6084,7 +7196,7 @@
       <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="7" t="s">
         <v>412</v>
       </c>
       <c r="D59" t="s">
@@ -6095,7 +7207,7 @@
       <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="7" t="s">
         <v>414</v>
       </c>
       <c r="D60" t="s">
@@ -6106,7 +7218,7 @@
       <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="7" t="s">
         <v>416</v>
       </c>
       <c r="D61" t="s">
@@ -6117,7 +7229,7 @@
       <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>418</v>
       </c>
       <c r="D62" t="s">
@@ -6128,7 +7240,7 @@
       <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="7" t="s">
         <v>420</v>
       </c>
       <c r="D63" t="s">
@@ -6139,7 +7251,7 @@
       <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="7" t="s">
         <v>422</v>
       </c>
       <c r="D64" t="s">
@@ -6150,7 +7262,7 @@
       <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D65" t="s">
@@ -6161,7 +7273,7 @@
       <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="7" t="s">
         <v>426</v>
       </c>
       <c r="D66" t="s">
@@ -6172,7 +7284,7 @@
       <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="7" t="s">
         <v>428</v>
       </c>
       <c r="D67" t="s">
@@ -6183,7 +7295,7 @@
       <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>430</v>
       </c>
       <c r="D68" t="s">
@@ -6194,7 +7306,7 @@
       <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="7" t="s">
         <v>432</v>
       </c>
       <c r="D69" t="s">
@@ -6205,7 +7317,7 @@
       <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="7" t="s">
         <v>434</v>
       </c>
       <c r="D70" t="s">
@@ -6216,7 +7328,7 @@
       <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="7" t="s">
         <v>436</v>
       </c>
       <c r="D71" t="s">
@@ -6227,7 +7339,7 @@
       <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="7" t="s">
         <v>438</v>
       </c>
       <c r="D72" t="s">
@@ -6238,7 +7350,7 @@
       <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="7" t="s">
         <v>440</v>
       </c>
       <c r="D73" t="s">
@@ -6249,7 +7361,7 @@
       <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="7" t="s">
         <v>442</v>
       </c>
       <c r="D74" t="s">
@@ -6260,7 +7372,7 @@
       <c r="B75" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="7" t="s">
         <v>444</v>
       </c>
       <c r="D75" t="s">
@@ -6271,7 +7383,7 @@
       <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="7" t="s">
         <v>446</v>
       </c>
       <c r="D76" t="s">
@@ -6282,7 +7394,7 @@
       <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="7" t="s">
         <v>448</v>
       </c>
       <c r="D77" t="s">
@@ -6293,7 +7405,7 @@
       <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="7" t="s">
         <v>450</v>
       </c>
       <c r="D78" t="s">
@@ -6304,7 +7416,7 @@
       <c r="B79" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="7" t="s">
         <v>452</v>
       </c>
       <c r="D79" t="s">
@@ -6315,7 +7427,7 @@
       <c r="B80" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="7" t="s">
         <v>454</v>
       </c>
       <c r="D80" t="s">
@@ -6326,7 +7438,7 @@
       <c r="B81" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="7" t="s">
         <v>456</v>
       </c>
       <c r="D81" t="s">
@@ -6337,7 +7449,7 @@
       <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="7" t="s">
         <v>458</v>
       </c>
       <c r="D82" t="s">
@@ -6348,7 +7460,7 @@
       <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="7" t="s">
         <v>460</v>
       </c>
       <c r="D83" t="s">
@@ -6359,7 +7471,7 @@
       <c r="B84" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="7" t="s">
         <v>462</v>
       </c>
       <c r="D84" t="s">
@@ -6370,7 +7482,7 @@
       <c r="B85" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="7" t="s">
         <v>464</v>
       </c>
       <c r="D85" t="s">
@@ -6381,7 +7493,7 @@
       <c r="B86" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="7" t="s">
         <v>466</v>
       </c>
       <c r="D86" t="s">
@@ -6392,7 +7504,7 @@
       <c r="B87" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="7" t="s">
         <v>468</v>
       </c>
       <c r="D87" t="s">
@@ -6403,7 +7515,7 @@
       <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="7" t="s">
         <v>470</v>
       </c>
       <c r="D88" t="s">
@@ -6414,7 +7526,7 @@
       <c r="B89" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="7" t="s">
         <v>472</v>
       </c>
       <c r="D89" t="s">
@@ -6425,7 +7537,7 @@
       <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="7" t="s">
         <v>474</v>
       </c>
       <c r="D90" t="s">
@@ -6436,7 +7548,7 @@
       <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="7" t="s">
         <v>476</v>
       </c>
       <c r="D91" t="s">
@@ -6447,7 +7559,7 @@
       <c r="B92" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="7" t="s">
         <v>478</v>
       </c>
       <c r="D92" t="s">
@@ -6458,7 +7570,7 @@
       <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="7" t="s">
         <v>480</v>
       </c>
       <c r="D93" t="s">
@@ -6469,7 +7581,7 @@
       <c r="B94" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="7" t="s">
         <v>482</v>
       </c>
       <c r="D94" t="s">
@@ -6480,7 +7592,7 @@
       <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="7" t="s">
         <v>484</v>
       </c>
       <c r="D95" t="s">
@@ -6491,7 +7603,7 @@
       <c r="B96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="7" t="s">
         <v>486</v>
       </c>
       <c r="D96" t="s">
@@ -6502,7 +7614,7 @@
       <c r="B97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="7" t="s">
         <v>488</v>
       </c>
       <c r="D97" t="s">
@@ -6513,7 +7625,7 @@
       <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="7" t="s">
         <v>444</v>
       </c>
       <c r="D98" t="s">
@@ -6524,7 +7636,7 @@
       <c r="B99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="7" t="s">
         <v>491</v>
       </c>
       <c r="D99" t="s">
@@ -6535,7 +7647,7 @@
       <c r="B100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="7" t="s">
         <v>493</v>
       </c>
       <c r="D100" t="s">
@@ -6546,7 +7658,7 @@
       <c r="B101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="7" t="s">
         <v>495</v>
       </c>
       <c r="D101" t="s">
@@ -6687,7 +7799,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>497</v>
       </c>
       <c r="D2" t="s">
@@ -6698,7 +7810,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
@@ -6709,7 +7821,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>501</v>
       </c>
       <c r="D4" t="s">
@@ -6720,7 +7832,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>503</v>
       </c>
       <c r="D5" t="s">
@@ -6731,7 +7843,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>505</v>
       </c>
       <c r="D6" t="s">
@@ -6742,7 +7854,7 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>507</v>
       </c>
       <c r="D7" t="s">
@@ -6753,7 +7865,7 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>509</v>
       </c>
       <c r="D8" t="s">
@@ -6764,7 +7876,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>510</v>
       </c>
       <c r="D9" t="s">
@@ -6775,7 +7887,7 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>512</v>
       </c>
       <c r="D10" t="s">
@@ -6786,7 +7898,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>514</v>
       </c>
       <c r="D11" t="s">
@@ -6797,7 +7909,7 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>516</v>
       </c>
       <c r="D12" t="s">
@@ -6808,7 +7920,7 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>518</v>
       </c>
       <c r="D13" t="s">
@@ -6819,7 +7931,7 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D14" t="s">
@@ -6830,7 +7942,7 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>522</v>
       </c>
       <c r="D15" t="s">
@@ -6841,7 +7953,7 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>524</v>
       </c>
       <c r="D16" t="s">
@@ -6852,7 +7964,7 @@
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>526</v>
       </c>
       <c r="D17" t="s">
@@ -6863,7 +7975,7 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>528</v>
       </c>
       <c r="D18" t="s">
@@ -6874,7 +7986,7 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>530</v>
       </c>
       <c r="D19" t="s">
@@ -6885,7 +7997,7 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>532</v>
       </c>
       <c r="D20" t="s">
@@ -6896,7 +8008,7 @@
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D21" t="s">
@@ -6907,7 +8019,7 @@
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>536</v>
       </c>
       <c r="D22" t="s">
@@ -6918,7 +8030,7 @@
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>538</v>
       </c>
       <c r="D23" t="s">
@@ -6929,7 +8041,7 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>540</v>
       </c>
       <c r="D24" t="s">
@@ -6940,7 +8052,7 @@
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>542</v>
       </c>
       <c r="D25" t="s">
@@ -6951,7 +8063,7 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>544</v>
       </c>
       <c r="D26" t="s">
@@ -6962,7 +8074,7 @@
       <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>546</v>
       </c>
       <c r="D27" t="s">
@@ -6973,7 +8085,7 @@
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>548</v>
       </c>
       <c r="D28" t="s">
@@ -6984,7 +8096,7 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>550</v>
       </c>
       <c r="D29" t="s">
@@ -6995,7 +8107,7 @@
       <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>552</v>
       </c>
       <c r="D30" t="s">
@@ -7006,7 +8118,7 @@
       <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>554</v>
       </c>
       <c r="D31" t="s">
@@ -7017,7 +8129,7 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>556</v>
       </c>
       <c r="D32" t="s">
@@ -7028,7 +8140,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>558</v>
       </c>
       <c r="D33" t="s">
@@ -7039,7 +8151,7 @@
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>560</v>
       </c>
       <c r="D34" t="s">
@@ -7050,7 +8162,7 @@
       <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>562</v>
       </c>
       <c r="D35" t="s">
@@ -7061,7 +8173,7 @@
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>540</v>
       </c>
       <c r="D36" t="s">
@@ -7072,7 +8184,7 @@
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>565</v>
       </c>
       <c r="D37" t="s">
@@ -7083,7 +8195,7 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>567</v>
       </c>
       <c r="D38" t="s">
@@ -7094,7 +8206,7 @@
       <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>569</v>
       </c>
       <c r="D39" t="s">
@@ -7105,7 +8217,7 @@
       <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>571</v>
       </c>
       <c r="D40" t="s">
@@ -7116,7 +8228,7 @@
       <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>573</v>
       </c>
       <c r="D41" t="s">
@@ -7127,7 +8239,7 @@
       <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>575</v>
       </c>
       <c r="D42" t="s">
@@ -7138,7 +8250,7 @@
       <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="7" t="s">
         <v>577</v>
       </c>
       <c r="D43" t="s">
@@ -7149,7 +8261,7 @@
       <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="7" t="s">
         <v>579</v>
       </c>
       <c r="D44" t="s">
@@ -7160,7 +8272,7 @@
       <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="7" t="s">
         <v>581</v>
       </c>
       <c r="D45" t="s">
@@ -7171,7 +8283,7 @@
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>583</v>
       </c>
       <c r="D46" t="s">
@@ -7182,7 +8294,7 @@
       <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="7" t="s">
         <v>585</v>
       </c>
       <c r="D47" t="s">
@@ -7193,7 +8305,7 @@
       <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="7" t="s">
         <v>587</v>
       </c>
       <c r="D48" t="s">
@@ -7204,7 +8316,7 @@
       <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>585</v>
       </c>
       <c r="D49" t="s">
@@ -7215,7 +8327,7 @@
       <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>590</v>
       </c>
       <c r="D50" t="s">
@@ -7226,7 +8338,7 @@
       <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="7" t="s">
         <v>592</v>
       </c>
       <c r="D51" t="s">
@@ -7237,7 +8349,7 @@
       <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="7" t="s">
         <v>594</v>
       </c>
       <c r="D52" t="s">
@@ -7248,7 +8360,7 @@
       <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="7" t="s">
         <v>596</v>
       </c>
       <c r="D53" t="s">
@@ -7259,7 +8371,7 @@
       <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>598</v>
       </c>
       <c r="D54" t="s">
@@ -7270,7 +8382,7 @@
       <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>600</v>
       </c>
       <c r="D55" t="s">
@@ -7281,7 +8393,7 @@
       <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>585</v>
       </c>
       <c r="D56" t="s">
@@ -7292,7 +8404,7 @@
       <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="7" t="s">
         <v>603</v>
       </c>
       <c r="D57" t="s">
@@ -7303,7 +8415,7 @@
       <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="7" t="s">
         <v>605</v>
       </c>
       <c r="D58" t="s">
@@ -7314,7 +8426,7 @@
       <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="7" t="s">
         <v>607</v>
       </c>
       <c r="D59" t="s">
@@ -7325,7 +8437,7 @@
       <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="7" t="s">
         <v>609</v>
       </c>
       <c r="D60" t="s">
@@ -7336,7 +8448,7 @@
       <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="7" t="s">
         <v>610</v>
       </c>
       <c r="D61" t="s">
@@ -7347,7 +8459,7 @@
       <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>612</v>
       </c>
       <c r="D62" t="s">
@@ -7358,7 +8470,7 @@
       <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="7" t="s">
         <v>614</v>
       </c>
       <c r="D63" t="s">
@@ -7369,7 +8481,7 @@
       <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="7" t="s">
         <v>616</v>
       </c>
       <c r="D64" t="s">
@@ -7380,7 +8492,7 @@
       <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="7" t="s">
         <v>618</v>
       </c>
       <c r="D65" t="s">
@@ -7391,7 +8503,7 @@
       <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="7" t="s">
         <v>620</v>
       </c>
       <c r="D66" t="s">
@@ -7402,7 +8514,7 @@
       <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="7" t="s">
         <v>622</v>
       </c>
       <c r="D67" t="s">
@@ -7413,7 +8525,7 @@
       <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>624</v>
       </c>
       <c r="D68" t="s">
@@ -7424,7 +8536,7 @@
       <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="7" t="s">
         <v>626</v>
       </c>
       <c r="D69" t="s">
@@ -7435,7 +8547,7 @@
       <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="7" t="s">
         <v>628</v>
       </c>
       <c r="D70" t="s">
@@ -7446,7 +8558,7 @@
       <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="7" t="s">
         <v>630</v>
       </c>
       <c r="D71" t="s">
@@ -7457,7 +8569,7 @@
       <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="7" t="s">
         <v>632</v>
       </c>
       <c r="D72" t="s">
@@ -7468,7 +8580,7 @@
       <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="7" t="s">
         <v>634</v>
       </c>
       <c r="D73" t="s">
@@ -7479,7 +8591,7 @@
       <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D74" t="s">
@@ -7490,7 +8602,7 @@
       <c r="B75" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="7" t="s">
         <v>637</v>
       </c>
       <c r="D75" t="s">
@@ -7501,7 +8613,7 @@
       <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="7" t="s">
         <v>639</v>
       </c>
       <c r="D76" t="s">
@@ -7512,7 +8624,7 @@
       <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="7" t="s">
         <v>641</v>
       </c>
       <c r="D77" t="s">
@@ -7523,7 +8635,7 @@
       <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="7" t="s">
         <v>643</v>
       </c>
       <c r="D78" t="s">
@@ -7534,7 +8646,7 @@
       <c r="B79" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="7" t="s">
         <v>645</v>
       </c>
       <c r="D79" t="s">
@@ -7545,7 +8657,7 @@
       <c r="B80" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="7" t="s">
         <v>647</v>
       </c>
       <c r="D80" t="s">
@@ -7556,7 +8668,7 @@
       <c r="B81" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="7" t="s">
         <v>649</v>
       </c>
       <c r="D81" t="s">
@@ -7567,7 +8679,7 @@
       <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="7" t="s">
         <v>651</v>
       </c>
       <c r="D82" t="s">
@@ -7578,7 +8690,7 @@
       <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="7" t="s">
         <v>653</v>
       </c>
       <c r="D83" t="s">
@@ -7589,7 +8701,7 @@
       <c r="B84" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="7" t="s">
         <v>655</v>
       </c>
       <c r="D84" t="s">
@@ -7600,7 +8712,7 @@
       <c r="B85" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="7" t="s">
         <v>657</v>
       </c>
       <c r="D85" t="s">
@@ -7611,7 +8723,7 @@
       <c r="B86" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="7" t="s">
         <v>659</v>
       </c>
       <c r="D86" t="s">
@@ -7622,7 +8734,7 @@
       <c r="B87" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="7" t="s">
         <v>661</v>
       </c>
       <c r="D87" t="s">
@@ -7633,7 +8745,7 @@
       <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="7" t="s">
         <v>663</v>
       </c>
       <c r="D88" t="s">
@@ -7644,7 +8756,7 @@
       <c r="B89" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="7" t="s">
         <v>665</v>
       </c>
       <c r="D89" t="s">
@@ -7655,7 +8767,7 @@
       <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="7" t="s">
         <v>667</v>
       </c>
       <c r="D90" t="s">
@@ -7666,7 +8778,7 @@
       <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="7" t="s">
         <v>669</v>
       </c>
       <c r="D91" t="s">
@@ -7677,7 +8789,7 @@
       <c r="B92" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D92" t="s">
@@ -7688,7 +8800,7 @@
       <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D93" t="s">
@@ -7699,7 +8811,7 @@
       <c r="B94" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="7" t="s">
         <v>675</v>
       </c>
       <c r="D94" t="s">
@@ -7710,7 +8822,7 @@
       <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="7" t="s">
         <v>677</v>
       </c>
       <c r="D95" t="s">
@@ -7721,7 +8833,7 @@
       <c r="B96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="7" t="s">
         <v>679</v>
       </c>
       <c r="D96" t="s">
@@ -7732,7 +8844,7 @@
       <c r="B97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="7" t="s">
         <v>681</v>
       </c>
       <c r="D97" t="s">
@@ -7743,7 +8855,7 @@
       <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="7" t="s">
         <v>683</v>
       </c>
       <c r="D98" t="s">
@@ -7754,7 +8866,7 @@
       <c r="B99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="7" t="s">
         <v>685</v>
       </c>
       <c r="D99" t="s">
@@ -7765,7 +8877,7 @@
       <c r="B100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="7" t="s">
         <v>687</v>
       </c>
       <c r="D100" t="s">
@@ -7776,7 +8888,7 @@
       <c r="B101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="7" t="s">
         <v>689</v>
       </c>
       <c r="D101" t="s">
@@ -7896,7 +9008,7 @@
   <sheetPr/>
   <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
@@ -7920,7 +9032,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>691</v>
       </c>
       <c r="D2" t="s">
@@ -7931,7 +9043,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>693</v>
       </c>
       <c r="D3" t="s">
@@ -7942,7 +9054,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>695</v>
       </c>
       <c r="D4" t="s">
@@ -7953,7 +9065,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>697</v>
       </c>
       <c r="D5" t="s">
@@ -7964,7 +9076,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>699</v>
       </c>
       <c r="D6" t="s">
@@ -7975,7 +9087,7 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>701</v>
       </c>
       <c r="D7" t="s">
@@ -7986,7 +9098,7 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>703</v>
       </c>
       <c r="D8" t="s">
@@ -7997,7 +9109,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>705</v>
       </c>
       <c r="D9" t="s">
@@ -8008,7 +9120,7 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>707</v>
       </c>
       <c r="D10" t="s">
@@ -8019,7 +9131,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>709</v>
       </c>
       <c r="D11" t="s">
@@ -8030,7 +9142,7 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>711</v>
       </c>
       <c r="D12" t="s">
@@ -8041,7 +9153,7 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>713</v>
       </c>
       <c r="D13" t="s">
@@ -8052,7 +9164,7 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>715</v>
       </c>
       <c r="D14" t="s">
@@ -8063,7 +9175,7 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>717</v>
       </c>
       <c r="D15" t="s">
@@ -8074,7 +9186,7 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>719</v>
       </c>
       <c r="D16" t="s">
@@ -8085,7 +9197,7 @@
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>721</v>
       </c>
       <c r="D17" t="s">
@@ -8096,7 +9208,7 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>723</v>
       </c>
       <c r="D18" t="s">
@@ -8107,7 +9219,7 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>723</v>
       </c>
       <c r="D19" t="s">
@@ -8118,7 +9230,7 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>726</v>
       </c>
       <c r="D20" t="s">
@@ -8129,7 +9241,7 @@
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>728</v>
       </c>
       <c r="D21" t="s">
@@ -8140,7 +9252,7 @@
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>730</v>
       </c>
       <c r="D22" t="s">
@@ -8151,7 +9263,7 @@
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>732</v>
       </c>
       <c r="D23" t="s">
@@ -8162,7 +9274,7 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>734</v>
       </c>
       <c r="D24" t="s">
@@ -8173,7 +9285,7 @@
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>736</v>
       </c>
       <c r="D25" t="s">
@@ -8184,7 +9296,7 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>738</v>
       </c>
       <c r="D26" t="s">
@@ -8195,7 +9307,7 @@
       <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>740</v>
       </c>
       <c r="D27" t="s">
@@ -8206,7 +9318,7 @@
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>742</v>
       </c>
       <c r="D28" t="s">
@@ -8217,7 +9329,7 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>744</v>
       </c>
       <c r="D29" t="s">
@@ -8228,7 +9340,7 @@
       <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>746</v>
       </c>
       <c r="D30" t="s">
@@ -8239,7 +9351,7 @@
       <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>748</v>
       </c>
       <c r="D31" t="s">
@@ -8250,7 +9362,7 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>750</v>
       </c>
       <c r="D32" t="s">
@@ -8261,7 +9373,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>752</v>
       </c>
       <c r="D33" t="s">
@@ -8272,7 +9384,7 @@
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>754</v>
       </c>
       <c r="D34" t="s">
@@ -8283,7 +9395,7 @@
       <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>756</v>
       </c>
       <c r="D35" t="s">
@@ -8294,7 +9406,7 @@
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>758</v>
       </c>
       <c r="D36" t="s">
@@ -8305,7 +9417,7 @@
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>760</v>
       </c>
       <c r="D37" t="s">
@@ -8316,7 +9428,7 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>762</v>
       </c>
       <c r="D38" t="s">
@@ -8327,7 +9439,7 @@
       <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>764</v>
       </c>
       <c r="D39" t="s">
@@ -8338,7 +9450,7 @@
       <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>766</v>
       </c>
       <c r="D40" t="s">
@@ -8349,7 +9461,7 @@
       <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>768</v>
       </c>
       <c r="D41" t="s">
@@ -8360,7 +9472,7 @@
       <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>770</v>
       </c>
       <c r="D42" t="s">
@@ -8371,7 +9483,7 @@
       <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="7" t="s">
         <v>772</v>
       </c>
       <c r="D43" t="s">
@@ -8382,7 +9494,7 @@
       <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="7" t="s">
         <v>774</v>
       </c>
       <c r="D44" t="s">
@@ -8393,7 +9505,7 @@
       <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="7" t="s">
         <v>776</v>
       </c>
       <c r="D45" t="s">
@@ -8404,7 +9516,7 @@
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>778</v>
       </c>
       <c r="D46" t="s">
@@ -8415,7 +9527,7 @@
       <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="7" t="s">
         <v>705</v>
       </c>
       <c r="D47" t="s">
@@ -8426,7 +9538,7 @@
       <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="7" t="s">
         <v>781</v>
       </c>
       <c r="D48" t="s">
@@ -8437,7 +9549,7 @@
       <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>705</v>
       </c>
       <c r="D49" t="s">
@@ -8448,7 +9560,7 @@
       <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>784</v>
       </c>
       <c r="D50" t="s">
@@ -8459,7 +9571,7 @@
       <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="7" t="s">
         <v>785</v>
       </c>
       <c r="D51" t="s">
@@ -8470,7 +9582,7 @@
       <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="7" t="s">
         <v>787</v>
       </c>
       <c r="D52" t="s">
@@ -8481,7 +9593,7 @@
       <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="7" t="s">
         <v>789</v>
       </c>
       <c r="D53" t="s">
@@ -8492,7 +9604,7 @@
       <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>791</v>
       </c>
       <c r="D54" t="s">
@@ -8503,7 +9615,7 @@
       <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>793</v>
       </c>
       <c r="D55" t="s">
@@ -8514,7 +9626,7 @@
       <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>705</v>
       </c>
       <c r="D56" t="s">
@@ -8525,7 +9637,7 @@
       <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="7" t="s">
         <v>796</v>
       </c>
       <c r="D57" t="s">
@@ -8536,7 +9648,7 @@
       <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="7" t="s">
         <v>798</v>
       </c>
       <c r="D58" t="s">
@@ -8547,7 +9659,7 @@
       <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="7" t="s">
         <v>799</v>
       </c>
       <c r="D59" t="s">
@@ -8558,7 +9670,7 @@
       <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="7" t="s">
         <v>801</v>
       </c>
       <c r="D60" t="s">
@@ -8569,7 +9681,7 @@
       <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="7" t="s">
         <v>803</v>
       </c>
       <c r="D61" t="s">
@@ -8580,7 +9692,7 @@
       <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>805</v>
       </c>
       <c r="D62" t="s">
@@ -8591,7 +9703,7 @@
       <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="7" t="s">
         <v>807</v>
       </c>
       <c r="D63" t="s">
@@ -8602,7 +9714,7 @@
       <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="7" t="s">
         <v>809</v>
       </c>
       <c r="D64" t="s">
@@ -8613,7 +9725,7 @@
       <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="7" t="s">
         <v>810</v>
       </c>
       <c r="D65" t="s">
@@ -8624,7 +9736,7 @@
       <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="7" t="s">
         <v>812</v>
       </c>
       <c r="D66" t="s">
@@ -8635,7 +9747,7 @@
       <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="7" t="s">
         <v>814</v>
       </c>
       <c r="D67" t="s">
@@ -8646,7 +9758,7 @@
       <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>816</v>
       </c>
       <c r="D68" t="s">
@@ -8657,7 +9769,7 @@
       <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="7" t="s">
         <v>818</v>
       </c>
       <c r="D69" t="s">
@@ -8668,7 +9780,7 @@
       <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="7" t="s">
         <v>820</v>
       </c>
       <c r="D70" t="s">
@@ -8679,7 +9791,7 @@
       <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="7" t="s">
         <v>822</v>
       </c>
       <c r="D71" t="s">
@@ -8690,7 +9802,7 @@
       <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="7" t="s">
         <v>824</v>
       </c>
       <c r="D72" t="s">
@@ -8701,7 +9813,7 @@
       <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="7" t="s">
         <v>826</v>
       </c>
       <c r="D73" t="s">
@@ -8712,7 +9824,7 @@
       <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="7" t="s">
         <v>828</v>
       </c>
       <c r="D74" t="s">
@@ -8723,7 +9835,7 @@
       <c r="B75" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="8" t="s">
         <v>830</v>
       </c>
       <c r="D75" t="s">
@@ -8734,7 +9846,7 @@
       <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="8" t="s">
         <v>832</v>
       </c>
       <c r="D76" t="s">
@@ -8745,7 +9857,7 @@
       <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="8" t="s">
         <v>834</v>
       </c>
       <c r="D77" t="s">
@@ -8756,7 +9868,7 @@
       <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="8" t="s">
         <v>836</v>
       </c>
       <c r="D78" t="s">
@@ -8767,7 +9879,7 @@
       <c r="B79" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="8" t="s">
         <v>838</v>
       </c>
       <c r="D79" t="s">
@@ -8778,7 +9890,7 @@
       <c r="B80" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="8" t="s">
         <v>840</v>
       </c>
       <c r="D80" t="s">
@@ -8789,7 +9901,7 @@
       <c r="B81" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="8" t="s">
         <v>842</v>
       </c>
       <c r="D81" t="s">
@@ -8800,7 +9912,7 @@
       <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="8" t="s">
         <v>844</v>
       </c>
       <c r="D82" t="s">
@@ -8811,7 +9923,7 @@
       <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="8" t="s">
         <v>846</v>
       </c>
       <c r="D83" t="s">
@@ -8822,7 +9934,7 @@
       <c r="B84" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="8" t="s">
         <v>848</v>
       </c>
       <c r="D84" t="s">
@@ -8833,7 +9945,7 @@
       <c r="B85" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="8" t="s">
         <v>850</v>
       </c>
       <c r="D85" t="s">
@@ -8844,7 +9956,7 @@
       <c r="B86" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="8" t="s">
         <v>852</v>
       </c>
       <c r="D86" t="s">
@@ -8855,7 +9967,7 @@
       <c r="B87" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="8" t="s">
         <v>854</v>
       </c>
       <c r="D87" t="s">
@@ -8866,7 +9978,7 @@
       <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="8" t="s">
         <v>856</v>
       </c>
       <c r="D88" t="s">
@@ -8877,7 +9989,7 @@
       <c r="B89" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="8" t="s">
         <v>858</v>
       </c>
       <c r="D89" t="s">
@@ -8888,7 +10000,7 @@
       <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="8" t="s">
         <v>860</v>
       </c>
       <c r="D90" t="s">
@@ -8899,7 +10011,7 @@
       <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="8" t="s">
         <v>862</v>
       </c>
       <c r="D91" t="s">
@@ -8910,7 +10022,7 @@
       <c r="B92" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="8" t="s">
         <v>864</v>
       </c>
       <c r="D92" t="s">
@@ -8921,7 +10033,7 @@
       <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="8" t="s">
         <v>866</v>
       </c>
       <c r="D93" t="s">
@@ -8932,7 +10044,7 @@
       <c r="B94" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="8" t="s">
         <v>868</v>
       </c>
       <c r="D94" t="s">
@@ -8943,7 +10055,7 @@
       <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="8" t="s">
         <v>870</v>
       </c>
       <c r="D95" t="s">
@@ -8954,7 +10066,7 @@
       <c r="B96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="8" t="s">
         <v>872</v>
       </c>
       <c r="D96" t="s">
@@ -8965,7 +10077,7 @@
       <c r="B97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="8" t="s">
         <v>873</v>
       </c>
       <c r="D97" t="s">
@@ -8976,7 +10088,7 @@
       <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="8" t="s">
         <v>830</v>
       </c>
       <c r="D98" t="s">
@@ -8987,7 +10099,7 @@
       <c r="B99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="8" t="s">
         <v>876</v>
       </c>
       <c r="D99" t="s">
@@ -8998,7 +10110,7 @@
       <c r="B100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="8" t="s">
         <v>878</v>
       </c>
       <c r="D100" t="s">
@@ -9009,7 +10121,7 @@
       <c r="B101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="8" t="s">
         <v>880</v>
       </c>
       <c r="D101" t="s">
@@ -9052,7 +10164,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>882</v>
       </c>
       <c r="D2" t="s">
@@ -9063,7 +10175,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>883</v>
       </c>
       <c r="D3" t="s">
@@ -9074,7 +10186,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>885</v>
       </c>
       <c r="D4" t="s">
@@ -9085,7 +10197,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>887</v>
       </c>
       <c r="D5" t="s">
@@ -9096,7 +10208,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>889</v>
       </c>
       <c r="D6" t="s">
@@ -9107,7 +10219,7 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>891</v>
       </c>
       <c r="D7" t="s">
@@ -9118,7 +10230,7 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>893</v>
       </c>
       <c r="D8" t="s">
@@ -9129,7 +10241,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>895</v>
       </c>
       <c r="D9" t="s">
@@ -9140,7 +10252,7 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>897</v>
       </c>
       <c r="D10" t="s">
@@ -9151,7 +10263,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>899</v>
       </c>
       <c r="D11" t="s">
@@ -9162,7 +10274,7 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>901</v>
       </c>
       <c r="D12" t="s">
@@ -9173,7 +10285,7 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>903</v>
       </c>
       <c r="D13" t="s">
@@ -9184,7 +10296,7 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>905</v>
       </c>
       <c r="D14" t="s">
@@ -9195,7 +10307,7 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>907</v>
       </c>
       <c r="D15" t="s">
@@ -9206,7 +10318,7 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>909</v>
       </c>
       <c r="D16" t="s">
@@ -9217,7 +10329,7 @@
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>911</v>
       </c>
       <c r="D17" t="s">
@@ -9228,7 +10340,7 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>913</v>
       </c>
       <c r="D18" t="s">
@@ -9239,7 +10351,7 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>915</v>
       </c>
       <c r="D19" t="s">
@@ -9250,7 +10362,7 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>917</v>
       </c>
       <c r="D20" t="s">
@@ -9261,7 +10373,7 @@
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>919</v>
       </c>
       <c r="D21" t="s">
@@ -9272,7 +10384,7 @@
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>921</v>
       </c>
       <c r="D22" t="s">
@@ -9283,7 +10395,7 @@
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>923</v>
       </c>
       <c r="D23" t="s">
@@ -9294,7 +10406,7 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>925</v>
       </c>
       <c r="D24" t="s">
@@ -9305,7 +10417,7 @@
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>927</v>
       </c>
       <c r="D25" t="s">
@@ -9316,7 +10428,7 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>929</v>
       </c>
       <c r="D26" t="s">
@@ -9327,7 +10439,7 @@
       <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>931</v>
       </c>
       <c r="D27" t="s">
@@ -9338,7 +10450,7 @@
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>933</v>
       </c>
       <c r="D28" t="s">
@@ -9349,7 +10461,7 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>935</v>
       </c>
       <c r="D29" t="s">
@@ -9360,7 +10472,7 @@
       <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>937</v>
       </c>
       <c r="D30" t="s">
@@ -9371,7 +10483,7 @@
       <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>939</v>
       </c>
       <c r="D31" t="s">
@@ -9382,7 +10494,7 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>941</v>
       </c>
       <c r="D32" t="s">
@@ -9393,7 +10505,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>943</v>
       </c>
       <c r="D33" t="s">
@@ -9404,7 +10516,7 @@
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>945</v>
       </c>
       <c r="D34" t="s">
@@ -9415,7 +10527,7 @@
       <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>947</v>
       </c>
       <c r="D35" t="s">
@@ -9426,7 +10538,7 @@
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>949</v>
       </c>
       <c r="D36" t="s">
@@ -9437,7 +10549,7 @@
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>951</v>
       </c>
       <c r="D37" t="s">
@@ -9448,7 +10560,7 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>953</v>
       </c>
       <c r="D38" t="s">
@@ -9459,7 +10571,7 @@
       <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>955</v>
       </c>
       <c r="D39" t="s">
@@ -9470,7 +10582,7 @@
       <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>957</v>
       </c>
       <c r="D40" t="s">
@@ -9481,7 +10593,7 @@
       <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>959</v>
       </c>
       <c r="D41" t="s">
@@ -9492,7 +10604,7 @@
       <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>961</v>
       </c>
       <c r="D42" t="s">
@@ -9503,7 +10615,7 @@
       <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="7" t="s">
         <v>963</v>
       </c>
       <c r="D43" t="s">
@@ -9514,7 +10626,7 @@
       <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="7" t="s">
         <v>965</v>
       </c>
       <c r="D44" t="s">
@@ -9525,7 +10637,7 @@
       <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="7" t="s">
         <v>967</v>
       </c>
       <c r="D45" t="s">
@@ -9536,7 +10648,7 @@
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>969</v>
       </c>
       <c r="D46" t="s">
@@ -9547,7 +10659,7 @@
       <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="7" t="s">
         <v>895</v>
       </c>
       <c r="D47" t="s">
@@ -9558,7 +10670,7 @@
       <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="7" t="s">
         <v>972</v>
       </c>
       <c r="D48" t="s">
@@ -9569,7 +10681,7 @@
       <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>895</v>
       </c>
       <c r="D49" t="s">
@@ -9580,7 +10692,7 @@
       <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>975</v>
       </c>
       <c r="D50" t="s">
@@ -9591,7 +10703,7 @@
       <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="7" t="s">
         <v>976</v>
       </c>
       <c r="D51" t="s">
@@ -9602,7 +10714,7 @@
       <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="7" t="s">
         <v>978</v>
       </c>
       <c r="D52" t="s">
@@ -9613,7 +10725,7 @@
       <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="7" t="s">
         <v>980</v>
       </c>
       <c r="D53" t="s">
@@ -9624,7 +10736,7 @@
       <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>982</v>
       </c>
       <c r="D54" t="s">
@@ -9635,7 +10747,7 @@
       <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>984</v>
       </c>
       <c r="D55" t="s">
@@ -9646,7 +10758,7 @@
       <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>895</v>
       </c>
       <c r="D56" t="s">
@@ -9657,7 +10769,7 @@
       <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="7" t="s">
         <v>987</v>
       </c>
       <c r="D57" t="s">
@@ -9668,7 +10780,7 @@
       <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="7" t="s">
         <v>989</v>
       </c>
       <c r="D58" t="s">
@@ -9679,7 +10791,7 @@
       <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="7" t="s">
         <v>990</v>
       </c>
       <c r="D59" t="s">
@@ -9690,7 +10802,7 @@
       <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="7" t="s">
         <v>992</v>
       </c>
       <c r="D60" t="s">
@@ -9701,7 +10813,7 @@
       <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="7" t="s">
         <v>994</v>
       </c>
       <c r="D61" t="s">
@@ -9712,7 +10824,7 @@
       <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>996</v>
       </c>
       <c r="D62" t="s">
@@ -9723,7 +10835,7 @@
       <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="7" t="s">
         <v>998</v>
       </c>
       <c r="D63" t="s">
@@ -9734,7 +10846,7 @@
       <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="D64" t="s">
@@ -9745,7 +10857,7 @@
       <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="D65" t="s">
@@ -9756,7 +10868,7 @@
       <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="D66" t="s">
@@ -9767,7 +10879,7 @@
       <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="7" t="s">
         <v>1006</v>
       </c>
       <c r="D67" t="s">
@@ -9778,7 +10890,7 @@
       <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>1008</v>
       </c>
       <c r="D68" t="s">
@@ -9789,7 +10901,7 @@
       <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="7" t="s">
         <v>1010</v>
       </c>
       <c r="D69" t="s">
@@ -9800,7 +10912,7 @@
       <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="7" t="s">
         <v>1012</v>
       </c>
       <c r="D70" t="s">
@@ -9811,7 +10923,7 @@
       <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="D71" t="s">
@@ -9822,7 +10934,7 @@
       <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="D72" t="s">
@@ -9833,7 +10945,7 @@
       <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="D73" t="s">
@@ -9844,7 +10956,7 @@
       <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="D74" t="s">
@@ -9855,7 +10967,7 @@
       <c r="B75" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="7" t="s">
         <v>1020</v>
       </c>
       <c r="D75" t="s">
@@ -9866,7 +10978,7 @@
       <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="7" t="s">
         <v>1022</v>
       </c>
       <c r="D76" t="s">
@@ -9877,7 +10989,7 @@
       <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="7" t="s">
         <v>1024</v>
       </c>
       <c r="D77" t="s">
@@ -9888,7 +11000,7 @@
       <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="7" t="s">
         <v>1026</v>
       </c>
       <c r="D78" t="s">
@@ -9899,7 +11011,7 @@
       <c r="B79" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="D79" t="s">
@@ -9910,7 +11022,7 @@
       <c r="B80" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="7" t="s">
         <v>1029</v>
       </c>
       <c r="D80" t="s">
@@ -9921,7 +11033,7 @@
       <c r="B81" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="7" t="s">
         <v>1031</v>
       </c>
       <c r="D81" t="s">
@@ -9932,7 +11044,7 @@
       <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="7" t="s">
         <v>1033</v>
       </c>
       <c r="D82" t="s">
@@ -9943,7 +11055,7 @@
       <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="7" t="s">
         <v>1035</v>
       </c>
       <c r="D83" t="s">
@@ -9954,7 +11066,7 @@
       <c r="B84" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="7" t="s">
         <v>1036</v>
       </c>
       <c r="D84" t="s">
@@ -9965,7 +11077,7 @@
       <c r="B85" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="7" t="s">
         <v>1038</v>
       </c>
       <c r="D85" t="s">
@@ -9976,7 +11088,7 @@
       <c r="B86" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="7" t="s">
         <v>1040</v>
       </c>
       <c r="D86" t="s">
@@ -9987,7 +11099,7 @@
       <c r="B87" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="7" t="s">
         <v>1042</v>
       </c>
       <c r="D87" t="s">
@@ -9998,7 +11110,7 @@
       <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="7" t="s">
         <v>1044</v>
       </c>
       <c r="D88" t="s">
@@ -10009,7 +11121,7 @@
       <c r="B89" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="7" t="s">
         <v>1046</v>
       </c>
       <c r="D89" t="s">
@@ -10020,7 +11132,7 @@
       <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="7" t="s">
         <v>1048</v>
       </c>
       <c r="D90" t="s">
@@ -10031,7 +11143,7 @@
       <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="7" t="s">
         <v>1050</v>
       </c>
       <c r="D91" t="s">
@@ -10042,7 +11154,7 @@
       <c r="B92" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="7" t="s">
         <v>1052</v>
       </c>
       <c r="D92" t="s">
@@ -10053,7 +11165,7 @@
       <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="7" t="s">
         <v>1054</v>
       </c>
       <c r="D93" t="s">
@@ -10064,7 +11176,7 @@
       <c r="B94" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="7" t="s">
         <v>1056</v>
       </c>
       <c r="D94" t="s">
@@ -10075,7 +11187,7 @@
       <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="7" t="s">
         <v>1058</v>
       </c>
       <c r="D95" t="s">
@@ -10086,7 +11198,7 @@
       <c r="B96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="7" t="s">
         <v>1060</v>
       </c>
       <c r="D96" t="s">
@@ -10097,7 +11209,7 @@
       <c r="B97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="7" t="s">
         <v>1062</v>
       </c>
       <c r="D97" t="s">
@@ -10108,7 +11220,7 @@
       <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="7" t="s">
         <v>1020</v>
       </c>
       <c r="D98" t="s">
@@ -10119,7 +11231,7 @@
       <c r="B99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="D99" t="s">
@@ -10130,7 +11242,7 @@
       <c r="B100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="D100" t="s">
@@ -10141,7 +11253,7 @@
       <c r="B101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="7" t="s">
         <v>1069</v>
       </c>
       <c r="D101" t="s">
@@ -10254,4 +11366,2381 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D101"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.14166666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.8083333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.4833333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="86.8" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://en.wikipedia.org/wiki/Phyllanthus_emblica"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://bg.wikipedia.org/wiki/%D0%AF%D0%B1%D1%8A%D0%BB%D0%BA%D0%B0"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D0%B9%D1%81%D0%B8%D1%8F"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://en.wikipedia.org/wiki/Artichoke"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://bg.wikipedia.org/wiki/%D0%90%D1%81%D0%BF%D0%B5%D1%80%D0%B6%D0%B0"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://bg.wikipedia.org/wiki/%D0%90%D0%B2%D0%BE%D0%BA%D0%B0%D0%B4%D0%BE"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://bg.wikipedia.org/wiki/%D0%91%D0%B0%D0%BD%D0%B0%D0%BD_(%D0%BF%D0%BB%D0%BE%D0%B4)"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D1%80%D1%83%D0%BB%D1%8F"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://bg.wikipedia.org/wiki/%D0%A7%D0%B5%D1%80%D0%B2%D0%B5%D0%BD%D0%BE_%D1%86%D0%B2%D0%B5%D0%BA%D0%BB%D0%BE"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://bg.wikipedia.org/wiki/%D0%9A%D1%8A%D0%BF%D0%B8%D0%BD%D0%B0"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://bg.wikipedia.org/wiki/%D0%91%D0%BE%D1%80%D0%BE%D0%B2%D0%B8%D0%BD%D0%BA%D0%B0"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://bg.wikipedia.org/wiki/%D0%91%D1%80%D0%BE%D0%BA%D0%BE%D0%BB%D0%B8"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://bg.wikipedia.org/wiki/%D0%91%D1%80%D1%8E%D0%BA%D1%81%D0%B5%D0%BB%D1%81%D0%BA%D0%BE_%D0%B7%D0%B5%D0%BB%D0%B5"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://bg.wikipedia.org/wiki/%D0%A0%D0%BE%D0%B6%D0%BA%D0%BE%D0%B2"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%BE%D1%80%D0%BA%D0%BE%D0%B2"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D1%80%D1%84%D0%B8%D0%BE%D0%BB"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://bg.wikipedia.org/wiki/%D0%A6%D0%B5%D0%BB%D0%B8%D0%BD%D0%B0"/>
+    <hyperlink ref="C19" r:id="rId17" display="https://bg.wikipedia.org/wiki/%D0%A6%D0%B5%D0%BB%D0%B8%D0%BD%D0%B0"/>
+    <hyperlink ref="C20" r:id="rId18" display="https://bg.wikipedia.org/wiki/%D0%9A%D1%83%D0%BB%D1%82%D0%B8%D0%B2%D0%B8%D1%80%D0%B0%D0%BD%D0%B0_%D0%BF%D0%B5%D1%87%D1%83%D1%80%D0%BA%D0%B0"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BD%D0%B3%D0%BE%D0%BB%D0%B4"/>
+    <hyperlink ref="C22" r:id="rId20" display="https://bg.wikipedia.org/wiki/%D0%94%D0%B8%D0%B2%D0%B0_%D1%87%D0%B5%D1%80%D0%B5%D1%88%D0%B0"/>
+    <hyperlink ref="C23" r:id="rId21" display="https://bg.wikipedia.org/wiki/%D0%A1%D0%BB%D0%B0%D0%B4%D1%8A%D0%BA_%D0%BA%D0%B5%D1%81%D1%82%D0%B5%D0%BD"/>
+    <hyperlink ref="C24" r:id="rId22" display="https://bg.wikipedia.org/wiki/%D0%A1%D0%B8%D0%BD%D1%8F_%D0%B6%D0%BB%D1%8A%D1%87%D0%BA%D0%B0"/>
+    <hyperlink ref="C25" r:id="rId23" display="https://en.wikipedia.org/wiki/Napa_cabbage"/>
+    <hyperlink ref="C26" r:id="rId24" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BD%D0%B4%D0%B0%D1%80%D0%B8%D0%BD%D0%B0"/>
+    <hyperlink ref="C27" r:id="rId25" display="https://en.wikipedia.org/wiki/Rubus_chamaemorus"/>
+    <hyperlink ref="C28" r:id="rId26" display="https://bg.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BA%D0%BE%D1%81%D0%BE%D0%B2%D0%B0_%D0%BF%D0%B0%D0%BB%D0%BC%D0%B0"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://bg.wikipedia.org/wiki/%D0%A7%D0%B5%D1%80%D0%B2%D0%B5%D0%BD%D0%B0_%D0%B1%D0%BE%D1%80%D0%BE%D0%B2%D0%B8%D0%BD%D0%BA%D0%B0"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://bg.wikipedia.org/wiki/%D0%9A%D1%80%D0%B0%D1%81%D1%82%D0%B0%D0%B2%D0%B8%D1%86%D0%B0"/>
+    <hyperlink ref="C31" r:id="rId29" display="https://bg.wikipedia.org/wiki/%D0%A4%D1%80%D0%B5%D0%BD%D1%81%D0%BA%D0%BE_%D0%B3%D1%80%D0%BE%D0%B7%D0%B4%D0%B5"/>
+    <hyperlink ref="C32" r:id="rId30" display="https://bg.wikipedia.org/wiki/%D0%A4%D1%83%D1%80%D0%BC%D0%B0"/>
+    <hyperlink ref="C33" r:id="rId31" display="https://bg.wikipedia.org/wiki/%D0%9F%D0%B8%D1%82%D0%B0%D1%8F"/>
+    <hyperlink ref="C34" r:id="rId32" display="https://bg.wikipedia.org/wiki/%D0%9F%D0%B0%D1%82%D0%BB%D0%B0%D0%B4%D0%B6%D0%B0%D0%BD"/>
+    <hyperlink ref="C35" r:id="rId33" display="https://bg.wikipedia.org/wiki/%D0%A7%D0%B5%D1%80%D0%B5%D0%BD_%D0%B1%D1%8A%D0%B7"/>
+    <hyperlink ref="C36" r:id="rId34" display="https://en.wikipedia.org/wiki/Endive"/>
+    <hyperlink ref="C37" r:id="rId35" display="https://bg.wikipedia.org/wiki/%D0%A0%D0%B5%D0%B7%D0%B5%D0%BD%D0%B5"/>
+    <hyperlink ref="C38" r:id="rId36" display="https://en.wikipedia.org/wiki/Valerianella_locusta"/>
+    <hyperlink ref="C39" r:id="rId37" display="https://bg.wikipedia.org/wiki/%D0%A1%D0%BC%D0%BE%D0%BA%D0%B8%D0%BD%D1%8F"/>
+    <hyperlink ref="C40" r:id="rId38" display="https://bg.wikipedia.org/wiki/%D0%A6%D0%B0%D1%80%D0%B8%D0%B3%D1%80%D0%B0%D0%B4%D1%81%D0%BA%D0%BE_%D0%B3%D1%80%D0%BE%D0%B7%D0%B4%D0%B5"/>
+    <hyperlink ref="C41" r:id="rId39" display="https://bg.wikipedia.org/wiki/%D0%93%D1%80%D0%B5%D0%B9%D0%BF%D1%84%D1%80%D1%83%D1%82"/>
+    <hyperlink ref="C42" r:id="rId40" display="https://bg.wikipedia.org/wiki/%D0%93%D1%80%D0%BE%D0%B7%D0%B4%D0%B5"/>
+    <hyperlink ref="C43" r:id="rId41" display="https://bg.wikipedia.org/wiki/%D0%A4%D0%B0%D1%81%D1%83%D0%BB"/>
+    <hyperlink ref="C44" r:id="rId42" display="https://en.wikipedia.org/wiki/Kale"/>
+    <hyperlink ref="C45" r:id="rId43" display="https://bg.wikipedia.org/wiki/%D0%9A%D1%80%D0%BE%D0%BC%D0%B8%D0%B4_%D0%BB%D1%83%D0%BA"/>
+    <hyperlink ref="C46" r:id="rId44" display="https://en.wikipedia.org/wiki/Psidium_guajava"/>
+    <hyperlink ref="C47" r:id="rId8" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D1%80%D1%83%D0%BB%D1%8F"/>
+    <hyperlink ref="C48" r:id="rId45" display="https://bg.wikipedia.org/wiki/%D0%9F%D1%8A%D0%BF%D0%B5%D1%88"/>
+    <hyperlink ref="C49" r:id="rId8" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D1%80%D1%83%D0%BB%D1%8F"/>
+    <hyperlink ref="C50" r:id="rId46" display="https://bg.wikipedia.org/wiki/%D0%9A%D0%B8%D0%B2%D0%B8_(%D0%BF%D0%BB%D0%BE%D0%B4)"/>
+    <hyperlink ref="C51" r:id="rId47" display="https://bg.wikipedia.org/wiki/%D0%90%D0%BB%D0%B0%D0%B1%D0%B0%D1%88"/>
+    <hyperlink ref="C52" r:id="rId48" display="https://bg.wikipedia.org/wiki/%D0%9F%D1%80%D0%B0%D0%B7"/>
+    <hyperlink ref="C53" r:id="rId49" display="https://bg.wikipedia.org/wiki/%D0%9B%D0%B8%D0%BC%D0%BE%D0%BD"/>
+    <hyperlink ref="C54" r:id="rId50" display="https://bg.wikipedia.org/wiki/%D0%97%D0%B5%D0%BB%D0%B5%D0%BD_%D0%BB%D0%B8%D0%BC%D0%BE%D0%BD"/>
+    <hyperlink ref="C55" r:id="rId27" display="https://bg.wikipedia.org/wiki/%D0%A7%D0%B5%D1%80%D0%B2%D0%B5%D0%BD%D0%B0_%D0%B1%D0%BE%D1%80%D0%BE%D0%B2%D0%B8%D0%BD%D0%BA%D0%B0"/>
+    <hyperlink ref="C56" r:id="rId8" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D1%80%D1%83%D0%BB%D1%8F"/>
+    <hyperlink ref="C57" r:id="rId51" display="https://bg.wikipedia.org/wiki/%D0%9A%D0%B8%D1%82%D0%B0%D0%B9%D1%81%D0%BA%D0%BE_%D0%BB%D0%B8%D1%87%D0%B8"/>
+    <hyperlink ref="C58" r:id="rId52" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BD%D0%B3%D0%BE"/>
+    <hyperlink ref="C59" r:id="rId53" display="https://en.wikipedia.org/wiki/Pyrus_pyrifolia"/>
+    <hyperlink ref="C60" r:id="rId54" display="https://bg.wikipedia.org/wiki/%D0%9F%D1%80%D0%B0%D1%81%D0%BA%D0%BE%D0%B2%D0%B0"/>
+    <hyperlink ref="C61" r:id="rId43" display="https://bg.wikipedia.org/wiki/%D0%9A%D1%80%D0%BE%D0%BC%D0%B8%D0%B4_%D0%BB%D1%83%D0%BA"/>
+    <hyperlink ref="C62" r:id="rId55" display="https://bg.wikipedia.org/wiki/%D0%9F%D0%BE%D1%80%D1%82%D0%BE%D0%BA%D0%B0%D0%BB"/>
+    <hyperlink ref="C63" r:id="rId56" display="https://en.wikipedia.org/wiki/Bok_choy"/>
+    <hyperlink ref="C64" r:id="rId57" display="https://bg.wikipedia.org/wiki/%D0%9F%D0%B0%D0%BF%D0%B0%D1%8F"/>
+    <hyperlink ref="C65" r:id="rId58" display="https://en.wikipedia.org/wiki/Bell_pepper"/>
+    <hyperlink ref="C66" r:id="rId59" display="https://bg.wikipedia.org/wiki/%D0%9F%D0%B0%D1%89%D1%8A%D1%80%D0%BD%D0%B0%D0%BA"/>
+    <hyperlink ref="C67" r:id="rId60" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D1%80%D0%B0%D0%BA%D1%83%D1%8F"/>
+    <hyperlink ref="C68" r:id="rId54" display="https://bg.wikipedia.org/wiki/%D0%9F%D1%80%D0%B0%D1%81%D0%BA%D0%BE%D0%B2%D0%B0"/>
+    <hyperlink ref="C69" r:id="rId61" display="https://bg.wikipedia.org/wiki/%D0%9A%D1%80%D1%83%D1%88%D0%B0"/>
+    <hyperlink ref="C70" r:id="rId62" display="https://bg.wikipedia.org/wiki/%D0%93%D1%80%D0%B0%D1%85"/>
+    <hyperlink ref="C71" r:id="rId63" display="https://bg.wikipedia.org/wiki/%D0%A0%D0%B0%D0%B9%D1%81%D0%BA%D0%B0_%D1%8F%D0%B1%D1%8A%D0%BB%D0%BA%D0%B0"/>
+    <hyperlink ref="C72" r:id="rId64" display="https://bg.wikipedia.org/wiki/%D0%A4%D0%B8%D0%B7%D0%B0%D0%BB%D0%B8%D1%81"/>
+    <hyperlink ref="C73" r:id="rId65" display="https://bg.wikipedia.org/wiki/%D0%90%D0%BD%D0%B0%D0%BD%D0%B0%D1%81"/>
+    <hyperlink ref="C74" r:id="rId66" display="https://bg.wikipedia.org/wiki/%D0%A1%D0%BB%D0%B8%D0%B2%D0%B0"/>
+    <hyperlink ref="C75" r:id="rId67" display="https://bg.wikipedia.org/wiki/%D0%97%D0%B5%D0%BB%D0%B5"/>
+    <hyperlink ref="C76" r:id="rId68" display="https://bg.wikipedia.org/wiki/%D0%9D%D0%B0%D1%80"/>
+    <hyperlink ref="C77" r:id="rId69" display="https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D1%80%D1%82%D0%BE%D1%84"/>
+    <hyperlink ref="C78" r:id="rId70" display="https://en.wikipedia.org/wiki/Opuntia_ficus-indica"/>
+    <hyperlink ref="C79" r:id="rId71" display="https://en.wikipedia.org/wiki/Zwetschge"/>
+    <hyperlink ref="C80" r:id="rId72" display="https://bg.wikipedia.org/wiki/%D0%A2%D0%B8%D0%BA%D0%B2%D0%B0"/>
+    <hyperlink ref="C81" r:id="rId73" display="https://en.wikipedia.org/wiki/Red_cabbage"/>
+    <hyperlink ref="C82" r:id="rId74" display="https://bg.wikipedia.org/wiki/%D0%94%D1%8E%D0%BB%D1%8F"/>
+    <hyperlink ref="C83" r:id="rId75" display="https://en.wikipedia.org/wiki/Radicchio"/>
+    <hyperlink ref="C84" r:id="rId76" display="https://bg.wikipedia.org/wiki/%D0%A0%D1%8F%D0%BF%D0%B0"/>
+    <hyperlink ref="C85" r:id="rId77" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BB%D0%B8%D0%BD%D0%B0"/>
+    <hyperlink ref="C86" r:id="rId78" display="https://bg.wikipedia.org/wiki/%D0%92%D1%8A%D0%BB%D0%BD%D0%BE%D0%BE%D0%B1%D1%80%D0%B0%D0%B7%D0%B5%D0%BD_%D1%80%D0%B5%D0%B2%D0%B5%D0%BD"/>
+    <hyperlink ref="C87" r:id="rId79" display="https://bg.wikipedia.org/wiki/%D0%9E%D0%B1%D0%B8%D0%BA%D0%BD%D0%BE%D0%B2%D0%B5%D0%BD%D0%B0_%D1%88%D0%B8%D0%BF%D0%BA%D0%B0"/>
+    <hyperlink ref="C88" r:id="rId80" display="https://en.wikipedia.org/wiki/Savoy_cabbage"/>
+    <hyperlink ref="C89" r:id="rId81" display="https://bg.wikipedia.org/wiki/%D0%A0%D0%B5%D0%BF%D0%B8%D1%87%D0%BA%D0%B0"/>
+    <hyperlink ref="C90" r:id="rId82" display="https://bg.wikipedia.org/wiki/%D0%9E%D1%84%D0%B8%D0%BA%D0%B0"/>
+    <hyperlink ref="C91" r:id="rId83" display="https://bg.wikipedia.org/wiki/%D0%9E%D0%B1%D0%B8%D0%BA%D0%BD%D0%BE%D0%B2%D0%B5%D0%BD_%D1%81%D0%BF%D0%B0%D0%BD%D0%B0%D0%BA"/>
+    <hyperlink ref="C92" r:id="rId84" display="https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D1%80%D0%B0%D0%BC%D0%B1%D0%BE%D0%BB%D0%B0"/>
+    <hyperlink ref="C93" r:id="rId85" display="https://bg.wikipedia.org/wiki/%D0%AF%D0%B3%D0%BE%D0%B4%D0%B0"/>
+    <hyperlink ref="C94" r:id="rId86" display="https://bg.wikipedia.org/wiki/%D0%A6%D0%B0%D1%80%D0%B5%D0%B2%D0%B8%D1%86%D0%B0"/>
+    <hyperlink ref="C95" r:id="rId87" display="https://bg.wikipedia.org/wiki/%D0%A1%D0%BB%D0%B0%D0%B4%D1%8A%D0%BA_%D0%BA%D0%B0%D1%80%D1%82%D0%BE%D1%84"/>
+    <hyperlink ref="C96" r:id="rId88" display="https://bg.wikipedia.org/wiki/%D0%94%D0%BE%D0%BC%D0%B0%D1%82"/>
+    <hyperlink ref="C97" r:id="rId89" display="https://bg.wikipedia.org/wiki/%D0%9E%D0%B1%D0%B8%D0%BA%D0%BD%D0%BE%D0%B2%D0%B5%D0%BD%D0%B0_%D0%B4%D0%B8%D0%BD%D1%8F"/>
+    <hyperlink ref="C98" r:id="rId67" display="https://bg.wikipedia.org/wiki/%D0%97%D0%B5%D0%BB%D0%B5"/>
+    <hyperlink ref="C99" r:id="rId90" display="https://bg.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D1%81%D0%BA%D0%B0_%D1%8F%D0%B3%D0%BE%D0%B4%D0%B0"/>
+    <hyperlink ref="C100" r:id="rId91" display="https://bg.wikipedia.org/wiki/%D0%9C%D0%B8%D1%80%D0%B0%D0%B1%D0%B5%D0%BB%D0%B0_(%D1%81%D0%BB%D0%B8%D0%B2%D0%B0)"/>
+    <hyperlink ref="C101" r:id="rId92" display="https://bg.wikipedia.org/wiki/%D0%A2%D0%B8%D0%BA%D0%B2%D0%B8%D1%87%D0%BA%D0%B0"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="7.925" style="1"/>
+    <col min="2" max="2" width="14.5083333333333" style="1"/>
+    <col min="3" max="3" width="46.625" style="1"/>
+    <col min="4" max="16384" width="7.925" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="C32" r:id="rId1" display="https://it.wikipedia.org/wiki/Phoenix_dactylifera"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
 </file>